--- a/Code/Results/Cases/Case_1_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_23/res_line/pl_mw.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6455972750722765</v>
+        <v>0.6455972750727312</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.008856831222804118</v>
+        <v>0.008856831222800565</v>
       </c>
       <c r="E2">
-        <v>0.4780970612768982</v>
+        <v>0.4780970612769053</v>
       </c>
       <c r="F2">
-        <v>3.530345612829024</v>
+        <v>3.530345612829052</v>
       </c>
       <c r="G2">
-        <v>2.7005334237504</v>
+        <v>2.700533423750429</v>
       </c>
       <c r="H2">
-        <v>0.587455791667935</v>
+        <v>0.5874557916679564</v>
       </c>
       <c r="I2">
-        <v>0.3839256266945128</v>
+        <v>0.3839256266944844</v>
       </c>
       <c r="J2">
-        <v>7.453531770020192</v>
+        <v>7.45353177002022</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5601721511096969</v>
+        <v>0.5601721511096116</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.006108042646024714</v>
+        <v>0.006108042645909251</v>
       </c>
       <c r="E3">
-        <v>0.4053823750593324</v>
+        <v>0.4053823750593111</v>
       </c>
       <c r="F3">
         <v>2.979608941824267</v>
@@ -471,7 +471,7 @@
         <v>0.5397057730216233</v>
       </c>
       <c r="I3">
-        <v>0.3238145683813158</v>
+        <v>0.3238145683813229</v>
       </c>
       <c r="J3">
         <v>6.411926573804436</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5080788144865096</v>
+        <v>0.5080788144862822</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.004717091646696758</v>
+        <v>0.004717091646487148</v>
       </c>
       <c r="E4">
-        <v>0.3626504402623212</v>
+        <v>0.3626504402623496</v>
       </c>
       <c r="F4">
-        <v>2.663072414989529</v>
+        <v>2.663072414989472</v>
       </c>
       <c r="G4">
-        <v>2.029865622453855</v>
+        <v>2.029865622453826</v>
       </c>
       <c r="H4">
-        <v>0.5120961281834795</v>
+        <v>0.5120961281834511</v>
       </c>
       <c r="I4">
-        <v>0.2887573733548052</v>
+        <v>0.2887573733547697</v>
       </c>
       <c r="J4">
-        <v>5.785694233273148</v>
+        <v>5.785694233273176</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4869176679252689</v>
+        <v>0.4869176679252973</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.004211634245413265</v>
+        <v>0.004211634245541163</v>
       </c>
       <c r="E5">
-        <v>0.3456276067507318</v>
+        <v>0.3456276067507176</v>
       </c>
       <c r="F5">
-        <v>2.538581538778431</v>
+        <v>2.538581538778402</v>
       </c>
       <c r="G5">
-        <v>1.93395569275377</v>
+        <v>1.933955692753742</v>
       </c>
       <c r="H5">
-        <v>0.5012279660347403</v>
+        <v>0.5012279660347474</v>
       </c>
       <c r="I5">
-        <v>0.2748499951234322</v>
+        <v>0.274849995123418</v>
       </c>
       <c r="J5">
-        <v>5.533147295550066</v>
+        <v>5.533147295550037</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4834073365677511</v>
+        <v>0.4834073365677227</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004131067620116724</v>
+        <v>0.004131067620127382</v>
       </c>
       <c r="E6">
-        <v>0.3428222308544662</v>
+        <v>0.3428222308544164</v>
       </c>
       <c r="F6">
         <v>2.518157436715342</v>
@@ -582,10 +582,10 @@
         <v>1.918230284320998</v>
       </c>
       <c r="H6">
-        <v>0.4994452019990376</v>
+        <v>0.4994452019990447</v>
       </c>
       <c r="I6">
-        <v>0.2725613149806705</v>
+        <v>0.2725613149806563</v>
       </c>
       <c r="J6">
         <v>5.491353788541403</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5077931830508362</v>
+        <v>0.507793183051092</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004710042161946149</v>
+        <v>0.004710042161933714</v>
       </c>
       <c r="E7">
-        <v>0.3624193902947681</v>
+        <v>0.3624193902948178</v>
       </c>
       <c r="F7">
         <v>2.661376383741498</v>
@@ -620,10 +620,10 @@
         <v>2.028558302410417</v>
       </c>
       <c r="H7">
-        <v>0.5119480627380284</v>
+        <v>0.5119480627380639</v>
       </c>
       <c r="I7">
-        <v>0.2885683835088528</v>
+        <v>0.2885683835088102</v>
       </c>
       <c r="J7">
         <v>5.782278413642274</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6160536225964393</v>
+        <v>0.6160536225964961</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.007838613407034956</v>
+        <v>0.007838613407045614</v>
       </c>
       <c r="E8">
-        <v>0.452567248233585</v>
+        <v>0.4525672482336347</v>
       </c>
       <c r="F8">
-        <v>3.335345314723384</v>
+        <v>3.335345314723412</v>
       </c>
       <c r="G8">
         <v>2.549387562256896</v>
       </c>
       <c r="H8">
-        <v>0.5706065409501022</v>
+        <v>0.5706065409501093</v>
       </c>
       <c r="I8">
-        <v>0.3627574518233416</v>
+        <v>0.3627574518233558</v>
       </c>
       <c r="J8">
         <v>7.091158175383839</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.832435845866911</v>
+        <v>0.8324358458668826</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01710436816515326</v>
+        <v>0.0171043681655032</v>
       </c>
       <c r="E9">
-        <v>0.6498199170173251</v>
+        <v>0.6498199170173535</v>
       </c>
       <c r="F9">
-        <v>4.882460726797547</v>
+        <v>4.882460726797518</v>
       </c>
       <c r="G9">
         <v>3.753232842796479</v>
       </c>
       <c r="H9">
-        <v>0.7017392654593522</v>
+        <v>0.7017392654593806</v>
       </c>
       <c r="I9">
-        <v>0.5279809901686008</v>
+        <v>0.527980990168615</v>
       </c>
       <c r="J9">
-        <v>9.803944418074849</v>
+        <v>9.803944418074821</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9960975883775234</v>
+        <v>0.996097588377296</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02733170502165194</v>
+        <v>0.02733170502164839</v>
       </c>
       <c r="E10">
-        <v>0.8174259581515315</v>
+        <v>0.8174259581515599</v>
       </c>
       <c r="F10">
-        <v>6.259816908974074</v>
+        <v>6.259816908974102</v>
       </c>
       <c r="G10">
-        <v>4.832604082592752</v>
+        <v>4.832604082592781</v>
       </c>
       <c r="H10">
-        <v>0.8123816066442444</v>
+        <v>0.8123816066442515</v>
       </c>
       <c r="I10">
-        <v>0.6711879799946416</v>
+        <v>0.6711879799946345</v>
       </c>
       <c r="J10">
         <v>11.9632202714192</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.072253994611117</v>
+        <v>1.072253994611202</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03327105561769628</v>
+        <v>0.03327105561750088</v>
       </c>
       <c r="E11">
-        <v>0.9022356341270665</v>
+        <v>0.902235634127095</v>
       </c>
       <c r="F11">
-        <v>6.974991896424228</v>
+        <v>6.9749918964242</v>
       </c>
       <c r="G11">
-        <v>5.395416151883268</v>
+        <v>5.395416151883325</v>
       </c>
       <c r="H11">
         <v>0.8672237846559341</v>
       </c>
       <c r="I11">
-        <v>0.7445691181607188</v>
+        <v>0.7445691181607756</v>
       </c>
       <c r="J11">
         <v>13.00858473432123</v>
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.101418420324364</v>
+        <v>1.101418420324165</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03577804932368167</v>
+        <v>0.03577804932368522</v>
       </c>
       <c r="E12">
         <v>0.936065363556196</v>
@@ -810,13 +810,13 @@
         <v>5.622737177239145</v>
       </c>
       <c r="H12">
-        <v>0.8888060250911565</v>
+        <v>0.8888060250911423</v>
       </c>
       <c r="I12">
-        <v>0.7740061482026874</v>
+        <v>0.7740061482027087</v>
       </c>
       <c r="J12">
-        <v>13.41703258463048</v>
+        <v>13.41703258463036</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.095121264156575</v>
+        <v>1.095121264156518</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03522511102740822</v>
+        <v>0.03522511102761072</v>
       </c>
       <c r="E13">
-        <v>0.9286931061199084</v>
+        <v>0.9286931061199226</v>
       </c>
       <c r="F13">
-        <v>7.200347432202619</v>
+        <v>7.200347432202591</v>
       </c>
       <c r="G13">
         <v>5.573066915354957</v>
       </c>
       <c r="H13">
-        <v>0.8841183773468941</v>
+        <v>0.8841183773469083</v>
       </c>
       <c r="I13">
-        <v>0.7675831878912618</v>
+        <v>0.7675831878912689</v>
       </c>
       <c r="J13">
-        <v>13.32843245386778</v>
+        <v>13.3284324538678</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.074646280809048</v>
+        <v>1.07464628080902</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03347159736837924</v>
+        <v>0.03347159736875227</v>
       </c>
       <c r="E14">
-        <v>0.9049808959558305</v>
+        <v>0.9049808959558163</v>
       </c>
       <c r="F14">
-        <v>6.99832704207094</v>
+        <v>6.998327042070912</v>
       </c>
       <c r="G14">
-        <v>5.413804931376831</v>
+        <v>5.413804931376774</v>
       </c>
       <c r="H14">
-        <v>0.868981878206867</v>
+        <v>0.8689818782068386</v>
       </c>
       <c r="I14">
-        <v>0.7469544191611277</v>
+        <v>0.7469544191610993</v>
       </c>
       <c r="J14">
-        <v>13.04190977686545</v>
+        <v>13.04190977686548</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.06215003358551</v>
+        <v>1.062150033585169</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0324338470103136</v>
+        <v>0.03243384701007557</v>
       </c>
       <c r="E15">
-        <v>0.8906978285281184</v>
+        <v>0.8906978285280758</v>
       </c>
       <c r="F15">
-        <v>6.877042185118654</v>
+        <v>6.877042185118626</v>
       </c>
       <c r="G15">
         <v>5.318245782911589</v>
       </c>
       <c r="H15">
-        <v>0.8598223523567441</v>
+        <v>0.8598223523567583</v>
       </c>
       <c r="I15">
         <v>0.7345509427136605</v>
       </c>
       <c r="J15">
-        <v>12.86817718454373</v>
+        <v>12.86817718454375</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9911611864484939</v>
+        <v>0.9911611864484655</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02697495907142056</v>
+        <v>0.02697495907158398</v>
       </c>
       <c r="E16">
-        <v>0.8120923547161709</v>
+        <v>0.8120923547161993</v>
       </c>
       <c r="F16">
-        <v>6.21522398862777</v>
+        <v>6.215223988627713</v>
       </c>
       <c r="G16">
-        <v>4.797561963503767</v>
+        <v>4.797561963503739</v>
       </c>
       <c r="H16">
-        <v>0.8089012665573492</v>
+        <v>0.8089012665573847</v>
       </c>
       <c r="I16">
-        <v>0.6665932803520533</v>
+        <v>0.666593280352032</v>
       </c>
       <c r="J16">
-        <v>11.8964405952733</v>
+        <v>11.89644059527328</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9480980763820241</v>
+        <v>0.9480980763822515</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0239981938874898</v>
+        <v>0.02399819388754842</v>
       </c>
       <c r="E17">
         <v>0.7663463752882507</v>
       </c>
       <c r="F17">
-        <v>5.834717982975206</v>
+        <v>5.834717982975235</v>
       </c>
       <c r="G17">
-        <v>4.498804128162476</v>
+        <v>4.498804128162448</v>
       </c>
       <c r="H17">
-        <v>0.7789200168365511</v>
+        <v>0.7789200168365369</v>
       </c>
       <c r="I17">
-        <v>0.6272845255062265</v>
+        <v>0.6272845255062762</v>
       </c>
       <c r="J17">
-        <v>11.31854451767302</v>
+        <v>11.31854451767299</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9234838758204091</v>
+        <v>0.9234838758206934</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02240144442443004</v>
+        <v>0.02240144442443892</v>
       </c>
       <c r="E18">
-        <v>0.7408028697847584</v>
+        <v>0.7408028697847655</v>
       </c>
       <c r="F18">
-        <v>5.623829353295008</v>
+        <v>5.62382935329498</v>
       </c>
       <c r="G18">
-        <v>4.333422699886455</v>
+        <v>4.333422699886484</v>
       </c>
       <c r="H18">
         <v>0.7620877209809365</v>
       </c>
       <c r="I18">
-        <v>0.6054138991287275</v>
+        <v>0.6054138991287061</v>
       </c>
       <c r="J18">
-        <v>10.99181932134775</v>
+        <v>10.9918193213478</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.915174436802431</v>
+        <v>0.9151744368026584</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02187890189089714</v>
+        <v>0.0218789018908172</v>
       </c>
       <c r="E19">
-        <v>0.732274729899693</v>
+        <v>0.7322747298996859</v>
       </c>
       <c r="F19">
         <v>5.553680136239819</v>
@@ -1076,13 +1076,13 @@
         <v>4.278443311439219</v>
       </c>
       <c r="H19">
-        <v>0.7564551630402008</v>
+        <v>0.7564551630401866</v>
       </c>
       <c r="I19">
-        <v>0.5981246738890391</v>
+        <v>0.5981246738889823</v>
       </c>
       <c r="J19">
-        <v>10.88208412859663</v>
+        <v>10.88208412859669</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9526657225533768</v>
+        <v>0.9526657225530357</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02430270365036336</v>
+        <v>0.02430270365043796</v>
       </c>
       <c r="E20">
         <v>0.7711337464352539</v>
       </c>
       <c r="F20">
-        <v>5.874370556607943</v>
+        <v>5.874370556607971</v>
       </c>
       <c r="G20">
         <v>4.529916298235037</v>
       </c>
       <c r="H20">
-        <v>0.7820678875661926</v>
+        <v>0.7820678875662352</v>
       </c>
       <c r="I20">
-        <v>0.6313898171563181</v>
+        <v>0.6313898171563466</v>
       </c>
       <c r="J20">
-        <v>11.37945532253278</v>
+        <v>11.37945532253286</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.080650659253848</v>
+        <v>1.080650659253934</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03397889383413499</v>
+        <v>0.03397889383428421</v>
       </c>
       <c r="E21">
-        <v>0.9118942472509559</v>
+        <v>0.9118942472509843</v>
       </c>
       <c r="F21">
         <v>7.057141181616061</v>
       </c>
       <c r="G21">
-        <v>5.460159022020605</v>
+        <v>5.460159022020662</v>
       </c>
       <c r="H21">
-        <v>0.8734041060649531</v>
+        <v>0.8734041060649673</v>
       </c>
       <c r="I21">
-        <v>0.7529640291530058</v>
+        <v>0.7529640291529986</v>
       </c>
       <c r="J21">
-        <v>13.12569071244295</v>
+        <v>13.12569071244306</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.16625564330019</v>
+        <v>1.166255643300218</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04186985718607872</v>
+        <v>0.04186985718570213</v>
       </c>
       <c r="E22">
-        <v>1.014300572571429</v>
+        <v>1.014300572571415</v>
       </c>
       <c r="F22">
-        <v>7.936309929705999</v>
+        <v>7.936309929705914</v>
       </c>
       <c r="G22">
         <v>6.154201472581633</v>
@@ -1193,7 +1193,7 @@
         <v>0.937973067497623</v>
       </c>
       <c r="I22">
-        <v>0.8424378836836013</v>
+        <v>0.8424378836836581</v>
       </c>
       <c r="J22">
         <v>14.34335289277638</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.120352490289577</v>
+        <v>1.120352490289463</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03748051068684433</v>
+        <v>0.03748051068688696</v>
       </c>
       <c r="E23">
-        <v>0.9584648345620366</v>
+        <v>0.9584648345620224</v>
       </c>
       <c r="F23">
-        <v>7.4551428410646</v>
+        <v>7.455142841064571</v>
       </c>
       <c r="G23">
         <v>5.774094960906581</v>
       </c>
       <c r="H23">
-        <v>0.9029931794016193</v>
+        <v>0.9029931794015766</v>
       </c>
       <c r="I23">
-        <v>0.7935484179044039</v>
+        <v>0.7935484179043755</v>
       </c>
       <c r="J23">
-        <v>13.68483742295192</v>
+        <v>13.68483742295186</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9506002488400327</v>
+        <v>0.9506002488396916</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02416468269381156</v>
+        <v>0.02416468269381511</v>
       </c>
       <c r="E24">
-        <v>0.7689670526380894</v>
+        <v>0.7689670526380752</v>
       </c>
       <c r="F24">
-        <v>5.856419443185104</v>
+        <v>5.856419443185075</v>
       </c>
       <c r="G24">
-        <v>4.515830883654871</v>
+        <v>4.5158308836549</v>
       </c>
       <c r="H24">
-        <v>0.7806434874892147</v>
+        <v>0.7806434874891934</v>
       </c>
       <c r="I24">
-        <v>0.6295315773939478</v>
+        <v>0.6295315773940047</v>
       </c>
       <c r="J24">
-        <v>11.35190061079149</v>
+        <v>11.35190061079152</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7732639953494242</v>
+        <v>0.7732639953490263</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01413479137413809</v>
+        <v>0.01413479137438323</v>
       </c>
       <c r="E25">
-        <v>0.5933989034853937</v>
+        <v>0.5933989034853724</v>
       </c>
       <c r="F25">
         <v>4.43096393492786</v>
       </c>
       <c r="G25">
-        <v>3.400877224738792</v>
+        <v>3.400877224738764</v>
       </c>
       <c r="H25">
-        <v>0.6641380509975789</v>
+        <v>0.6641380509975647</v>
       </c>
       <c r="I25">
         <v>0.4803399729175624</v>

--- a/Code/Results/Cases/Case_1_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_23/res_line/pl_mw.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6455972750727312</v>
+        <v>0.6455972750722765</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.008856831222800565</v>
+        <v>0.008856831222804118</v>
       </c>
       <c r="E2">
-        <v>0.4780970612769053</v>
+        <v>0.4780970612768982</v>
       </c>
       <c r="F2">
-        <v>3.530345612829052</v>
+        <v>3.530345612829024</v>
       </c>
       <c r="G2">
-        <v>2.700533423750429</v>
+        <v>2.7005334237504</v>
       </c>
       <c r="H2">
-        <v>0.5874557916679564</v>
+        <v>0.587455791667935</v>
       </c>
       <c r="I2">
-        <v>0.3839256266944844</v>
+        <v>0.3839256266945128</v>
       </c>
       <c r="J2">
-        <v>7.45353177002022</v>
+        <v>7.453531770020192</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5601721511096116</v>
+        <v>0.5601721511096969</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.006108042645909251</v>
+        <v>0.006108042646024714</v>
       </c>
       <c r="E3">
-        <v>0.4053823750593111</v>
+        <v>0.4053823750593324</v>
       </c>
       <c r="F3">
         <v>2.979608941824267</v>
@@ -471,7 +471,7 @@
         <v>0.5397057730216233</v>
       </c>
       <c r="I3">
-        <v>0.3238145683813229</v>
+        <v>0.3238145683813158</v>
       </c>
       <c r="J3">
         <v>6.411926573804436</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5080788144862822</v>
+        <v>0.5080788144865096</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.004717091646487148</v>
+        <v>0.004717091646696758</v>
       </c>
       <c r="E4">
-        <v>0.3626504402623496</v>
+        <v>0.3626504402623212</v>
       </c>
       <c r="F4">
-        <v>2.663072414989472</v>
+        <v>2.663072414989529</v>
       </c>
       <c r="G4">
-        <v>2.029865622453826</v>
+        <v>2.029865622453855</v>
       </c>
       <c r="H4">
-        <v>0.5120961281834511</v>
+        <v>0.5120961281834795</v>
       </c>
       <c r="I4">
-        <v>0.2887573733547697</v>
+        <v>0.2887573733548052</v>
       </c>
       <c r="J4">
-        <v>5.785694233273176</v>
+        <v>5.785694233273148</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4869176679252973</v>
+        <v>0.4869176679252689</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.004211634245541163</v>
+        <v>0.004211634245413265</v>
       </c>
       <c r="E5">
-        <v>0.3456276067507176</v>
+        <v>0.3456276067507318</v>
       </c>
       <c r="F5">
-        <v>2.538581538778402</v>
+        <v>2.538581538778431</v>
       </c>
       <c r="G5">
-        <v>1.933955692753742</v>
+        <v>1.93395569275377</v>
       </c>
       <c r="H5">
-        <v>0.5012279660347474</v>
+        <v>0.5012279660347403</v>
       </c>
       <c r="I5">
-        <v>0.274849995123418</v>
+        <v>0.2748499951234322</v>
       </c>
       <c r="J5">
-        <v>5.533147295550037</v>
+        <v>5.533147295550066</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4834073365677227</v>
+        <v>0.4834073365677511</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004131067620127382</v>
+        <v>0.004131067620116724</v>
       </c>
       <c r="E6">
-        <v>0.3428222308544164</v>
+        <v>0.3428222308544662</v>
       </c>
       <c r="F6">
         <v>2.518157436715342</v>
@@ -582,10 +582,10 @@
         <v>1.918230284320998</v>
       </c>
       <c r="H6">
-        <v>0.4994452019990447</v>
+        <v>0.4994452019990376</v>
       </c>
       <c r="I6">
-        <v>0.2725613149806563</v>
+        <v>0.2725613149806705</v>
       </c>
       <c r="J6">
         <v>5.491353788541403</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.507793183051092</v>
+        <v>0.5077931830508362</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004710042161933714</v>
+        <v>0.004710042161946149</v>
       </c>
       <c r="E7">
-        <v>0.3624193902948178</v>
+        <v>0.3624193902947681</v>
       </c>
       <c r="F7">
         <v>2.661376383741498</v>
@@ -620,10 +620,10 @@
         <v>2.028558302410417</v>
       </c>
       <c r="H7">
-        <v>0.5119480627380639</v>
+        <v>0.5119480627380284</v>
       </c>
       <c r="I7">
-        <v>0.2885683835088102</v>
+        <v>0.2885683835088528</v>
       </c>
       <c r="J7">
         <v>5.782278413642274</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6160536225964961</v>
+        <v>0.6160536225964393</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.007838613407045614</v>
+        <v>0.007838613407034956</v>
       </c>
       <c r="E8">
-        <v>0.4525672482336347</v>
+        <v>0.452567248233585</v>
       </c>
       <c r="F8">
-        <v>3.335345314723412</v>
+        <v>3.335345314723384</v>
       </c>
       <c r="G8">
         <v>2.549387562256896</v>
       </c>
       <c r="H8">
-        <v>0.5706065409501093</v>
+        <v>0.5706065409501022</v>
       </c>
       <c r="I8">
-        <v>0.3627574518233558</v>
+        <v>0.3627574518233416</v>
       </c>
       <c r="J8">
         <v>7.091158175383839</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8324358458668826</v>
+        <v>0.832435845866911</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0171043681655032</v>
+        <v>0.01710436816515326</v>
       </c>
       <c r="E9">
-        <v>0.6498199170173535</v>
+        <v>0.6498199170173251</v>
       </c>
       <c r="F9">
-        <v>4.882460726797518</v>
+        <v>4.882460726797547</v>
       </c>
       <c r="G9">
         <v>3.753232842796479</v>
       </c>
       <c r="H9">
-        <v>0.7017392654593806</v>
+        <v>0.7017392654593522</v>
       </c>
       <c r="I9">
-        <v>0.527980990168615</v>
+        <v>0.5279809901686008</v>
       </c>
       <c r="J9">
-        <v>9.803944418074821</v>
+        <v>9.803944418074849</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.996097588377296</v>
+        <v>0.9960975883775234</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02733170502164839</v>
+        <v>0.02733170502165194</v>
       </c>
       <c r="E10">
-        <v>0.8174259581515599</v>
+        <v>0.8174259581515315</v>
       </c>
       <c r="F10">
-        <v>6.259816908974102</v>
+        <v>6.259816908974074</v>
       </c>
       <c r="G10">
-        <v>4.832604082592781</v>
+        <v>4.832604082592752</v>
       </c>
       <c r="H10">
-        <v>0.8123816066442515</v>
+        <v>0.8123816066442444</v>
       </c>
       <c r="I10">
-        <v>0.6711879799946345</v>
+        <v>0.6711879799946416</v>
       </c>
       <c r="J10">
         <v>11.9632202714192</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.072253994611202</v>
+        <v>1.072253994611117</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03327105561750088</v>
+        <v>0.03327105561769628</v>
       </c>
       <c r="E11">
-        <v>0.902235634127095</v>
+        <v>0.9022356341270665</v>
       </c>
       <c r="F11">
-        <v>6.9749918964242</v>
+        <v>6.974991896424228</v>
       </c>
       <c r="G11">
-        <v>5.395416151883325</v>
+        <v>5.395416151883268</v>
       </c>
       <c r="H11">
         <v>0.8672237846559341</v>
       </c>
       <c r="I11">
-        <v>0.7445691181607756</v>
+        <v>0.7445691181607188</v>
       </c>
       <c r="J11">
         <v>13.00858473432123</v>
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.101418420324165</v>
+        <v>1.101418420324364</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03577804932368522</v>
+        <v>0.03577804932368167</v>
       </c>
       <c r="E12">
         <v>0.936065363556196</v>
@@ -810,13 +810,13 @@
         <v>5.622737177239145</v>
       </c>
       <c r="H12">
-        <v>0.8888060250911423</v>
+        <v>0.8888060250911565</v>
       </c>
       <c r="I12">
-        <v>0.7740061482027087</v>
+        <v>0.7740061482026874</v>
       </c>
       <c r="J12">
-        <v>13.41703258463036</v>
+        <v>13.41703258463048</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.095121264156518</v>
+        <v>1.095121264156575</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03522511102761072</v>
+        <v>0.03522511102740822</v>
       </c>
       <c r="E13">
-        <v>0.9286931061199226</v>
+        <v>0.9286931061199084</v>
       </c>
       <c r="F13">
-        <v>7.200347432202591</v>
+        <v>7.200347432202619</v>
       </c>
       <c r="G13">
         <v>5.573066915354957</v>
       </c>
       <c r="H13">
-        <v>0.8841183773469083</v>
+        <v>0.8841183773468941</v>
       </c>
       <c r="I13">
-        <v>0.7675831878912689</v>
+        <v>0.7675831878912618</v>
       </c>
       <c r="J13">
-        <v>13.3284324538678</v>
+        <v>13.32843245386778</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.07464628080902</v>
+        <v>1.074646280809048</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03347159736875227</v>
+        <v>0.03347159736837924</v>
       </c>
       <c r="E14">
-        <v>0.9049808959558163</v>
+        <v>0.9049808959558305</v>
       </c>
       <c r="F14">
-        <v>6.998327042070912</v>
+        <v>6.99832704207094</v>
       </c>
       <c r="G14">
-        <v>5.413804931376774</v>
+        <v>5.413804931376831</v>
       </c>
       <c r="H14">
-        <v>0.8689818782068386</v>
+        <v>0.868981878206867</v>
       </c>
       <c r="I14">
-        <v>0.7469544191610993</v>
+        <v>0.7469544191611277</v>
       </c>
       <c r="J14">
-        <v>13.04190977686548</v>
+        <v>13.04190977686545</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.062150033585169</v>
+        <v>1.06215003358551</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03243384701007557</v>
+        <v>0.0324338470103136</v>
       </c>
       <c r="E15">
-        <v>0.8906978285280758</v>
+        <v>0.8906978285281184</v>
       </c>
       <c r="F15">
-        <v>6.877042185118626</v>
+        <v>6.877042185118654</v>
       </c>
       <c r="G15">
         <v>5.318245782911589</v>
       </c>
       <c r="H15">
-        <v>0.8598223523567583</v>
+        <v>0.8598223523567441</v>
       </c>
       <c r="I15">
         <v>0.7345509427136605</v>
       </c>
       <c r="J15">
-        <v>12.86817718454375</v>
+        <v>12.86817718454373</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9911611864484655</v>
+        <v>0.9911611864484939</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02697495907158398</v>
+        <v>0.02697495907142056</v>
       </c>
       <c r="E16">
-        <v>0.8120923547161993</v>
+        <v>0.8120923547161709</v>
       </c>
       <c r="F16">
-        <v>6.215223988627713</v>
+        <v>6.21522398862777</v>
       </c>
       <c r="G16">
-        <v>4.797561963503739</v>
+        <v>4.797561963503767</v>
       </c>
       <c r="H16">
-        <v>0.8089012665573847</v>
+        <v>0.8089012665573492</v>
       </c>
       <c r="I16">
-        <v>0.666593280352032</v>
+        <v>0.6665932803520533</v>
       </c>
       <c r="J16">
-        <v>11.89644059527328</v>
+        <v>11.8964405952733</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9480980763822515</v>
+        <v>0.9480980763820241</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02399819388754842</v>
+        <v>0.0239981938874898</v>
       </c>
       <c r="E17">
         <v>0.7663463752882507</v>
       </c>
       <c r="F17">
-        <v>5.834717982975235</v>
+        <v>5.834717982975206</v>
       </c>
       <c r="G17">
-        <v>4.498804128162448</v>
+        <v>4.498804128162476</v>
       </c>
       <c r="H17">
-        <v>0.7789200168365369</v>
+        <v>0.7789200168365511</v>
       </c>
       <c r="I17">
-        <v>0.6272845255062762</v>
+        <v>0.6272845255062265</v>
       </c>
       <c r="J17">
-        <v>11.31854451767299</v>
+        <v>11.31854451767302</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9234838758206934</v>
+        <v>0.9234838758204091</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02240144442443892</v>
+        <v>0.02240144442443004</v>
       </c>
       <c r="E18">
-        <v>0.7408028697847655</v>
+        <v>0.7408028697847584</v>
       </c>
       <c r="F18">
-        <v>5.62382935329498</v>
+        <v>5.623829353295008</v>
       </c>
       <c r="G18">
-        <v>4.333422699886484</v>
+        <v>4.333422699886455</v>
       </c>
       <c r="H18">
         <v>0.7620877209809365</v>
       </c>
       <c r="I18">
-        <v>0.6054138991287061</v>
+        <v>0.6054138991287275</v>
       </c>
       <c r="J18">
-        <v>10.9918193213478</v>
+        <v>10.99181932134775</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9151744368026584</v>
+        <v>0.915174436802431</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0218789018908172</v>
+        <v>0.02187890189089714</v>
       </c>
       <c r="E19">
-        <v>0.7322747298996859</v>
+        <v>0.732274729899693</v>
       </c>
       <c r="F19">
         <v>5.553680136239819</v>
@@ -1076,13 +1076,13 @@
         <v>4.278443311439219</v>
       </c>
       <c r="H19">
-        <v>0.7564551630401866</v>
+        <v>0.7564551630402008</v>
       </c>
       <c r="I19">
-        <v>0.5981246738889823</v>
+        <v>0.5981246738890391</v>
       </c>
       <c r="J19">
-        <v>10.88208412859669</v>
+        <v>10.88208412859663</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9526657225530357</v>
+        <v>0.9526657225533768</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02430270365043796</v>
+        <v>0.02430270365036336</v>
       </c>
       <c r="E20">
         <v>0.7711337464352539</v>
       </c>
       <c r="F20">
-        <v>5.874370556607971</v>
+        <v>5.874370556607943</v>
       </c>
       <c r="G20">
         <v>4.529916298235037</v>
       </c>
       <c r="H20">
-        <v>0.7820678875662352</v>
+        <v>0.7820678875661926</v>
       </c>
       <c r="I20">
-        <v>0.6313898171563466</v>
+        <v>0.6313898171563181</v>
       </c>
       <c r="J20">
-        <v>11.37945532253286</v>
+        <v>11.37945532253278</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.080650659253934</v>
+        <v>1.080650659253848</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03397889383428421</v>
+        <v>0.03397889383413499</v>
       </c>
       <c r="E21">
-        <v>0.9118942472509843</v>
+        <v>0.9118942472509559</v>
       </c>
       <c r="F21">
         <v>7.057141181616061</v>
       </c>
       <c r="G21">
-        <v>5.460159022020662</v>
+        <v>5.460159022020605</v>
       </c>
       <c r="H21">
-        <v>0.8734041060649673</v>
+        <v>0.8734041060649531</v>
       </c>
       <c r="I21">
-        <v>0.7529640291529986</v>
+        <v>0.7529640291530058</v>
       </c>
       <c r="J21">
-        <v>13.12569071244306</v>
+        <v>13.12569071244295</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.166255643300218</v>
+        <v>1.16625564330019</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04186985718570213</v>
+        <v>0.04186985718607872</v>
       </c>
       <c r="E22">
-        <v>1.014300572571415</v>
+        <v>1.014300572571429</v>
       </c>
       <c r="F22">
-        <v>7.936309929705914</v>
+        <v>7.936309929705999</v>
       </c>
       <c r="G22">
         <v>6.154201472581633</v>
@@ -1193,7 +1193,7 @@
         <v>0.937973067497623</v>
       </c>
       <c r="I22">
-        <v>0.8424378836836581</v>
+        <v>0.8424378836836013</v>
       </c>
       <c r="J22">
         <v>14.34335289277638</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.120352490289463</v>
+        <v>1.120352490289577</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03748051068688696</v>
+        <v>0.03748051068684433</v>
       </c>
       <c r="E23">
-        <v>0.9584648345620224</v>
+        <v>0.9584648345620366</v>
       </c>
       <c r="F23">
-        <v>7.455142841064571</v>
+        <v>7.4551428410646</v>
       </c>
       <c r="G23">
         <v>5.774094960906581</v>
       </c>
       <c r="H23">
-        <v>0.9029931794015766</v>
+        <v>0.9029931794016193</v>
       </c>
       <c r="I23">
-        <v>0.7935484179043755</v>
+        <v>0.7935484179044039</v>
       </c>
       <c r="J23">
-        <v>13.68483742295186</v>
+        <v>13.68483742295192</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9506002488396916</v>
+        <v>0.9506002488400327</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02416468269381511</v>
+        <v>0.02416468269381156</v>
       </c>
       <c r="E24">
-        <v>0.7689670526380752</v>
+        <v>0.7689670526380894</v>
       </c>
       <c r="F24">
-        <v>5.856419443185075</v>
+        <v>5.856419443185104</v>
       </c>
       <c r="G24">
-        <v>4.5158308836549</v>
+        <v>4.515830883654871</v>
       </c>
       <c r="H24">
-        <v>0.7806434874891934</v>
+        <v>0.7806434874892147</v>
       </c>
       <c r="I24">
-        <v>0.6295315773940047</v>
+        <v>0.6295315773939478</v>
       </c>
       <c r="J24">
-        <v>11.35190061079152</v>
+        <v>11.35190061079149</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7732639953490263</v>
+        <v>0.7732639953494242</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01413479137438323</v>
+        <v>0.01413479137413809</v>
       </c>
       <c r="E25">
-        <v>0.5933989034853724</v>
+        <v>0.5933989034853937</v>
       </c>
       <c r="F25">
         <v>4.43096393492786</v>
       </c>
       <c r="G25">
-        <v>3.400877224738764</v>
+        <v>3.400877224738792</v>
       </c>
       <c r="H25">
-        <v>0.6641380509975647</v>
+        <v>0.6641380509975789</v>
       </c>
       <c r="I25">
         <v>0.4803399729175624</v>

--- a/Code/Results/Cases/Case_1_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6455972750722765</v>
+        <v>0.6460047052374875</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.008856831222804118</v>
+        <v>0.008764449051309242</v>
       </c>
       <c r="E2">
-        <v>0.4780970612768982</v>
+        <v>0.4781316337877328</v>
       </c>
       <c r="F2">
-        <v>3.530345612829024</v>
+        <v>3.52386546383326</v>
       </c>
       <c r="G2">
-        <v>2.7005334237504</v>
+        <v>0.9149257072863861</v>
       </c>
       <c r="H2">
-        <v>0.587455791667935</v>
+        <v>1.782167372804537</v>
       </c>
       <c r="I2">
-        <v>0.3839256266945128</v>
+        <v>0.5884057189015763</v>
       </c>
       <c r="J2">
-        <v>7.453531770020192</v>
+        <v>0.3837086884639618</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>7.448421747345975</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5601721511096969</v>
+        <v>0.5605310020490037</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.006108042646024714</v>
+        <v>0.006037528380334223</v>
       </c>
       <c r="E3">
-        <v>0.4053823750593324</v>
+        <v>0.4054278352336809</v>
       </c>
       <c r="F3">
-        <v>2.979608941824267</v>
+        <v>2.974283295828542</v>
       </c>
       <c r="G3">
-        <v>2.274161907523904</v>
+        <v>0.7672606599697929</v>
       </c>
       <c r="H3">
-        <v>0.5397057730216233</v>
+        <v>1.504859822986191</v>
       </c>
       <c r="I3">
-        <v>0.3238145683813158</v>
+        <v>0.5405316422054085</v>
       </c>
       <c r="J3">
-        <v>6.411926573804436</v>
+        <v>0.3236452885381311</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>6.40774054396249</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5080788144865096</v>
+        <v>0.5084073250168899</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.004717091646696758</v>
+        <v>0.004658117748926216</v>
       </c>
       <c r="E4">
-        <v>0.3626504402623212</v>
+        <v>0.3626993991458249</v>
       </c>
       <c r="F4">
-        <v>2.663072414989529</v>
+        <v>2.658387269948861</v>
       </c>
       <c r="G4">
-        <v>2.029865622453855</v>
+        <v>0.6824034478573395</v>
       </c>
       <c r="H4">
-        <v>0.5120961281834795</v>
+        <v>1.34620821069332</v>
       </c>
       <c r="I4">
-        <v>0.2887573733548052</v>
+        <v>0.5128449683934235</v>
       </c>
       <c r="J4">
-        <v>5.785694233273148</v>
+        <v>0.2886132636312908</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>5.782025765300745</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4869176679252689</v>
+        <v>0.4872337077878797</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.004211634245413265</v>
+        <v>0.00415698016126953</v>
       </c>
       <c r="E5">
-        <v>0.3456276067507318</v>
+        <v>0.3456773933768034</v>
       </c>
       <c r="F5">
-        <v>2.538581538778431</v>
+        <v>2.5341438678104</v>
       </c>
       <c r="G5">
-        <v>1.93395569275377</v>
+        <v>0.6490289834258505</v>
       </c>
       <c r="H5">
-        <v>0.5012279660347403</v>
+        <v>1.283979385267259</v>
       </c>
       <c r="I5">
-        <v>0.2748499951234322</v>
+        <v>0.5019452305662213</v>
       </c>
       <c r="J5">
-        <v>5.533147295550066</v>
+        <v>0.2747153581163744</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>5.529679979948469</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4834073365677511</v>
+        <v>0.4837212997675806</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004131067620116724</v>
+        <v>0.004077110009879092</v>
       </c>
       <c r="E6">
-        <v>0.3428222308544662</v>
+        <v>0.3428721236744181</v>
       </c>
       <c r="F6">
-        <v>2.518157436715342</v>
+        <v>2.51376013196122</v>
       </c>
       <c r="G6">
-        <v>1.918230284320998</v>
+        <v>0.643553360544729</v>
       </c>
       <c r="H6">
-        <v>0.4994452019990376</v>
+        <v>1.273779749132459</v>
       </c>
       <c r="I6">
-        <v>0.2725613149806705</v>
+        <v>0.5001572128629945</v>
       </c>
       <c r="J6">
-        <v>5.491353788541403</v>
+        <v>0.2724282094897887</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>5.487919353414213</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5077931830508362</v>
+        <v>0.5081215258051373</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004710042161946149</v>
+        <v>0.00465112796683087</v>
       </c>
       <c r="E7">
-        <v>0.3624193902947681</v>
+        <v>0.3624683625362266</v>
       </c>
       <c r="F7">
-        <v>2.661376383741498</v>
+        <v>2.65669462682061</v>
       </c>
       <c r="G7">
-        <v>2.028558302410417</v>
+        <v>0.6819487720479316</v>
       </c>
       <c r="H7">
-        <v>0.5119480627380284</v>
+        <v>1.345359755327479</v>
       </c>
       <c r="I7">
-        <v>0.2885683835088528</v>
+        <v>0.5126964778280154</v>
       </c>
       <c r="J7">
-        <v>5.782278413642274</v>
+        <v>0.288424404436995</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>5.778612694814001</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6160536225964393</v>
+        <v>0.6164444247062306</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.007838613407034956</v>
+        <v>0.007754224829829681</v>
       </c>
       <c r="E8">
-        <v>0.452567248233585</v>
+        <v>0.4526063791836492</v>
       </c>
       <c r="F8">
-        <v>3.335345314723384</v>
+        <v>3.329279933808124</v>
       </c>
       <c r="G8">
-        <v>2.549387562256896</v>
+        <v>0.8626359183882641</v>
       </c>
       <c r="H8">
-        <v>0.5706065409501022</v>
+        <v>1.68381101391472</v>
       </c>
       <c r="I8">
-        <v>0.3627574518233416</v>
+        <v>0.5715138925603824</v>
       </c>
       <c r="J8">
-        <v>7.091158175383839</v>
+        <v>0.3625579659754621</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>7.086378962384799</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.832435845866911</v>
+        <v>0.8329435362317952</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01710436816515326</v>
+        <v>0.01694941018635454</v>
       </c>
       <c r="E9">
-        <v>0.6498199170173251</v>
+        <v>0.6498005393828379</v>
       </c>
       <c r="F9">
-        <v>4.882460726797547</v>
+        <v>4.872906923432907</v>
       </c>
       <c r="G9">
-        <v>3.753232842796479</v>
+        <v>1.27778183929604</v>
       </c>
       <c r="H9">
-        <v>0.7017392654593522</v>
+        <v>2.468395280311995</v>
       </c>
       <c r="I9">
-        <v>0.5279809901686008</v>
+        <v>0.7029492544267413</v>
       </c>
       <c r="J9">
-        <v>9.803944418074849</v>
+        <v>0.527623897297822</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>9.796412047610517</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9960975883775234</v>
+        <v>0.9966841056033502</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02733170502165194</v>
+        <v>0.02710039637791439</v>
       </c>
       <c r="E10">
-        <v>0.8174259581515315</v>
+        <v>0.8173063062518366</v>
       </c>
       <c r="F10">
-        <v>6.259816908974074</v>
+        <v>6.246716851406688</v>
       </c>
       <c r="G10">
-        <v>4.832604082592752</v>
+        <v>1.648048945292373</v>
       </c>
       <c r="H10">
-        <v>0.8123816066442444</v>
+        <v>3.17349100384817</v>
       </c>
       <c r="I10">
-        <v>0.6711879799946416</v>
+        <v>0.8138026297955037</v>
       </c>
       <c r="J10">
-        <v>11.9632202714192</v>
+        <v>0.6706475839984165</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>11.95293653934718</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.072253994611117</v>
+        <v>1.072873175903311</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03327105561769628</v>
+        <v>0.03299486041241906</v>
       </c>
       <c r="E11">
-        <v>0.9022356341270665</v>
+        <v>0.9020423803225128</v>
       </c>
       <c r="F11">
-        <v>6.974991896424228</v>
+        <v>6.95984894919178</v>
       </c>
       <c r="G11">
-        <v>5.395416151883268</v>
+        <v>1.840577239820703</v>
       </c>
       <c r="H11">
-        <v>0.8672237846559341</v>
+        <v>3.541532538597806</v>
       </c>
       <c r="I11">
-        <v>0.7445691181607188</v>
+        <v>0.8687355026633838</v>
       </c>
       <c r="J11">
-        <v>13.00858473432123</v>
+        <v>0.7439136555815935</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.99673073072489</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.101418420324364</v>
+        <v>1.102049241416552</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03577804932368167</v>
+        <v>0.03548267373627567</v>
       </c>
       <c r="E12">
-        <v>0.936065363556196</v>
+        <v>0.935837636954318</v>
       </c>
       <c r="F12">
-        <v>7.263323612393947</v>
+        <v>7.247311844732167</v>
       </c>
       <c r="G12">
-        <v>5.622737177239145</v>
+        <v>1.918249449153706</v>
       </c>
       <c r="H12">
-        <v>0.8888060250911565</v>
+        <v>3.690241020878688</v>
       </c>
       <c r="I12">
-        <v>0.7740061482026874</v>
+        <v>0.8903508424529889</v>
       </c>
       <c r="J12">
-        <v>13.41703258463048</v>
+        <v>0.7732997978176002</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.4045134165888</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.095121264156575</v>
+        <v>1.095749617197299</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03522511102740822</v>
+        <v>0.0349339797440642</v>
       </c>
       <c r="E13">
-        <v>0.9286931061199084</v>
+        <v>0.9284731590540929</v>
       </c>
       <c r="F13">
-        <v>7.200347432202619</v>
+        <v>7.184527787529191</v>
       </c>
       <c r="G13">
-        <v>5.573066915354957</v>
+        <v>1.90128209558091</v>
       </c>
       <c r="H13">
-        <v>0.8841183773468941</v>
+        <v>3.657745396815073</v>
       </c>
       <c r="I13">
-        <v>0.7675831878912618</v>
+        <v>0.8856561330584043</v>
       </c>
       <c r="J13">
-        <v>13.32843245386778</v>
+        <v>0.7668881876768481</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.3160602474216</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.074646280809048</v>
+        <v>1.075266436539835</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03347159736837924</v>
+        <v>0.03319387364364701</v>
       </c>
       <c r="E14">
-        <v>0.9049808959558305</v>
+        <v>0.9047849597405815</v>
       </c>
       <c r="F14">
-        <v>6.99832704207094</v>
+        <v>6.983114793676407</v>
       </c>
       <c r="G14">
-        <v>5.413804931376831</v>
+        <v>1.846862273520401</v>
       </c>
       <c r="H14">
-        <v>0.868981878206867</v>
+        <v>3.553560998206706</v>
       </c>
       <c r="I14">
-        <v>0.7469544191611277</v>
+        <v>0.8704963482676078</v>
       </c>
       <c r="J14">
-        <v>13.04190977686545</v>
+        <v>0.7462949392807516</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.03000266177449</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.06215003358551</v>
+        <v>1.062765062166591</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0324338470103136</v>
+        <v>0.03216402277641706</v>
       </c>
       <c r="E15">
-        <v>0.8906978285281184</v>
+        <v>0.8905156328443269</v>
       </c>
       <c r="F15">
-        <v>6.877042185118654</v>
+        <v>6.862188233194587</v>
       </c>
       <c r="G15">
-        <v>5.318245782911589</v>
+        <v>1.814197821687969</v>
       </c>
       <c r="H15">
-        <v>0.8598223523567441</v>
+        <v>3.491056075902151</v>
       </c>
       <c r="I15">
-        <v>0.7345509427136605</v>
+        <v>0.861322377124452</v>
       </c>
       <c r="J15">
-        <v>12.86817718454373</v>
+        <v>0.7339121538170801</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.8565447688417</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9911611864484939</v>
+        <v>0.9917454853436993</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02697495907142056</v>
+        <v>0.02674632665708998</v>
       </c>
       <c r="E16">
-        <v>0.8120923547161709</v>
+        <v>0.8119767663634718</v>
       </c>
       <c r="F16">
-        <v>6.21522398862777</v>
+        <v>6.202246368563607</v>
       </c>
       <c r="G16">
-        <v>4.797561963503767</v>
+        <v>1.636050484806901</v>
       </c>
       <c r="H16">
-        <v>0.8089012665573492</v>
+        <v>3.150583191517882</v>
       </c>
       <c r="I16">
-        <v>0.6665932803520533</v>
+        <v>0.8103162215745954</v>
       </c>
       <c r="J16">
-        <v>11.8964405952733</v>
+        <v>0.6660595692697981</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>11.88625127826128</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9480980763820241</v>
+        <v>0.9486625607864028</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0239981938874898</v>
+        <v>0.02379183076794433</v>
       </c>
       <c r="E17">
-        <v>0.7663463752882507</v>
+        <v>0.7662631186537254</v>
       </c>
       <c r="F17">
-        <v>5.834717982975206</v>
+        <v>5.822763163451214</v>
       </c>
       <c r="G17">
-        <v>4.498804128162476</v>
+        <v>1.533698590504969</v>
       </c>
       <c r="H17">
-        <v>0.7789200168365511</v>
+        <v>2.955318874105899</v>
       </c>
       <c r="I17">
-        <v>0.6272845255062265</v>
+        <v>0.7802811714141455</v>
       </c>
       <c r="J17">
-        <v>11.31854451767302</v>
+        <v>0.6268056899747734</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>11.30914538855811</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9234838758204091</v>
+        <v>0.924036685247728</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02240144442443004</v>
+        <v>0.02220699307613927</v>
       </c>
       <c r="E18">
-        <v>0.7408028697847584</v>
+        <v>0.7407357912194072</v>
       </c>
       <c r="F18">
-        <v>5.623829353295008</v>
+        <v>5.612425127598954</v>
       </c>
       <c r="G18">
-        <v>4.333422699886455</v>
+        <v>1.47699463147913</v>
       </c>
       <c r="H18">
-        <v>0.7620877209809365</v>
+        <v>2.84726115317298</v>
       </c>
       <c r="I18">
-        <v>0.6054138991287275</v>
+        <v>0.7634174721617129</v>
       </c>
       <c r="J18">
-        <v>10.99181932134775</v>
+        <v>0.6049638744261472</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>10.98284672315839</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.915174436802431</v>
+        <v>0.9157232512505686</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02187890189089714</v>
+        <v>0.02168834566881905</v>
       </c>
       <c r="E19">
-        <v>0.732274729899693</v>
+        <v>0.7322127675294894</v>
       </c>
       <c r="F19">
-        <v>5.553680136239819</v>
+        <v>5.542456586347356</v>
       </c>
       <c r="G19">
-        <v>4.278443311439219</v>
+        <v>1.458136418896032</v>
       </c>
       <c r="H19">
-        <v>0.7564551630402008</v>
+        <v>2.811344162704813</v>
       </c>
       <c r="I19">
-        <v>0.5981246738890391</v>
+        <v>0.7577742128188589</v>
       </c>
       <c r="J19">
-        <v>10.88208412859663</v>
+        <v>0.5976839898216681</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>10.87325168305264</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9526657225533768</v>
+        <v>0.9532323464794388</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02430270365036336</v>
+        <v>0.0240940667576961</v>
       </c>
       <c r="E20">
-        <v>0.7711337464352539</v>
+        <v>0.7710473118742129</v>
       </c>
       <c r="F20">
-        <v>5.874370556607943</v>
+        <v>5.862310941437869</v>
       </c>
       <c r="G20">
-        <v>4.529916298235037</v>
+        <v>1.544362226340411</v>
       </c>
       <c r="H20">
-        <v>0.7820678875661926</v>
+        <v>2.97564986854573</v>
       </c>
       <c r="I20">
-        <v>0.6313898171563181</v>
+        <v>0.7834348193065424</v>
       </c>
       <c r="J20">
-        <v>11.37945532253278</v>
+        <v>0.6309054395371092</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>11.3699751055793</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.080650659253848</v>
+        <v>1.081273245601409</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03397889383413499</v>
+        <v>0.03369729918153652</v>
       </c>
       <c r="E21">
-        <v>0.9118942472509559</v>
+        <v>0.9116914673975174</v>
       </c>
       <c r="F21">
-        <v>7.057141181616061</v>
+        <v>7.041753484732254</v>
       </c>
       <c r="G21">
-        <v>5.460159022020605</v>
+        <v>1.862704000314608</v>
       </c>
       <c r="H21">
-        <v>0.8734041060649531</v>
+        <v>3.583882981160798</v>
       </c>
       <c r="I21">
-        <v>0.7529640291530058</v>
+        <v>0.8749254550406107</v>
       </c>
       <c r="J21">
-        <v>13.12569071244295</v>
+        <v>0.7522943461695775</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.11364917917211</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.16625564330019</v>
+        <v>1.166910259733697</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04186985718607872</v>
+        <v>0.04152712598389385</v>
       </c>
       <c r="E22">
-        <v>1.014300572571429</v>
+        <v>1.013980380670802</v>
       </c>
       <c r="F22">
-        <v>7.936309929705999</v>
+        <v>7.918157025955367</v>
       </c>
       <c r="G22">
-        <v>6.154201472581633</v>
+        <v>2.099655298399966</v>
       </c>
       <c r="H22">
-        <v>0.937973067497623</v>
+        <v>4.038013295301255</v>
       </c>
       <c r="I22">
-        <v>0.8424378836836013</v>
+        <v>0.9395875410751984</v>
       </c>
       <c r="J22">
-        <v>14.34335289277638</v>
+        <v>0.8416014211419025</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.32920042115518</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.120352490289577</v>
+        <v>1.120990573883176</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03748051068684433</v>
+        <v>0.03717201420869642</v>
       </c>
       <c r="E23">
-        <v>0.9584648345620366</v>
+        <v>0.9582125223815723</v>
       </c>
       <c r="F23">
-        <v>7.4551428410646</v>
+        <v>7.438537490454621</v>
       </c>
       <c r="G23">
-        <v>5.774094960906581</v>
+        <v>1.969938951202863</v>
       </c>
       <c r="H23">
-        <v>0.9029931794016193</v>
+        <v>3.789271165002589</v>
       </c>
       <c r="I23">
-        <v>0.7935484179044039</v>
+        <v>0.9045589308698396</v>
       </c>
       <c r="J23">
-        <v>13.68483742295192</v>
+        <v>0.7928066565050429</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.67186464086811</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9506002488400327</v>
+        <v>0.9511659063538787</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02416468269381156</v>
+        <v>0.02395707650191525</v>
       </c>
       <c r="E24">
-        <v>0.7689670526380894</v>
+        <v>0.7688820621592072</v>
       </c>
       <c r="F24">
-        <v>5.856419443185104</v>
+        <v>5.844407320528092</v>
       </c>
       <c r="G24">
-        <v>4.515830883654871</v>
+        <v>1.539534621573921</v>
       </c>
       <c r="H24">
-        <v>0.7806434874892147</v>
+        <v>2.966445310399536</v>
       </c>
       <c r="I24">
-        <v>0.6295315773939478</v>
+        <v>0.782007808816175</v>
       </c>
       <c r="J24">
-        <v>11.35190061079149</v>
+        <v>0.6290497137031821</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>11.34245713850024</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7732639953494242</v>
+        <v>0.7737409366436054</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01413479137413809</v>
+        <v>0.01400209140601127</v>
       </c>
       <c r="E25">
-        <v>0.5933989034853937</v>
+        <v>0.5934020483489988</v>
       </c>
       <c r="F25">
-        <v>4.43096393492786</v>
+        <v>4.422477029866144</v>
       </c>
       <c r="G25">
-        <v>3.400877224738792</v>
+        <v>1.156554304578904</v>
       </c>
       <c r="H25">
-        <v>0.6641380509975789</v>
+        <v>2.238505739221225</v>
       </c>
       <c r="I25">
-        <v>0.4803399729175624</v>
+        <v>0.665267551976882</v>
       </c>
       <c r="J25">
-        <v>9.047814063689458</v>
+        <v>0.480033616190191</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>9.04111758700094</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6460047052374875</v>
+        <v>1.381064936488144</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.008764449051309242</v>
+        <v>0.4143643586415635</v>
       </c>
       <c r="E2">
-        <v>0.4781316337877328</v>
+        <v>0.1864988907776599</v>
       </c>
       <c r="F2">
-        <v>3.52386546383326</v>
+        <v>7.120772778555846</v>
       </c>
       <c r="G2">
-        <v>0.9149257072863861</v>
+        <v>0.0008322812489758302</v>
       </c>
       <c r="H2">
-        <v>1.782167372804537</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5884057189015763</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3837086884639618</v>
+        <v>0.2088934954871533</v>
       </c>
       <c r="K2">
-        <v>7.448421747345975</v>
+        <v>1.216390049179523</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.559123991711445</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.4345602087610132</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5605310020490037</v>
+        <v>1.23547363842016</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.006037528380334223</v>
+        <v>0.3552135970841164</v>
       </c>
       <c r="E3">
-        <v>0.4054278352336809</v>
+        <v>0.1612175654687675</v>
       </c>
       <c r="F3">
-        <v>2.974283295828542</v>
+        <v>6.449704292722743</v>
       </c>
       <c r="G3">
-        <v>0.7672606599697929</v>
+        <v>0.0008461307263900973</v>
       </c>
       <c r="H3">
-        <v>1.504859822986191</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5405316422054085</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3236452885381311</v>
+        <v>0.1900819774723033</v>
       </c>
       <c r="K3">
-        <v>6.40774054396249</v>
+        <v>1.046659600561213</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.486123985322493</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.3839069344308328</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5084073250168899</v>
+        <v>1.149200746165548</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.004658117748926216</v>
+        <v>0.3199482911355318</v>
       </c>
       <c r="E4">
-        <v>0.3626993991458249</v>
+        <v>0.1461181225252908</v>
       </c>
       <c r="F4">
-        <v>2.658387269948861</v>
+        <v>6.051446437418292</v>
       </c>
       <c r="G4">
-        <v>0.6824034478573395</v>
+        <v>0.0008547979096650166</v>
       </c>
       <c r="H4">
-        <v>1.34620821069332</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5128449683934235</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2886132636312908</v>
+        <v>0.1788189039825134</v>
       </c>
       <c r="K4">
-        <v>5.782025765300745</v>
+        <v>0.9458011149051657</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.4430382282315293</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.3539437468642035</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4872337077878797</v>
+        <v>1.1147438008432</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.00415698016126953</v>
+        <v>0.3057997038152109</v>
       </c>
       <c r="E5">
-        <v>0.3456773933768034</v>
+        <v>0.1400512294487726</v>
       </c>
       <c r="F5">
-        <v>2.5341438678104</v>
+        <v>5.892156475727091</v>
       </c>
       <c r="G5">
-        <v>0.6490289834258505</v>
+        <v>0.0008583756552897051</v>
       </c>
       <c r="H5">
-        <v>1.283979385267259</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5019452305662213</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2747153581163744</v>
+        <v>0.1742835079390055</v>
       </c>
       <c r="K5">
-        <v>5.529679979948469</v>
+        <v>0.9054253723744239</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.4258604416399976</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.3419860305687763</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4837212997675806</v>
+        <v>1.109062229568224</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004077110009879092</v>
+        <v>0.3034626195160826</v>
       </c>
       <c r="E6">
-        <v>0.3428721236744181</v>
+        <v>0.1390484937407912</v>
       </c>
       <c r="F6">
-        <v>2.51376013196122</v>
+        <v>5.865875376629987</v>
       </c>
       <c r="G6">
-        <v>0.643553360544729</v>
+        <v>0.0008589726299998334</v>
       </c>
       <c r="H6">
-        <v>1.273779749132459</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5001572128629945</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2724282094897887</v>
+        <v>0.1735332180238487</v>
       </c>
       <c r="K6">
-        <v>5.487919353414213</v>
+        <v>0.8987615828560394</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.4230295098889201</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3400148034874917</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5081215258051373</v>
+        <v>1.148733318711834</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00465112796683087</v>
+        <v>0.3197566308001143</v>
       </c>
       <c r="E7">
-        <v>0.3624683625362266</v>
+        <v>0.1460359778840079</v>
       </c>
       <c r="F7">
-        <v>2.65669462682061</v>
+        <v>6.049286609276692</v>
       </c>
       <c r="G7">
-        <v>0.6819487720479316</v>
+        <v>0.0008548459692765409</v>
       </c>
       <c r="H7">
-        <v>1.345359755327479</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5126964778280154</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.288424404436995</v>
+        <v>0.1787575396246908</v>
       </c>
       <c r="K7">
-        <v>5.778612694814001</v>
+        <v>0.9452538053596271</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.4428050937625727</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.3537815000580764</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6164444247062306</v>
+        <v>1.330163103356483</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.007754224829829681</v>
+        <v>0.3937231709119544</v>
       </c>
       <c r="E8">
-        <v>0.4526063791836492</v>
+        <v>0.1776809805081037</v>
       </c>
       <c r="F8">
-        <v>3.329279933808124</v>
+        <v>6.886232537317255</v>
       </c>
       <c r="G8">
-        <v>0.8626359183882641</v>
+        <v>0.0008370255930401175</v>
       </c>
       <c r="H8">
-        <v>1.68381101391472</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5715138925603824</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3625579659754621</v>
+        <v>0.2023361175947223</v>
       </c>
       <c r="K8">
-        <v>7.086378962384799</v>
+        <v>1.157093741157041</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.5335567332040796</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.416837148896569</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8329435362317952</v>
+        <v>1.715146956009647</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01694941018635454</v>
+        <v>0.5493809303750368</v>
       </c>
       <c r="E9">
-        <v>0.6498005393828379</v>
+        <v>0.2441757267499369</v>
       </c>
       <c r="F9">
-        <v>4.872906923432907</v>
+        <v>8.661020351175694</v>
       </c>
       <c r="G9">
-        <v>1.27778183929604</v>
+        <v>0.0008031329587244881</v>
       </c>
       <c r="H9">
-        <v>2.468395280311995</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7029492544267413</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.527623897297822</v>
+        <v>0.2518138520315176</v>
       </c>
       <c r="K9">
-        <v>9.796412047610517</v>
+        <v>1.605452282652621</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.7283040538743819</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.5512932288041412</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9966841056033502</v>
+        <v>2.023168456924907</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02710039637791439</v>
+        <v>0.6739966360285337</v>
       </c>
       <c r="E10">
-        <v>0.8173063062518366</v>
+        <v>0.2975753166035418</v>
       </c>
       <c r="F10">
-        <v>6.246716851406688</v>
+        <v>10.08662579635356</v>
       </c>
       <c r="G10">
-        <v>1.648048945292373</v>
+        <v>0.000778466793588759</v>
       </c>
       <c r="H10">
-        <v>3.17349100384817</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8138026297955037</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6706475839984165</v>
+        <v>0.2917943704374792</v>
       </c>
       <c r="K10">
-        <v>11.95293653934718</v>
+        <v>1.965568197643279</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.8866900594538265</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.6596339248632432</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.072873175903311</v>
+        <v>2.17084213197586</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03299486041241906</v>
+        <v>0.7340038007134808</v>
       </c>
       <c r="E11">
-        <v>0.9020423803225128</v>
+        <v>0.3233938416021331</v>
       </c>
       <c r="F11">
-        <v>6.95984894919178</v>
+        <v>10.77300370515098</v>
       </c>
       <c r="G11">
-        <v>1.840577239820703</v>
+        <v>0.000767180891217471</v>
       </c>
       <c r="H11">
-        <v>3.541532538597806</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8687355026633838</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7439136555815935</v>
+        <v>0.3112611626803172</v>
       </c>
       <c r="K11">
-        <v>12.99673073072489</v>
+        <v>2.139122243262847</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.9635326860536395</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.7118434055658724</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.102049241416552</v>
+        <v>2.228067086447595</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03548267373627567</v>
+        <v>0.7573208886211091</v>
       </c>
       <c r="E12">
-        <v>0.935837636954318</v>
+        <v>0.3334486820129285</v>
       </c>
       <c r="F12">
-        <v>7.247311844732167</v>
+        <v>11.03956787343913</v>
       </c>
       <c r="G12">
-        <v>1.918249449153706</v>
+        <v>0.0007628856124757804</v>
       </c>
       <c r="H12">
-        <v>3.690241020878688</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8903508424529889</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7732997978176002</v>
+        <v>0.3188705662956792</v>
       </c>
       <c r="K12">
-        <v>13.4045134165888</v>
+        <v>2.206570212608042</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.9934772991638852</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.7321243432529627</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.095749617197299</v>
+        <v>2.215680686293354</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0349339797440642</v>
+        <v>0.7522705862086809</v>
       </c>
       <c r="E13">
-        <v>0.9284731590540929</v>
+        <v>0.331269747730019</v>
       </c>
       <c r="F13">
-        <v>7.184527787529191</v>
+        <v>10.98184082451837</v>
       </c>
       <c r="G13">
-        <v>1.90128209558091</v>
+        <v>0.0007638118597837521</v>
       </c>
       <c r="H13">
-        <v>3.657745396815073</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8856561330584043</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7668881876768481</v>
+        <v>0.3172201677343125</v>
       </c>
       <c r="K13">
-        <v>13.3160602474216</v>
+        <v>2.191961260891858</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.9869876718053945</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.7277321355843469</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.075266436539835</v>
+        <v>2.175522510013252</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03319387364364701</v>
+        <v>0.7359094501574361</v>
       </c>
       <c r="E14">
-        <v>0.9047849597405815</v>
+        <v>0.3242151041965826</v>
       </c>
       <c r="F14">
-        <v>6.983114793676407</v>
+        <v>10.7947930323536</v>
       </c>
       <c r="G14">
-        <v>1.846862273520401</v>
+        <v>0.0007668280275637265</v>
       </c>
       <c r="H14">
-        <v>3.553560998206706</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8704963482676078</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7462949392807516</v>
+        <v>0.3118820715799799</v>
       </c>
       <c r="K14">
-        <v>13.03000266177449</v>
+        <v>2.144634478106838</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.9659782636645389</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.7135011165277447</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.062765062166591</v>
+        <v>2.15110156968808</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03216402277641706</v>
+        <v>0.7259690076135712</v>
       </c>
       <c r="E15">
-        <v>0.8905156328443269</v>
+        <v>0.3199320981289944</v>
       </c>
       <c r="F15">
-        <v>6.862188233194587</v>
+        <v>10.68112677435209</v>
       </c>
       <c r="G15">
-        <v>1.814197821687969</v>
+        <v>0.0007686723030988496</v>
       </c>
       <c r="H15">
-        <v>3.491056075902151</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.861322377124452</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7339121538170801</v>
+        <v>0.3086451207355907</v>
       </c>
       <c r="K15">
-        <v>12.8565447688417</v>
+        <v>2.115881318381398</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.9532248394455394</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.7048536720601462</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9917454853436993</v>
+        <v>2.013687238617138</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02674632665708998</v>
+        <v>0.6701511787345567</v>
       </c>
       <c r="E16">
-        <v>0.8119767663634718</v>
+        <v>0.2959234205456909</v>
       </c>
       <c r="F16">
-        <v>6.202246368563607</v>
+        <v>10.04262838492289</v>
       </c>
       <c r="G16">
-        <v>1.636050484806901</v>
+        <v>0.0007792020607094368</v>
       </c>
       <c r="H16">
-        <v>3.150583191517882</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8103162215745954</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6660595692697981</v>
+        <v>0.2905522186477612</v>
       </c>
       <c r="K16">
-        <v>11.88625127826128</v>
+        <v>1.954448239012962</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.8817772608883843</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.6562880028673703</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9486625607864028</v>
+        <v>1.931463939224557</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02379183076794433</v>
+        <v>0.6368337863405031</v>
       </c>
       <c r="E17">
-        <v>0.7662631186537254</v>
+        <v>0.2816233316393735</v>
       </c>
       <c r="F17">
-        <v>5.822763163451214</v>
+        <v>9.661406782398217</v>
       </c>
       <c r="G17">
-        <v>1.533698590504969</v>
+        <v>0.0007856371636675148</v>
       </c>
       <c r="H17">
-        <v>2.955318874105899</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7802811714141455</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6268056899747734</v>
+        <v>0.279814835670841</v>
       </c>
       <c r="K17">
-        <v>11.30914538855811</v>
+        <v>1.858118357239746</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.8392748489387145</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.6273016454631488</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.924036685247728</v>
+        <v>1.884866830549214</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02220699307613927</v>
+        <v>0.6179745974856417</v>
       </c>
       <c r="E18">
-        <v>0.7407357912194072</v>
+        <v>0.2735378193745035</v>
       </c>
       <c r="F18">
-        <v>5.612425127598954</v>
+        <v>9.445616936897324</v>
       </c>
       <c r="G18">
-        <v>1.47699463147913</v>
+        <v>0.0007893331971516888</v>
       </c>
       <c r="H18">
-        <v>2.84726115317298</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7634174721617129</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6049638744261472</v>
+        <v>0.273755527898274</v>
       </c>
       <c r="K18">
-        <v>10.98284672315839</v>
+        <v>1.803605031251749</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.8152684504275101</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.6108983852666441</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9157232512505686</v>
+        <v>1.86920338501406</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02168834566881905</v>
+        <v>0.6116382897550352</v>
       </c>
       <c r="E19">
-        <v>0.7322127675294894</v>
+        <v>0.270822602925584</v>
       </c>
       <c r="F19">
-        <v>5.542456586347356</v>
+        <v>9.373119040301646</v>
       </c>
       <c r="G19">
-        <v>1.458136418896032</v>
+        <v>0.000790584035519284</v>
       </c>
       <c r="H19">
-        <v>2.811344162704813</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7577742128188589</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5976839898216681</v>
+        <v>0.2717225346648249</v>
       </c>
       <c r="K19">
-        <v>10.87325168305264</v>
+        <v>1.785292328245546</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.8072116167359127</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.6053882817998826</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9532323464794388</v>
+        <v>1.940143325889437</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0240940667576961</v>
+        <v>0.6403482455141898</v>
       </c>
       <c r="E20">
-        <v>0.7710473118742129</v>
+        <v>0.2831307808718719</v>
       </c>
       <c r="F20">
-        <v>5.862310941437869</v>
+        <v>9.701620525816452</v>
       </c>
       <c r="G20">
-        <v>1.544362226340411</v>
+        <v>0.0007849527613619496</v>
       </c>
       <c r="H20">
-        <v>2.97564986854573</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7834348193065424</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6309054395371092</v>
+        <v>0.2809454374183957</v>
       </c>
       <c r="K20">
-        <v>11.3699751055793</v>
+        <v>1.868278269459566</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.8437527532860543</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.6303588707635654</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.081273245601409</v>
+        <v>2.187280574477143</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03369729918153652</v>
+        <v>0.7406979379560426</v>
       </c>
       <c r="E21">
-        <v>0.9116914673975174</v>
+        <v>0.3262791451716183</v>
       </c>
       <c r="F21">
-        <v>7.041753484732254</v>
+        <v>10.84954217865976</v>
       </c>
       <c r="G21">
-        <v>1.862704000314608</v>
+        <v>0.0007659428014782883</v>
       </c>
       <c r="H21">
-        <v>3.583882981160798</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8749254550406107</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7522943461695775</v>
+        <v>0.3134430512524347</v>
       </c>
       <c r="K21">
-        <v>13.11364917917211</v>
+        <v>2.158485654713644</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.9721248443028969</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7176664457334496</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.166910259733697</v>
+        <v>2.356538434434185</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04152712598389385</v>
+        <v>0.8098178561286886</v>
       </c>
       <c r="E22">
-        <v>1.013980380670802</v>
+        <v>0.3561373223028639</v>
       </c>
       <c r="F22">
-        <v>7.918157025955367</v>
+        <v>11.63928881109325</v>
       </c>
       <c r="G22">
-        <v>2.099655298399966</v>
+        <v>0.0007533852818624923</v>
       </c>
       <c r="H22">
-        <v>4.038013295301255</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9395875410751984</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8416014211419025</v>
+        <v>0.3361035487380377</v>
       </c>
       <c r="K22">
-        <v>14.32920042115518</v>
+        <v>2.358429108086511</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.06105586999351</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7777590445883575</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.120990573883176</v>
+        <v>2.265409163471872</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03717201420869642</v>
+        <v>0.7725578040707148</v>
       </c>
       <c r="E23">
-        <v>0.9582125223815723</v>
+        <v>0.3400264906362409</v>
       </c>
       <c r="F23">
-        <v>7.438537490454621</v>
+        <v>11.21369998088602</v>
       </c>
       <c r="G23">
-        <v>1.969938951202863</v>
+        <v>0.0007601044532999089</v>
       </c>
       <c r="H23">
-        <v>3.789271165002589</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9045589308698396</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7928066565050429</v>
+        <v>0.3238576214097364</v>
       </c>
       <c r="K23">
-        <v>13.67186464086811</v>
+        <v>2.25064632457736</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.01306928644459</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7453738370603915</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9511659063538787</v>
+        <v>1.936217291139315</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02395707650191525</v>
+        <v>0.6387584467635747</v>
       </c>
       <c r="E24">
-        <v>0.7688820621592072</v>
+        <v>0.2824488443008377</v>
       </c>
       <c r="F24">
-        <v>5.844407320528092</v>
+        <v>9.683429453171556</v>
       </c>
       <c r="G24">
-        <v>1.539534621573921</v>
+        <v>0.0007852621900197158</v>
       </c>
       <c r="H24">
-        <v>2.966445310399536</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.782007808816175</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6290497137031821</v>
+        <v>0.2804339419132376</v>
       </c>
       <c r="K24">
-        <v>11.34245713850024</v>
+        <v>1.863682293144279</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.8417269684462383</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.6289758915596551</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7737409366436054</v>
+        <v>1.607185898552643</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01400209140601127</v>
+        <v>0.5057857628835052</v>
       </c>
       <c r="E25">
-        <v>0.5934020483489988</v>
+        <v>0.225543170249324</v>
       </c>
       <c r="F25">
-        <v>4.422477029866144</v>
+        <v>8.16285412026329</v>
       </c>
       <c r="G25">
-        <v>1.156554304578904</v>
+        <v>0.0008122269275008002</v>
       </c>
       <c r="H25">
-        <v>2.238505739221225</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.665267551976882</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.480033616190191</v>
+        <v>0.2379311087138447</v>
       </c>
       <c r="K25">
-        <v>9.04111758700094</v>
+        <v>1.479651663587958</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.6733550308548217</v>
       </c>
       <c r="M25">
+        <v>0.5134874120975113</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_23/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.381064936488144</v>
+        <v>0.6742084052282848</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.4143643586415635</v>
+        <v>0.1103794831829319</v>
       </c>
       <c r="E2">
-        <v>0.1864988907776599</v>
+        <v>0.08734930025500276</v>
       </c>
       <c r="F2">
-        <v>7.120772778555846</v>
+        <v>0.566919936629084</v>
       </c>
       <c r="G2">
-        <v>0.0008322812489758302</v>
+        <v>0.3275642388004556</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.295888461497249</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.4071746382766737</v>
       </c>
       <c r="J2">
-        <v>0.2088934954871533</v>
+        <v>0.1207299623426792</v>
       </c>
       <c r="K2">
-        <v>1.216390049179523</v>
+        <v>1.040969748259101</v>
       </c>
       <c r="L2">
-        <v>0.559123991711445</v>
+        <v>0.201380585255734</v>
       </c>
       <c r="M2">
-        <v>0.4345602087610132</v>
+        <v>0.1897575795756445</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.977233099649407</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.261910709785511</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.23547363842016</v>
+        <v>0.5942897291125746</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3552135970841164</v>
+        <v>0.1064593696841243</v>
       </c>
       <c r="E3">
-        <v>0.1612175654687675</v>
+        <v>0.08887871774367095</v>
       </c>
       <c r="F3">
-        <v>6.449704292722743</v>
+        <v>0.5564265398889887</v>
       </c>
       <c r="G3">
-        <v>0.0008461307263900973</v>
+        <v>0.3183351178102569</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2963073353200443</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4197146001772563</v>
       </c>
       <c r="J3">
-        <v>0.1900819774723033</v>
+        <v>0.1228854426555044</v>
       </c>
       <c r="K3">
-        <v>1.046659600561213</v>
+        <v>0.9142818891962747</v>
       </c>
       <c r="L3">
-        <v>0.486123985322493</v>
+        <v>0.1769188172237364</v>
       </c>
       <c r="M3">
-        <v>0.3839069344308328</v>
+        <v>0.1670416328383979</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.010729897621921</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.242919000581495</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.149200746165548</v>
+        <v>0.5453956241857441</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3199482911355318</v>
+        <v>0.1041442166253574</v>
       </c>
       <c r="E4">
-        <v>0.1461181225252908</v>
+        <v>0.08988675188444262</v>
       </c>
       <c r="F4">
-        <v>6.051446437418292</v>
+        <v>0.5508185496719449</v>
       </c>
       <c r="G4">
-        <v>0.0008547979096650166</v>
+        <v>0.3132635508496762</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2969529081235223</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4279923257623235</v>
       </c>
       <c r="J4">
-        <v>0.1788189039825134</v>
+        <v>0.1242716405103081</v>
       </c>
       <c r="K4">
-        <v>0.9458011149051657</v>
+        <v>0.8363382660620005</v>
       </c>
       <c r="L4">
-        <v>0.4430382282315293</v>
+        <v>0.1619566959342293</v>
       </c>
       <c r="M4">
-        <v>0.3539437468642035</v>
+        <v>0.1531449787899462</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.032238199709003</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.23332462181682</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.1147438008432</v>
+        <v>0.5255109968631473</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3057997038152109</v>
+        <v>0.1032233865392769</v>
       </c>
       <c r="E5">
-        <v>0.1400512294487726</v>
+        <v>0.0903147328067968</v>
       </c>
       <c r="F5">
-        <v>5.892156475727091</v>
+        <v>0.5487364847490355</v>
       </c>
       <c r="G5">
-        <v>0.0008583756552897051</v>
+        <v>0.3113405412209502</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2973110624806239</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4315079968948456</v>
       </c>
       <c r="J5">
-        <v>0.1742835079390055</v>
+        <v>0.1248522519416326</v>
       </c>
       <c r="K5">
-        <v>0.9054253723744239</v>
+        <v>0.8045307845409724</v>
       </c>
       <c r="L5">
-        <v>0.4258604416399976</v>
+        <v>0.1558723322236091</v>
       </c>
       <c r="M5">
-        <v>0.3419860305687763</v>
+        <v>0.1474934998290038</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.041235634730491</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.229916442376094</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.109062229568224</v>
+        <v>0.5222114736344565</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3034626195160826</v>
+        <v>0.1030718357145801</v>
       </c>
       <c r="E6">
-        <v>0.1390484937407912</v>
+        <v>0.09038683337200215</v>
       </c>
       <c r="F6">
-        <v>5.865875376629987</v>
+        <v>0.5484028425346708</v>
       </c>
       <c r="G6">
-        <v>0.0008589726299998334</v>
+        <v>0.3110297359156604</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2973762026418427</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4321002895684174</v>
       </c>
       <c r="J6">
-        <v>0.1735332180238487</v>
+        <v>0.1249496103788079</v>
       </c>
       <c r="K6">
-        <v>0.8987615828560394</v>
+        <v>0.799246317516392</v>
       </c>
       <c r="L6">
-        <v>0.4230295098889201</v>
+        <v>0.1548627563984439</v>
       </c>
       <c r="M6">
-        <v>0.3400148034874917</v>
+        <v>0.1465557347835862</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.042743587206026</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.229380298160905</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.148733318711834</v>
+        <v>0.5451272961267648</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3197566308001143</v>
+        <v>0.1041317070393646</v>
       </c>
       <c r="E7">
-        <v>0.1460359778840079</v>
+        <v>0.08989245433306259</v>
       </c>
       <c r="F7">
-        <v>6.049286609276692</v>
+        <v>0.5507896560232908</v>
       </c>
       <c r="G7">
-        <v>0.0008548459692765409</v>
+        <v>0.3132370423589705</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2969573566878481</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.428039166455072</v>
       </c>
       <c r="J7">
-        <v>0.1787575396246908</v>
+        <v>0.1242794072325903</v>
       </c>
       <c r="K7">
-        <v>0.9452538053596271</v>
+        <v>0.8359094876417146</v>
       </c>
       <c r="L7">
-        <v>0.4428050937625727</v>
+        <v>0.161874590266045</v>
       </c>
       <c r="M7">
-        <v>0.3537815000580764</v>
+        <v>0.1530687160086899</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.03235860556946</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.233276650264997</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.330163103356483</v>
+        <v>0.6466132345237554</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3937231709119544</v>
+        <v>0.1090084804762839</v>
       </c>
       <c r="E8">
-        <v>0.1776809805081037</v>
+        <v>0.08786224234352957</v>
       </c>
       <c r="F8">
-        <v>6.886232537317255</v>
+        <v>0.5631243746571144</v>
       </c>
       <c r="G8">
-        <v>0.0008370255930401175</v>
+        <v>0.3242548512619337</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2959506923885655</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.4113766225690885</v>
       </c>
       <c r="J8">
-        <v>0.2023361175947223</v>
+        <v>0.1214601245106861</v>
       </c>
       <c r="K8">
-        <v>1.157093741157041</v>
+        <v>0.9973169259801296</v>
       </c>
       <c r="L8">
-        <v>0.5335567332040796</v>
+        <v>0.1929332148919656</v>
       </c>
       <c r="M8">
-        <v>0.416837148896569</v>
+        <v>0.1819137140279139</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.9885849981210342</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.254922346269254</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.715146956009647</v>
+        <v>0.8472355752046496</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.5493809303750368</v>
+        <v>0.1193231240219887</v>
       </c>
       <c r="E9">
-        <v>0.2441757267499369</v>
+        <v>0.08443480210517418</v>
       </c>
       <c r="F9">
-        <v>8.661020351175694</v>
+        <v>0.5942559796461779</v>
       </c>
       <c r="G9">
-        <v>0.0008031329587244881</v>
+        <v>0.3508645580592642</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2971802270523938</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.3834254565681121</v>
       </c>
       <c r="J9">
-        <v>0.2518138520315176</v>
+        <v>0.1164313234193681</v>
       </c>
       <c r="K9">
-        <v>1.605452282652621</v>
+        <v>1.312866729738118</v>
       </c>
       <c r="L9">
-        <v>0.7283040538743819</v>
+        <v>0.2543761741966364</v>
       </c>
       <c r="M9">
-        <v>0.5512932288041412</v>
+        <v>0.2389486513239056</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.9103989051201502</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.314619910957859</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.023168456924907</v>
+        <v>0.9959347257993727</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.6739966360285337</v>
+        <v>0.1273931380940994</v>
       </c>
       <c r="E10">
-        <v>0.2975753166035418</v>
+        <v>0.08226361974613106</v>
       </c>
       <c r="F10">
-        <v>10.08662579635356</v>
+        <v>0.6218245838845675</v>
       </c>
       <c r="G10">
-        <v>0.000778466793588759</v>
+        <v>0.3738757263575252</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.3002142917508053</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.3659654765421578</v>
       </c>
       <c r="J10">
-        <v>0.2917943704374792</v>
+        <v>0.1130442336083775</v>
       </c>
       <c r="K10">
-        <v>1.965568197643279</v>
+        <v>1.544536268630367</v>
       </c>
       <c r="L10">
-        <v>0.8866900594538265</v>
+        <v>0.2999684501829165</v>
       </c>
       <c r="M10">
-        <v>0.6596339248632432</v>
+        <v>0.2812379586947955</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.857887492244874</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.370239320915971</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.17084213197586</v>
+        <v>1.063940468172575</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.7340038007134808</v>
+        <v>0.1311790437765907</v>
       </c>
       <c r="E11">
-        <v>0.3233938416021331</v>
+        <v>0.08135336302205509</v>
       </c>
       <c r="F11">
-        <v>10.77300370515098</v>
+        <v>0.6354937512776715</v>
       </c>
       <c r="G11">
-        <v>0.000767180891217471</v>
+        <v>0.3851912893526048</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.3020987021558028</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.3587354418424411</v>
       </c>
       <c r="J11">
-        <v>0.3112611626803172</v>
+        <v>0.1115708058413825</v>
       </c>
       <c r="K11">
-        <v>2.139122243262847</v>
+        <v>1.649995092453992</v>
       </c>
       <c r="L11">
-        <v>0.9635326860536395</v>
+        <v>0.3208363831502226</v>
       </c>
       <c r="M11">
-        <v>0.7118434055658724</v>
+        <v>0.3005836933367974</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.8351311289897936</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.398385323240774</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.228067086447595</v>
+        <v>1.089750867657585</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.7573208886211091</v>
+        <v>0.1326298426108607</v>
       </c>
       <c r="E12">
-        <v>0.3334486820129285</v>
+        <v>0.08101999367920865</v>
       </c>
       <c r="F12">
-        <v>11.03956787343913</v>
+        <v>0.6408415376428138</v>
       </c>
       <c r="G12">
-        <v>0.0007628856124757804</v>
+        <v>0.3896064765881135</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.3028884326145231</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.3561040611922515</v>
       </c>
       <c r="J12">
-        <v>0.3188705662956792</v>
+        <v>0.1110226093330775</v>
       </c>
       <c r="K12">
-        <v>2.206570212608042</v>
+        <v>1.689948450360589</v>
       </c>
       <c r="L12">
-        <v>0.9934772991638852</v>
+        <v>0.3287593816356065</v>
       </c>
       <c r="M12">
-        <v>0.7321243432529627</v>
+        <v>0.3079269492188459</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.8266820792186671</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.409477943081583</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.215680686293354</v>
+        <v>1.084189451467978</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.7522705862086809</v>
+        <v>0.1323166133303175</v>
       </c>
       <c r="E13">
-        <v>0.331269747730019</v>
+        <v>0.08109128391060594</v>
       </c>
       <c r="F13">
-        <v>10.98184082451837</v>
+        <v>0.6396820111847603</v>
       </c>
       <c r="G13">
-        <v>0.0007638118597837521</v>
+        <v>0.3886496573171172</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.3027149032538432</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.3566659746550229</v>
       </c>
       <c r="J13">
-        <v>0.3172201677343125</v>
+        <v>0.1111402380938475</v>
       </c>
       <c r="K13">
-        <v>2.191961260891858</v>
+        <v>1.68134282598146</v>
       </c>
       <c r="L13">
-        <v>0.9869876718053945</v>
+        <v>0.3270520588931731</v>
       </c>
       <c r="M13">
-        <v>0.7277321355843469</v>
+        <v>0.306344640256917</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.8284941561922565</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.407069213301043</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.175522510013252</v>
+        <v>1.066062704691547</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.7359094501574361</v>
+        <v>0.1312980541609434</v>
       </c>
       <c r="E14">
-        <v>0.3242151041965826</v>
+        <v>0.08132570842828102</v>
       </c>
       <c r="F14">
-        <v>10.7947930323536</v>
+        <v>0.6359302229853441</v>
       </c>
       <c r="G14">
-        <v>0.0007668280275637265</v>
+        <v>0.38555187006979</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.3021621260978691</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.3585167989850326</v>
       </c>
       <c r="J14">
-        <v>0.3118820715799799</v>
+        <v>0.1115255093950926</v>
       </c>
       <c r="K14">
-        <v>2.144634478106838</v>
+        <v>1.653281661938934</v>
       </c>
       <c r="L14">
-        <v>0.9659782636645389</v>
+        <v>0.3214877825954261</v>
       </c>
       <c r="M14">
-        <v>0.7135011165277447</v>
+        <v>0.3011874664752625</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.8344326146618819</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.399289064894077</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.15110156968808</v>
+        <v>1.054967302130194</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.7259690076135712</v>
+        <v>0.1306764115868759</v>
       </c>
       <c r="E15">
-        <v>0.3199320981289944</v>
+        <v>0.08147078089728055</v>
       </c>
       <c r="F15">
-        <v>10.68112677435209</v>
+        <v>0.6336547740491909</v>
       </c>
       <c r="G15">
-        <v>0.0007686723030988496</v>
+        <v>0.3836716009480909</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.3018335620781158</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.3596644709271288</v>
       </c>
       <c r="J15">
-        <v>0.3086451207355907</v>
+        <v>0.1117627721832397</v>
       </c>
       <c r="K15">
-        <v>2.115881318381398</v>
+        <v>1.636096035420366</v>
       </c>
       <c r="L15">
-        <v>0.9532248394455394</v>
+        <v>0.3180822805175438</v>
       </c>
       <c r="M15">
-        <v>0.7048536720601462</v>
+        <v>0.2980308789830346</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.8380921795945717</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.394580838599694</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.013687238617138</v>
+        <v>0.9914981814612531</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.6701511787345567</v>
+        <v>0.127148085324059</v>
       </c>
       <c r="E16">
-        <v>0.2959234205456909</v>
+        <v>0.08232468134569704</v>
       </c>
       <c r="F16">
-        <v>10.04262838492289</v>
+        <v>0.6209547595128058</v>
       </c>
       <c r="G16">
-        <v>0.0007792020607094368</v>
+        <v>0.3731539869976643</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.3001015935570734</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.366452653663444</v>
       </c>
       <c r="J16">
-        <v>0.2905522186477612</v>
+        <v>0.1131418872706016</v>
       </c>
       <c r="K16">
-        <v>1.954448239012962</v>
+        <v>1.537646402982062</v>
       </c>
       <c r="L16">
-        <v>0.8817772608883843</v>
+        <v>0.2986074538140571</v>
       </c>
       <c r="M16">
-        <v>0.6562880028673703</v>
+        <v>0.279976004693097</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.8593979124131188</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.368459282818378</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.931463939224557</v>
+        <v>0.9526587969382092</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.6368337863405031</v>
+        <v>0.1250134297366685</v>
       </c>
       <c r="E17">
-        <v>0.2816233316393735</v>
+        <v>0.08286848583009476</v>
       </c>
       <c r="F17">
-        <v>9.661406782398217</v>
+        <v>0.6134591365381041</v>
       </c>
       <c r="G17">
-        <v>0.0007856371636675148</v>
+        <v>0.3669246661613812</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2991707519815918</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.3708022873878676</v>
       </c>
       <c r="J17">
-        <v>0.279814835670841</v>
+        <v>0.1140052351833098</v>
       </c>
       <c r="K17">
-        <v>1.858118357239746</v>
+        <v>1.477274598338909</v>
       </c>
       <c r="L17">
-        <v>0.8392748489387145</v>
+        <v>0.2866946588525821</v>
       </c>
       <c r="M17">
-        <v>0.6273016454631488</v>
+        <v>0.2689289299317146</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.8727619540991611</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.353180656924309</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.884866830549214</v>
+        <v>0.9303530744612374</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.6179745974856417</v>
+        <v>0.1237963986514572</v>
       </c>
       <c r="E18">
-        <v>0.2735378193745035</v>
+        <v>0.08318854348143478</v>
       </c>
       <c r="F18">
-        <v>9.445616936897324</v>
+        <v>0.6092534427285301</v>
       </c>
       <c r="G18">
-        <v>0.0007893331971516888</v>
+        <v>0.3634209862758979</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2986825842900913</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.3733709037949211</v>
       </c>
       <c r="J18">
-        <v>0.273755527898274</v>
+        <v>0.1145081474773217</v>
       </c>
       <c r="K18">
-        <v>1.803605031251749</v>
+        <v>1.44255651218802</v>
       </c>
       <c r="L18">
-        <v>0.8152684504275101</v>
+        <v>0.2798546093028449</v>
       </c>
       <c r="M18">
-        <v>0.6108983852666441</v>
+        <v>0.2625850006234032</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.8805547327894025</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.344658932190157</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.86920338501406</v>
+        <v>0.922806342634658</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.6116382897550352</v>
+        <v>0.1233861627341497</v>
       </c>
       <c r="E19">
-        <v>0.270822602925584</v>
+        <v>0.08329815340143476</v>
       </c>
       <c r="F19">
-        <v>9.373119040301646</v>
+        <v>0.6078473254139425</v>
       </c>
       <c r="G19">
-        <v>0.000790584035519284</v>
+        <v>0.3622480670502881</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2985253028447374</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.374251950994875</v>
       </c>
       <c r="J19">
-        <v>0.2717225346648249</v>
+        <v>0.1146795113151269</v>
       </c>
       <c r="K19">
-        <v>1.785292328245546</v>
+        <v>1.430802386828589</v>
       </c>
       <c r="L19">
-        <v>0.8072116167359127</v>
+        <v>0.2775406552233335</v>
       </c>
       <c r="M19">
-        <v>0.6053882817998826</v>
+        <v>0.2604387263093422</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.8832112963350696</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.341818583403153</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.940143325889437</v>
+        <v>0.9567897887215224</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.6403482455141898</v>
+        <v>0.1252395485980387</v>
       </c>
       <c r="E20">
-        <v>0.2831307808718719</v>
+        <v>0.08280984254541846</v>
       </c>
       <c r="F20">
-        <v>9.701620525816452</v>
+        <v>0.6142460640471867</v>
       </c>
       <c r="G20">
-        <v>0.0007849527613619496</v>
+        <v>0.3675795259033237</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.2992649280304533</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.3703323172107744</v>
       </c>
       <c r="J20">
-        <v>0.2809454374183957</v>
+        <v>0.113912673930046</v>
       </c>
       <c r="K20">
-        <v>1.868278269459566</v>
+        <v>1.483700583239482</v>
       </c>
       <c r="L20">
-        <v>0.8437527532860543</v>
+        <v>0.2879615503581903</v>
       </c>
       <c r="M20">
-        <v>0.6303588707635654</v>
+        <v>0.2701038557659245</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.8713283047244786</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.354779369715402</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.187280574477143</v>
+        <v>1.071385342472439</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.7406979379560426</v>
+        <v>0.1315967586772615</v>
       </c>
       <c r="E21">
-        <v>0.3262791451716183</v>
+        <v>0.08125654333902688</v>
       </c>
       <c r="F21">
-        <v>10.84954217865976</v>
+        <v>0.6370274807095697</v>
       </c>
       <c r="G21">
-        <v>0.0007659428014782883</v>
+        <v>0.3864581621456722</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.3023223935411465</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.3579702443799704</v>
       </c>
       <c r="J21">
-        <v>0.3134430512524347</v>
+        <v>0.1114120804551026</v>
       </c>
       <c r="K21">
-        <v>2.158485654713644</v>
+        <v>1.661523339091616</v>
       </c>
       <c r="L21">
-        <v>0.9721248443028969</v>
+        <v>0.3231215620435393</v>
       </c>
       <c r="M21">
-        <v>0.7176664457334496</v>
+        <v>0.3027017642254393</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.832683732011624</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.401562286443522</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.356538434434185</v>
+        <v>1.146621908543835</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.8098178561286886</v>
+        <v>0.1358518999648481</v>
       </c>
       <c r="E22">
-        <v>0.3561373223028639</v>
+        <v>0.08030747858887732</v>
       </c>
       <c r="F22">
-        <v>11.63928881109325</v>
+        <v>0.6529212020852313</v>
       </c>
       <c r="G22">
-        <v>0.0007533852818624923</v>
+        <v>0.3995597258273591</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.3047662967582312</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.3505135427101322</v>
       </c>
       <c r="J22">
-        <v>0.3361035487380377</v>
+        <v>0.1098347135683468</v>
       </c>
       <c r="K22">
-        <v>2.358429108086511</v>
+        <v>1.777852183544098</v>
       </c>
       <c r="L22">
-        <v>1.06105586999351</v>
+        <v>0.346222919268925</v>
       </c>
       <c r="M22">
-        <v>0.7777590445883575</v>
+        <v>0.3241090377439662</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.808411005346656</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.434682073578074</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.265409163471872</v>
+        <v>1.106433360498187</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.7725578040707148</v>
+        <v>0.1335714475521783</v>
       </c>
       <c r="E23">
-        <v>0.3400264906362409</v>
+        <v>0.08080789825049095</v>
       </c>
       <c r="F23">
-        <v>11.21369998088602</v>
+        <v>0.6443432646001668</v>
       </c>
       <c r="G23">
-        <v>0.0007601044532999089</v>
+        <v>0.3924944569188966</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.3034199027402593</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.3544349794265713</v>
       </c>
       <c r="J23">
-        <v>0.3238576214097364</v>
+        <v>0.1106713522059417</v>
       </c>
       <c r="K23">
-        <v>2.25064632457736</v>
+        <v>1.715752251853161</v>
       </c>
       <c r="L23">
-        <v>1.01306928644459</v>
+        <v>0.3338812730208929</v>
       </c>
       <c r="M23">
-        <v>0.7453738370603915</v>
+        <v>0.3126735214181053</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.8212738781524287</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.416763864731621</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.936217291139315</v>
+        <v>0.954922094416645</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.6387584467635747</v>
+        <v>0.1251372885048525</v>
       </c>
       <c r="E24">
-        <v>0.2824488443008377</v>
+        <v>0.08283633208588181</v>
       </c>
       <c r="F24">
-        <v>9.683429453171556</v>
+        <v>0.6138899720074562</v>
       </c>
       <c r="G24">
-        <v>0.0007852621900197158</v>
+        <v>0.3672832226088616</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.2992222049623621</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.3705445793670172</v>
       </c>
       <c r="J24">
-        <v>0.2804339419132376</v>
+        <v>0.1139545004384823</v>
       </c>
       <c r="K24">
-        <v>1.863682293144279</v>
+        <v>1.480795425763716</v>
       </c>
       <c r="L24">
-        <v>0.8417269684462383</v>
+        <v>0.287388761555448</v>
       </c>
       <c r="M24">
-        <v>0.6289758915596551</v>
+        <v>0.2695726495708328</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.8719761166073425</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.354055776987963</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.607185898552643</v>
+        <v>0.7927575935831044</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.5057857628835052</v>
+        <v>0.1164489060569451</v>
       </c>
       <c r="E25">
-        <v>0.225543170249324</v>
+        <v>0.08530178444672032</v>
       </c>
       <c r="F25">
-        <v>8.16285412026329</v>
+        <v>0.5850442687032427</v>
       </c>
       <c r="G25">
-        <v>0.0008122269275008002</v>
+        <v>0.3430891083143095</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.2964868475344176</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.3904615596493919</v>
       </c>
       <c r="J25">
-        <v>0.2379311087138447</v>
+        <v>0.1177379518747426</v>
       </c>
       <c r="K25">
-        <v>1.479651663587958</v>
+        <v>1.227563565989215</v>
       </c>
       <c r="L25">
-        <v>0.6733550308548217</v>
+        <v>0.2376844839343022</v>
       </c>
       <c r="M25">
-        <v>0.5134874120975113</v>
+        <v>0.2234589636034592</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.9307042666528993</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.296498844817762</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_23/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6742084052282848</v>
+        <v>0.60804213436694</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1103794831829319</v>
+        <v>0.255296795524238</v>
       </c>
       <c r="E2">
-        <v>0.08734930025500276</v>
+        <v>0.2352702076503217</v>
       </c>
       <c r="F2">
-        <v>0.566919936629084</v>
+        <v>1.263478260141646</v>
       </c>
       <c r="G2">
-        <v>0.3275642388004556</v>
+        <v>0.6376707170728153</v>
       </c>
       <c r="H2">
-        <v>0.295888461497249</v>
+        <v>0.7635043321519035</v>
       </c>
       <c r="I2">
-        <v>0.4071746382766737</v>
+        <v>1.048420883677009</v>
       </c>
       <c r="J2">
-        <v>0.1207299623426792</v>
+        <v>0.2832834113993892</v>
       </c>
       <c r="K2">
-        <v>1.040969748259101</v>
+        <v>0.3144738132454847</v>
       </c>
       <c r="L2">
-        <v>0.201380585255734</v>
+        <v>0.1681653521849285</v>
       </c>
       <c r="M2">
-        <v>0.1897575795756445</v>
+        <v>0.1661578868810771</v>
       </c>
       <c r="N2">
-        <v>0.977233099649407</v>
+        <v>1.959739925018287</v>
       </c>
       <c r="O2">
-        <v>1.261910709785511</v>
+        <v>2.791038714578605</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5942897291125746</v>
+        <v>0.5869393503858475</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1064593696841243</v>
+        <v>0.2554019921533595</v>
       </c>
       <c r="E3">
-        <v>0.08887871774367095</v>
+        <v>0.2365724061479098</v>
       </c>
       <c r="F3">
-        <v>0.5564265398889887</v>
+        <v>1.268607447793528</v>
       </c>
       <c r="G3">
-        <v>0.3183351178102569</v>
+        <v>0.6399411083435282</v>
       </c>
       <c r="H3">
-        <v>0.2963073353200443</v>
+        <v>0.7677328622194679</v>
       </c>
       <c r="I3">
-        <v>0.4197146001772563</v>
+        <v>1.057509694614518</v>
       </c>
       <c r="J3">
-        <v>0.1228854426555044</v>
+        <v>0.2845807164961487</v>
       </c>
       <c r="K3">
-        <v>0.9142818891962747</v>
+        <v>0.2743383739741319</v>
       </c>
       <c r="L3">
-        <v>0.1769188172237364</v>
+        <v>0.1617244796723298</v>
       </c>
       <c r="M3">
-        <v>0.1670416328383979</v>
+        <v>0.1601645622045673</v>
       </c>
       <c r="N3">
-        <v>1.010729897621921</v>
+        <v>1.975266838283765</v>
       </c>
       <c r="O3">
-        <v>1.242919000581495</v>
+        <v>2.804477682742046</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5453956241857441</v>
+        <v>0.5741719616453622</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1041442166253574</v>
+        <v>0.255543996224759</v>
       </c>
       <c r="E4">
-        <v>0.08988675188444262</v>
+        <v>0.237425520822387</v>
       </c>
       <c r="F4">
-        <v>0.5508185496719449</v>
+        <v>1.272293807059022</v>
       </c>
       <c r="G4">
-        <v>0.3132635508496762</v>
+        <v>0.6416716155499174</v>
       </c>
       <c r="H4">
-        <v>0.2969529081235223</v>
+        <v>0.7705941942556294</v>
       </c>
       <c r="I4">
-        <v>0.4279923257623235</v>
+        <v>1.063462152912972</v>
       </c>
       <c r="J4">
-        <v>0.1242716405103081</v>
+        <v>0.2854233649786408</v>
       </c>
       <c r="K4">
-        <v>0.8363382660620005</v>
+        <v>0.2496007410769892</v>
       </c>
       <c r="L4">
-        <v>0.1619566959342293</v>
+        <v>0.1578211963796363</v>
       </c>
       <c r="M4">
-        <v>0.1531449787899462</v>
+        <v>0.1565361291245395</v>
       </c>
       <c r="N4">
-        <v>1.032238199709003</v>
+        <v>1.985331334943016</v>
       </c>
       <c r="O4">
-        <v>1.23332462181682</v>
+        <v>2.813989268603748</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5255109968631473</v>
+        <v>0.56901746476791</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1032233865392769</v>
+        <v>0.2556214015785656</v>
       </c>
       <c r="E5">
-        <v>0.0903147328067968</v>
+        <v>0.2377866684871144</v>
       </c>
       <c r="F5">
-        <v>0.5487364847490355</v>
+        <v>1.273931276198795</v>
       </c>
       <c r="G5">
-        <v>0.3113405412209502</v>
+        <v>0.6424614920929912</v>
       </c>
       <c r="H5">
-        <v>0.2973110624806239</v>
+        <v>0.7718269502100696</v>
       </c>
       <c r="I5">
-        <v>0.4315079968948456</v>
+        <v>1.065981435536754</v>
       </c>
       <c r="J5">
-        <v>0.1248522519416326</v>
+        <v>0.2857783683379269</v>
       </c>
       <c r="K5">
-        <v>0.8045307845409724</v>
+        <v>0.2394969289302367</v>
       </c>
       <c r="L5">
-        <v>0.1558723322236091</v>
+        <v>0.1562436648960386</v>
       </c>
       <c r="M5">
-        <v>0.1474934998290038</v>
+        <v>0.1550706192980726</v>
       </c>
       <c r="N5">
-        <v>1.041235634730491</v>
+        <v>1.989566318879952</v>
       </c>
       <c r="O5">
-        <v>1.229916442376094</v>
+        <v>2.818182517977164</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5222114736344565</v>
+        <v>0.568164500089523</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1030718357145801</v>
+        <v>0.2556354367983147</v>
       </c>
       <c r="E6">
-        <v>0.09038683337200215</v>
+        <v>0.2378474527764896</v>
       </c>
       <c r="F6">
-        <v>0.5484028425346708</v>
+        <v>1.274211351519092</v>
       </c>
       <c r="G6">
-        <v>0.3110297359156604</v>
+        <v>0.6425977670803817</v>
       </c>
       <c r="H6">
-        <v>0.2973762026418427</v>
+        <v>0.7720356823870844</v>
       </c>
       <c r="I6">
-        <v>0.4321002895684174</v>
+        <v>1.06640541687813</v>
       </c>
       <c r="J6">
-        <v>0.1249496103788079</v>
+        <v>0.285838018781372</v>
       </c>
       <c r="K6">
-        <v>0.799246317516392</v>
+        <v>0.2378178281874881</v>
       </c>
       <c r="L6">
-        <v>0.1548627563984439</v>
+        <v>0.1559825120001577</v>
       </c>
       <c r="M6">
-        <v>0.1465557347835862</v>
+        <v>0.1548280687272303</v>
       </c>
       <c r="N6">
-        <v>1.042743587206026</v>
+        <v>1.990277608557331</v>
       </c>
       <c r="O6">
-        <v>1.229380298160905</v>
+        <v>2.818897972646496</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5451272961267648</v>
+        <v>0.5741022498798998</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1041317070393646</v>
+        <v>0.2555449609388774</v>
       </c>
       <c r="E7">
-        <v>0.08989245433306259</v>
+        <v>0.2374303367009292</v>
       </c>
       <c r="F7">
-        <v>0.5507896560232908</v>
+        <v>1.272315342647218</v>
       </c>
       <c r="G7">
-        <v>0.3132370423589705</v>
+        <v>0.6416819251381938</v>
       </c>
       <c r="H7">
-        <v>0.2969573566878481</v>
+        <v>0.7706105492671469</v>
       </c>
       <c r="I7">
-        <v>0.428039166455072</v>
+        <v>1.06349574970243</v>
       </c>
       <c r="J7">
-        <v>0.1242794072325903</v>
+        <v>0.2854281056061412</v>
       </c>
       <c r="K7">
-        <v>0.8359094876417146</v>
+        <v>0.2494645698510567</v>
       </c>
       <c r="L7">
-        <v>0.161874590266045</v>
+        <v>0.1577998680417281</v>
       </c>
       <c r="M7">
-        <v>0.1530687160086899</v>
+        <v>0.1565163114709414</v>
       </c>
       <c r="N7">
-        <v>1.03235860556946</v>
+        <v>1.985387908236547</v>
       </c>
       <c r="O7">
-        <v>1.233276650264997</v>
+        <v>2.814044535415078</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6466132345237554</v>
+        <v>0.6007268463296498</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1090084804762839</v>
+        <v>0.2553170427206126</v>
       </c>
       <c r="E8">
-        <v>0.08786224234352957</v>
+        <v>0.2357081066002795</v>
       </c>
       <c r="F8">
-        <v>0.5631243746571144</v>
+        <v>1.265135471102738</v>
       </c>
       <c r="G8">
-        <v>0.3242548512619337</v>
+        <v>0.6383837534916239</v>
       </c>
       <c r="H8">
-        <v>0.2959506923885655</v>
+        <v>0.7649073913595785</v>
       </c>
       <c r="I8">
-        <v>0.4113766225690885</v>
+        <v>1.051477575659369</v>
       </c>
       <c r="J8">
-        <v>0.1214601245106861</v>
+        <v>0.2837211700143669</v>
       </c>
       <c r="K8">
-        <v>0.9973169259801296</v>
+        <v>0.3006550898979583</v>
       </c>
       <c r="L8">
-        <v>0.1929332148919656</v>
+        <v>0.1659339531848616</v>
       </c>
       <c r="M8">
-        <v>0.1819137140279139</v>
+        <v>0.1640807938957778</v>
       </c>
       <c r="N8">
-        <v>0.9885849981210342</v>
+        <v>1.96498348674103</v>
       </c>
       <c r="O8">
-        <v>1.254922346269254</v>
+        <v>2.795411171656653</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8472355752046496</v>
+        <v>0.654420650144516</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1193231240219887</v>
+        <v>0.2554813526128896</v>
       </c>
       <c r="E9">
-        <v>0.08443480210517418</v>
+        <v>0.2327545023342763</v>
       </c>
       <c r="F9">
-        <v>0.5942559796461779</v>
+        <v>1.25530812009827</v>
       </c>
       <c r="G9">
-        <v>0.3508645580592642</v>
+        <v>0.6345832450091322</v>
       </c>
       <c r="H9">
-        <v>0.2971802270523938</v>
+        <v>0.7558216841764462</v>
       </c>
       <c r="I9">
-        <v>0.3834254565681121</v>
+        <v>1.030856481233538</v>
       </c>
       <c r="J9">
-        <v>0.1164313234193681</v>
+        <v>0.2807384688730874</v>
       </c>
       <c r="K9">
-        <v>1.312866729738118</v>
+        <v>0.4002654890927602</v>
       </c>
       <c r="L9">
-        <v>0.2543761741966364</v>
+        <v>0.1822871418941645</v>
       </c>
       <c r="M9">
-        <v>0.2389486513239056</v>
+        <v>0.1793171768439308</v>
       </c>
       <c r="N9">
-        <v>0.9103989051201502</v>
+        <v>1.929177257555818</v>
       </c>
       <c r="O9">
-        <v>1.314619910957859</v>
+        <v>2.768854156407002</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9959347257993727</v>
+        <v>0.694747016599905</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1273931380940994</v>
+        <v>0.2559709364044309</v>
       </c>
       <c r="E10">
-        <v>0.08226361974613106</v>
+        <v>0.2308409975219181</v>
       </c>
       <c r="F10">
-        <v>0.6218245838845675</v>
+        <v>1.25066960347327</v>
       </c>
       <c r="G10">
-        <v>0.3738757263575252</v>
+        <v>0.6334142488796033</v>
       </c>
       <c r="H10">
-        <v>0.3002142917508053</v>
+        <v>0.7504196661068221</v>
       </c>
       <c r="I10">
-        <v>0.3659654765421578</v>
+        <v>1.01749633676728</v>
       </c>
       <c r="J10">
-        <v>0.1130442336083775</v>
+        <v>0.2787676972063862</v>
       </c>
       <c r="K10">
-        <v>1.544536268630367</v>
+        <v>0.4729494626616031</v>
       </c>
       <c r="L10">
-        <v>0.2999684501829165</v>
+        <v>0.1945404681354859</v>
       </c>
       <c r="M10">
-        <v>0.2812379586947955</v>
+        <v>0.1907496893693761</v>
       </c>
       <c r="N10">
-        <v>0.857887492244874</v>
+        <v>1.905426453972382</v>
       </c>
       <c r="O10">
-        <v>1.370239320915971</v>
+        <v>2.755410859380618</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.063940468172575</v>
+        <v>0.7132776867632913</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1311790437765907</v>
+        <v>0.256272971754278</v>
       </c>
       <c r="E11">
-        <v>0.08135336302205509</v>
+        <v>0.2300258150798005</v>
       </c>
       <c r="F11">
-        <v>0.6354937512776715</v>
+        <v>1.249117791836298</v>
       </c>
       <c r="G11">
-        <v>0.3851912893526048</v>
+        <v>0.6332343753923055</v>
       </c>
       <c r="H11">
-        <v>0.3020987021558028</v>
+        <v>0.7482374023841203</v>
       </c>
       <c r="I11">
-        <v>0.3587354418424411</v>
+        <v>1.011805882715972</v>
       </c>
       <c r="J11">
-        <v>0.1115708058413825</v>
+        <v>0.277918696959655</v>
       </c>
       <c r="K11">
-        <v>1.649995092453992</v>
+        <v>0.5059012208011495</v>
       </c>
       <c r="L11">
-        <v>0.3208363831502226</v>
+        <v>0.2001653159352941</v>
       </c>
       <c r="M11">
-        <v>0.3005836933367974</v>
+        <v>0.1960009731525503</v>
       </c>
       <c r="N11">
-        <v>0.8351311289897936</v>
+        <v>1.895174811332719</v>
       </c>
       <c r="O11">
-        <v>1.398385323240774</v>
+        <v>2.750609176025705</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.089750867657585</v>
+        <v>0.7203209695369992</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1326298426108607</v>
+        <v>0.2563986816788599</v>
       </c>
       <c r="E12">
-        <v>0.08101999367920865</v>
+        <v>0.2297250469940897</v>
       </c>
       <c r="F12">
-        <v>0.6408415376428138</v>
+        <v>1.248610243664245</v>
       </c>
       <c r="G12">
-        <v>0.3896064765881135</v>
+        <v>0.6332168080939056</v>
       </c>
       <c r="H12">
-        <v>0.3028884326145231</v>
+        <v>0.7474505010691814</v>
       </c>
       <c r="I12">
-        <v>0.3561040611922515</v>
+        <v>1.009706634069705</v>
       </c>
       <c r="J12">
-        <v>0.1110226093330775</v>
+        <v>0.2776040088886651</v>
       </c>
       <c r="K12">
-        <v>1.689948450360589</v>
+        <v>0.5183623872838439</v>
       </c>
       <c r="L12">
-        <v>0.3287593816356065</v>
+        <v>0.2023024564392273</v>
       </c>
       <c r="M12">
-        <v>0.3079269492188459</v>
+        <v>0.1979966245914255</v>
       </c>
       <c r="N12">
-        <v>0.8266820792186671</v>
+        <v>1.89137214645303</v>
       </c>
       <c r="O12">
-        <v>1.409477943081583</v>
+        <v>2.748979491576677</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.084189451467978</v>
+        <v>0.7188029208533919</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1323166133303175</v>
+        <v>0.2563711047631188</v>
       </c>
       <c r="E13">
-        <v>0.08109128391060594</v>
+        <v>0.2297894707730359</v>
       </c>
       <c r="F13">
-        <v>0.6396820111847603</v>
+        <v>1.24871599428036</v>
       </c>
       <c r="G13">
-        <v>0.3886496573171172</v>
+        <v>0.6332183443568198</v>
       </c>
       <c r="H13">
-        <v>0.3027149032538432</v>
+        <v>0.7476182201406658</v>
       </c>
       <c r="I13">
-        <v>0.3566659746550229</v>
+        <v>1.010156272953559</v>
       </c>
       <c r="J13">
-        <v>0.1111402380938475</v>
+        <v>0.2776714800797242</v>
       </c>
       <c r="K13">
-        <v>1.68134282598146</v>
+        <v>0.5156794181309579</v>
       </c>
       <c r="L13">
-        <v>0.3270520588931731</v>
+        <v>0.2018418703897993</v>
       </c>
       <c r="M13">
-        <v>0.306344640256917</v>
+        <v>0.1975665120696988</v>
       </c>
       <c r="N13">
-        <v>0.8284941561922565</v>
+        <v>1.892187587701805</v>
       </c>
       <c r="O13">
-        <v>1.407069213301043</v>
+        <v>2.749322089726036</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.066062704691547</v>
+        <v>0.7138566219806251</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1312980541609434</v>
+        <v>0.2562830872053112</v>
       </c>
       <c r="E14">
-        <v>0.08132570842828102</v>
+        <v>0.2300009120486148</v>
       </c>
       <c r="F14">
-        <v>0.6359302229853441</v>
+        <v>1.249074431523468</v>
       </c>
       <c r="G14">
-        <v>0.38555187006979</v>
+        <v>0.6332319174149745</v>
       </c>
       <c r="H14">
-        <v>0.3021621260978691</v>
+        <v>0.7481718729262496</v>
       </c>
       <c r="I14">
-        <v>0.3585167989850326</v>
+        <v>1.011632062290698</v>
       </c>
       <c r="J14">
-        <v>0.1115255093950926</v>
+        <v>0.2778926710301528</v>
       </c>
       <c r="K14">
-        <v>1.653281661938934</v>
+        <v>0.5069267525391297</v>
       </c>
       <c r="L14">
-        <v>0.3214877825954261</v>
+        <v>0.2003409977651813</v>
       </c>
       <c r="M14">
-        <v>0.3011874664752625</v>
+        <v>0.1961650151839507</v>
       </c>
       <c r="N14">
-        <v>0.8344326146618819</v>
+        <v>1.894860372710426</v>
       </c>
       <c r="O14">
-        <v>1.399289064894077</v>
+        <v>2.750471322655642</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.054967302130194</v>
+        <v>0.7108302541071509</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1306764115868759</v>
+        <v>0.2562306480569205</v>
       </c>
       <c r="E15">
-        <v>0.08147078089728055</v>
+        <v>0.230131457096336</v>
       </c>
       <c r="F15">
-        <v>0.6336547740491909</v>
+        <v>1.249304409027815</v>
       </c>
       <c r="G15">
-        <v>0.3836716009480909</v>
+        <v>0.6332468122941179</v>
       </c>
       <c r="H15">
-        <v>0.3018335620781158</v>
+        <v>0.7485161393229163</v>
       </c>
       <c r="I15">
-        <v>0.3596644709271288</v>
+        <v>1.012543264991344</v>
       </c>
       <c r="J15">
-        <v>0.1117627721832397</v>
+        <v>0.2780290430586048</v>
       </c>
       <c r="K15">
-        <v>1.636096035420366</v>
+        <v>0.5015632621341979</v>
       </c>
       <c r="L15">
-        <v>0.3180822805175438</v>
+        <v>0.1994225939416907</v>
       </c>
       <c r="M15">
-        <v>0.2980308789830346</v>
+        <v>0.1953074780505304</v>
       </c>
       <c r="N15">
-        <v>0.8380921795945717</v>
+        <v>1.896507870142397</v>
       </c>
       <c r="O15">
-        <v>1.394580838599694</v>
+        <v>2.751199814367737</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9914981814612531</v>
+        <v>0.69353968300004</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.127148085324059</v>
+        <v>0.2559527877928574</v>
       </c>
       <c r="E16">
-        <v>0.08232468134569704</v>
+        <v>0.2308953818175468</v>
       </c>
       <c r="F16">
-        <v>0.6209547595128058</v>
+        <v>1.250782235678372</v>
       </c>
       <c r="G16">
-        <v>0.3731539869976643</v>
+        <v>0.633433080466574</v>
       </c>
       <c r="H16">
-        <v>0.3001015935570734</v>
+        <v>0.750567810987647</v>
       </c>
       <c r="I16">
-        <v>0.366452653663444</v>
+        <v>1.017876005815399</v>
       </c>
       <c r="J16">
-        <v>0.1131418872706016</v>
+        <v>0.2788241355375538</v>
       </c>
       <c r="K16">
-        <v>1.537646402982062</v>
+        <v>0.4707936576575946</v>
       </c>
       <c r="L16">
-        <v>0.2986074538140571</v>
+        <v>0.1941738782021218</v>
       </c>
       <c r="M16">
-        <v>0.279976004693097</v>
+        <v>0.1904075089415187</v>
       </c>
       <c r="N16">
-        <v>0.8593979124131188</v>
+        <v>1.906107538942674</v>
       </c>
       <c r="O16">
-        <v>1.368459282818378</v>
+        <v>2.755751070401658</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9526587969382092</v>
+        <v>0.6829796715826433</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1250134297366685</v>
+        <v>0.2558025953273031</v>
       </c>
       <c r="E17">
-        <v>0.08286848583009476</v>
+        <v>0.2313781653968485</v>
       </c>
       <c r="F17">
-        <v>0.6134591365381041</v>
+        <v>1.251831686629878</v>
       </c>
       <c r="G17">
-        <v>0.3669246661613812</v>
+        <v>0.6336374417559369</v>
       </c>
       <c r="H17">
-        <v>0.2991707519815918</v>
+        <v>0.7518968510036501</v>
       </c>
       <c r="I17">
-        <v>0.3708022873878676</v>
+        <v>1.021246577726487</v>
       </c>
       <c r="J17">
-        <v>0.1140052351833098</v>
+        <v>0.2793240523375298</v>
       </c>
       <c r="K17">
-        <v>1.477274598338909</v>
+        <v>0.4518881318992385</v>
       </c>
       <c r="L17">
-        <v>0.2866946588525821</v>
+        <v>0.190966841720055</v>
       </c>
       <c r="M17">
-        <v>0.2689289299317146</v>
+        <v>0.1874143705135474</v>
       </c>
       <c r="N17">
-        <v>0.8727619540991611</v>
+        <v>1.912138138125368</v>
       </c>
       <c r="O17">
-        <v>1.353180656924309</v>
+        <v>2.758879381852893</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9303530744612374</v>
+        <v>0.6769233773500218</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1237963986514572</v>
+        <v>0.2557236789010418</v>
       </c>
       <c r="E18">
-        <v>0.08318854348143478</v>
+        <v>0.2316610545186881</v>
       </c>
       <c r="F18">
-        <v>0.6092534427285301</v>
+        <v>1.252487861707671</v>
       </c>
       <c r="G18">
-        <v>0.3634209862758979</v>
+        <v>0.6337881117358535</v>
       </c>
       <c r="H18">
-        <v>0.2986825842900913</v>
+        <v>0.7526871826658521</v>
       </c>
       <c r="I18">
-        <v>0.3733709037949211</v>
+        <v>1.023221685277736</v>
       </c>
       <c r="J18">
-        <v>0.1145081474773217</v>
+        <v>0.279616064804725</v>
       </c>
       <c r="K18">
-        <v>1.44255651218802</v>
+        <v>0.441003625921411</v>
       </c>
       <c r="L18">
-        <v>0.2798546093028449</v>
+        <v>0.1891270256848401</v>
       </c>
       <c r="M18">
-        <v>0.2625850006234032</v>
+        <v>0.1856975670369003</v>
       </c>
       <c r="N18">
-        <v>0.8805547327894025</v>
+        <v>1.915658807673537</v>
       </c>
       <c r="O18">
-        <v>1.344658932190157</v>
+        <v>2.760802377584099</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.922806342634658</v>
+        <v>0.6748758526661334</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1233861627341497</v>
+        <v>0.255698244338987</v>
       </c>
       <c r="E19">
-        <v>0.08329815340143476</v>
+        <v>0.2317577306174252</v>
       </c>
       <c r="F19">
-        <v>0.6078473254139425</v>
+        <v>1.252719064088758</v>
       </c>
       <c r="G19">
-        <v>0.3622480670502881</v>
+        <v>0.6338448172883062</v>
       </c>
       <c r="H19">
-        <v>0.2985253028447374</v>
+        <v>0.7529592270111607</v>
       </c>
       <c r="I19">
-        <v>0.374251950994875</v>
+        <v>1.023896684077176</v>
       </c>
       <c r="J19">
-        <v>0.1146795113151269</v>
+        <v>0.2797157042332268</v>
       </c>
       <c r="K19">
-        <v>1.430802386828589</v>
+        <v>0.4373165309685021</v>
       </c>
       <c r="L19">
-        <v>0.2775406552233335</v>
+        <v>0.1885049226977458</v>
       </c>
       <c r="M19">
-        <v>0.2604387263093422</v>
+        <v>0.1851171113667505</v>
       </c>
       <c r="N19">
-        <v>0.8832112963350696</v>
+        <v>1.916859783998873</v>
       </c>
       <c r="O19">
-        <v>1.341818583403153</v>
+        <v>2.761474721270559</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9567897887215224</v>
+        <v>0.6841019915220556</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1252395485980387</v>
+        <v>0.2558178109356746</v>
       </c>
       <c r="E20">
-        <v>0.08280984254541846</v>
+        <v>0.2313262337710063</v>
       </c>
       <c r="F20">
-        <v>0.6142460640471867</v>
+        <v>1.251714532535715</v>
       </c>
       <c r="G20">
-        <v>0.3675795259033237</v>
+        <v>0.6336122590636677</v>
       </c>
       <c r="H20">
-        <v>0.2992649280304533</v>
+        <v>0.7517526922176785</v>
       </c>
       <c r="I20">
-        <v>0.3703323172107744</v>
+        <v>1.020884003295709</v>
       </c>
       <c r="J20">
-        <v>0.113912673930046</v>
+        <v>0.2792703725091243</v>
       </c>
       <c r="K20">
-        <v>1.483700583239482</v>
+        <v>0.4539017545683066</v>
       </c>
       <c r="L20">
-        <v>0.2879615503581903</v>
+        <v>0.1913077420341693</v>
       </c>
       <c r="M20">
-        <v>0.2701038557659245</v>
+        <v>0.1877325026928318</v>
       </c>
       <c r="N20">
-        <v>0.8713283047244786</v>
+        <v>1.911490786320051</v>
       </c>
       <c r="O20">
-        <v>1.354779369715402</v>
+        <v>2.758533570202161</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.071385342472439</v>
+        <v>0.7153087659629591</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1315967586772615</v>
+        <v>0.2563086330110949</v>
       </c>
       <c r="E21">
-        <v>0.08125654333902688</v>
+        <v>0.2299385917727381</v>
       </c>
       <c r="F21">
-        <v>0.6370274807095697</v>
+        <v>1.248966977732209</v>
       </c>
       <c r="G21">
-        <v>0.3864581621456722</v>
+        <v>0.6332265593094348</v>
       </c>
       <c r="H21">
-        <v>0.3023223935411465</v>
+        <v>0.748008181072592</v>
       </c>
       <c r="I21">
-        <v>0.3579702443799704</v>
+        <v>1.011197078683669</v>
       </c>
       <c r="J21">
-        <v>0.1114120804551026</v>
+        <v>0.2778275172464344</v>
       </c>
       <c r="K21">
-        <v>1.661523339091616</v>
+        <v>0.5094980886876499</v>
       </c>
       <c r="L21">
-        <v>0.3231215620435393</v>
+        <v>0.2007816481713149</v>
       </c>
       <c r="M21">
-        <v>0.3027017642254393</v>
+        <v>0.1965764773290957</v>
       </c>
       <c r="N21">
-        <v>0.832683732011624</v>
+        <v>1.894073156356814</v>
       </c>
       <c r="O21">
-        <v>1.401562286443522</v>
+        <v>2.750128648735284</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.146621908543835</v>
+        <v>0.7358561543655924</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1358518999648481</v>
+        <v>0.2566954539955404</v>
       </c>
       <c r="E22">
-        <v>0.08030747858887732</v>
+        <v>0.2290778618409952</v>
       </c>
       <c r="F22">
-        <v>0.6529212020852313</v>
+        <v>1.247638024784507</v>
       </c>
       <c r="G22">
-        <v>0.3995597258273591</v>
+        <v>0.6332690811791508</v>
       </c>
       <c r="H22">
-        <v>0.3047662967582312</v>
+        <v>0.7457909729662902</v>
       </c>
       <c r="I22">
-        <v>0.3505135427101322</v>
+        <v>1.005190177923041</v>
       </c>
       <c r="J22">
-        <v>0.1098347135683468</v>
+        <v>0.2769242108966692</v>
       </c>
       <c r="K22">
-        <v>1.777852183544098</v>
+        <v>0.5457343587284527</v>
       </c>
       <c r="L22">
-        <v>0.346222919268925</v>
+        <v>0.2070148918353425</v>
       </c>
       <c r="M22">
-        <v>0.3241090377439662</v>
+        <v>0.2023978566541516</v>
       </c>
       <c r="N22">
-        <v>0.808411005346656</v>
+        <v>1.883152557773943</v>
       </c>
       <c r="O22">
-        <v>1.434682073578074</v>
+        <v>2.745734760936671</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.106433360498187</v>
+        <v>0.7248759295142122</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1335714475521783</v>
+        <v>0.2564829809623461</v>
       </c>
       <c r="E23">
-        <v>0.08080789825049095</v>
+        <v>0.229533033025211</v>
       </c>
       <c r="F23">
-        <v>0.6443432646001668</v>
+        <v>1.248304668666655</v>
       </c>
       <c r="G23">
-        <v>0.3924944569188966</v>
+        <v>0.6332194496865782</v>
       </c>
       <c r="H23">
-        <v>0.3034199027402593</v>
+        <v>0.7469533192008839</v>
       </c>
       <c r="I23">
-        <v>0.3544349794265713</v>
+        <v>1.008366544313944</v>
       </c>
       <c r="J23">
-        <v>0.1106713522059417</v>
+        <v>0.2774026988919029</v>
       </c>
       <c r="K23">
-        <v>1.715752251853161</v>
+        <v>0.5264037044632914</v>
       </c>
       <c r="L23">
-        <v>0.3338812730208929</v>
+        <v>0.2036843497794649</v>
       </c>
       <c r="M23">
-        <v>0.3126735214181053</v>
+        <v>0.1992871509169092</v>
       </c>
       <c r="N23">
-        <v>0.8212738781524287</v>
+        <v>1.888938760478528</v>
       </c>
       <c r="O23">
-        <v>1.416763864731621</v>
+        <v>2.747979384491003</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.954922094416645</v>
+        <v>0.6835945445390621</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1251372885048525</v>
+        <v>0.2558109088070282</v>
       </c>
       <c r="E24">
-        <v>0.08283633208588181</v>
+        <v>0.2313496954539707</v>
       </c>
       <c r="F24">
-        <v>0.6138899720074562</v>
+        <v>1.251767333322313</v>
       </c>
       <c r="G24">
-        <v>0.3672832226088616</v>
+        <v>0.633623540802347</v>
       </c>
       <c r="H24">
-        <v>0.2992222049623621</v>
+        <v>0.7518177846347101</v>
       </c>
       <c r="I24">
-        <v>0.3705445793670172</v>
+        <v>1.021047806940445</v>
       </c>
       <c r="J24">
-        <v>0.1139545004384823</v>
+        <v>0.2792946268182375</v>
       </c>
       <c r="K24">
-        <v>1.480795425763716</v>
+        <v>0.4529914438803928</v>
       </c>
       <c r="L24">
-        <v>0.287388761555448</v>
+        <v>0.1911536086802101</v>
       </c>
       <c r="M24">
-        <v>0.2695726495708328</v>
+        <v>0.187588662688313</v>
       </c>
       <c r="N24">
-        <v>0.8719761166073425</v>
+        <v>1.911783287113664</v>
       </c>
       <c r="O24">
-        <v>1.354055776987963</v>
+        <v>2.758689523858834</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7927575935831044</v>
+        <v>0.6397390308322599</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1164489060569451</v>
+        <v>0.2553718535773086</v>
       </c>
       <c r="E25">
-        <v>0.08530178444672032</v>
+        <v>0.233508356880062</v>
       </c>
       <c r="F25">
-        <v>0.5850442687032427</v>
+        <v>1.257512541746628</v>
       </c>
       <c r="G25">
-        <v>0.3430891083143095</v>
+        <v>0.6353261247272002</v>
       </c>
       <c r="H25">
-        <v>0.2964868475344176</v>
+        <v>0.7580555912033233</v>
       </c>
       <c r="I25">
-        <v>0.3904615596493919</v>
+        <v>1.036120221582255</v>
       </c>
       <c r="J25">
-        <v>0.1177379518747426</v>
+        <v>0.2815065072157825</v>
       </c>
       <c r="K25">
-        <v>1.227563565989215</v>
+        <v>0.3734039876639486</v>
       </c>
       <c r="L25">
-        <v>0.2376844839343022</v>
+        <v>0.1778207865523598</v>
       </c>
       <c r="M25">
-        <v>0.2234589636034592</v>
+        <v>0.1751529699689414</v>
       </c>
       <c r="N25">
-        <v>0.9307042666528993</v>
+        <v>1.938414318041097</v>
       </c>
       <c r="O25">
-        <v>1.296498844817762</v>
+        <v>2.774971620630737</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_23/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.60804213436694</v>
+        <v>0.6742084052281427</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.255296795524238</v>
+        <v>0.11037948318274</v>
       </c>
       <c r="E2">
-        <v>0.2352702076503217</v>
+        <v>0.08734930025501697</v>
       </c>
       <c r="F2">
-        <v>1.263478260141646</v>
+        <v>0.5669199366290698</v>
       </c>
       <c r="G2">
-        <v>0.6376707170728153</v>
+        <v>0.3275642388004414</v>
       </c>
       <c r="H2">
-        <v>0.7635043321519035</v>
+        <v>0.295888461497249</v>
       </c>
       <c r="I2">
-        <v>1.048420883677009</v>
+        <v>0.4071746382766737</v>
       </c>
       <c r="J2">
-        <v>0.2832834113993892</v>
+        <v>0.1207299623426845</v>
       </c>
       <c r="K2">
-        <v>0.3144738132454847</v>
+        <v>1.040969748259272</v>
       </c>
       <c r="L2">
-        <v>0.1681653521849285</v>
+        <v>0.2013805852557482</v>
       </c>
       <c r="M2">
-        <v>0.1661578868810771</v>
+        <v>0.1897575795756339</v>
       </c>
       <c r="N2">
-        <v>1.959739925018287</v>
+        <v>0.977233099649407</v>
       </c>
       <c r="O2">
-        <v>2.791038714578605</v>
+        <v>1.261910709785568</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5869393503858475</v>
+        <v>0.5942897291126883</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2554019921533595</v>
+        <v>0.1064593696841172</v>
       </c>
       <c r="E3">
-        <v>0.2365724061479098</v>
+        <v>0.08887871774367095</v>
       </c>
       <c r="F3">
-        <v>1.268607447793528</v>
+        <v>0.5564265398889887</v>
       </c>
       <c r="G3">
-        <v>0.6399411083435282</v>
+        <v>0.3183351178103209</v>
       </c>
       <c r="H3">
-        <v>0.7677328622194679</v>
+        <v>0.2963073353200372</v>
       </c>
       <c r="I3">
-        <v>1.057509694614518</v>
+        <v>0.4197146001772722</v>
       </c>
       <c r="J3">
-        <v>0.2845807164961487</v>
+        <v>0.1228854426554467</v>
       </c>
       <c r="K3">
-        <v>0.2743383739741319</v>
+        <v>0.9142818891962463</v>
       </c>
       <c r="L3">
-        <v>0.1617244796723298</v>
+        <v>0.1769188172236795</v>
       </c>
       <c r="M3">
-        <v>0.1601645622045673</v>
+        <v>0.1670416328383766</v>
       </c>
       <c r="N3">
-        <v>1.975266838283765</v>
+        <v>1.010729897621868</v>
       </c>
       <c r="O3">
-        <v>2.804477682742046</v>
+        <v>1.242919000581438</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5741719616453622</v>
+        <v>0.5453956241857156</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.255543996224759</v>
+        <v>0.104144216625329</v>
       </c>
       <c r="E4">
-        <v>0.237425520822387</v>
+        <v>0.08988675188443551</v>
       </c>
       <c r="F4">
-        <v>1.272293807059022</v>
+        <v>0.550818549671952</v>
       </c>
       <c r="G4">
-        <v>0.6416716155499174</v>
+        <v>0.313263550849733</v>
       </c>
       <c r="H4">
-        <v>0.7705941942556294</v>
+        <v>0.2969529081235294</v>
       </c>
       <c r="I4">
-        <v>1.063462152912972</v>
+        <v>0.427992325762343</v>
       </c>
       <c r="J4">
-        <v>0.2854233649786408</v>
+        <v>0.1242716405102255</v>
       </c>
       <c r="K4">
-        <v>0.2496007410769892</v>
+        <v>0.8363382660618583</v>
       </c>
       <c r="L4">
-        <v>0.1578211963796363</v>
+        <v>0.1619566959341583</v>
       </c>
       <c r="M4">
-        <v>0.1565361291245395</v>
+        <v>0.1531449787899533</v>
       </c>
       <c r="N4">
-        <v>1.985331334943016</v>
+        <v>1.032238199709013</v>
       </c>
       <c r="O4">
-        <v>2.813989268603748</v>
+        <v>1.233324621816848</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.56901746476791</v>
+        <v>0.5255109968630336</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2556214015785656</v>
+        <v>0.1032233865394829</v>
       </c>
       <c r="E5">
-        <v>0.2377866684871144</v>
+        <v>0.09031473280677016</v>
       </c>
       <c r="F5">
-        <v>1.273931276198795</v>
+        <v>0.5487364847490426</v>
       </c>
       <c r="G5">
-        <v>0.6424614920929912</v>
+        <v>0.3113405412210071</v>
       </c>
       <c r="H5">
-        <v>0.7718269502100696</v>
+        <v>0.2973110624807376</v>
       </c>
       <c r="I5">
-        <v>1.065981435536754</v>
+        <v>0.431507996894867</v>
       </c>
       <c r="J5">
-        <v>0.2857783683379269</v>
+        <v>0.1248522519416877</v>
       </c>
       <c r="K5">
-        <v>0.2394969289302367</v>
+        <v>0.8045307845411571</v>
       </c>
       <c r="L5">
-        <v>0.1562436648960386</v>
+        <v>0.1558723322236517</v>
       </c>
       <c r="M5">
-        <v>0.1550706192980726</v>
+        <v>0.1474934998290109</v>
       </c>
       <c r="N5">
-        <v>1.989566318879952</v>
+        <v>1.041235634730494</v>
       </c>
       <c r="O5">
-        <v>2.818182517977164</v>
+        <v>1.229916442376165</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.568164500089523</v>
+        <v>0.5222114736343428</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2556354367983147</v>
+        <v>0.103071835714573</v>
       </c>
       <c r="E6">
-        <v>0.2378474527764896</v>
+        <v>0.09038683337201636</v>
       </c>
       <c r="F6">
-        <v>1.274211351519092</v>
+        <v>0.548402842534685</v>
       </c>
       <c r="G6">
-        <v>0.6425977670803817</v>
+        <v>0.3110297359156036</v>
       </c>
       <c r="H6">
-        <v>0.7720356823870844</v>
+        <v>0.297376202641729</v>
       </c>
       <c r="I6">
-        <v>1.06640541687813</v>
+        <v>0.4321002895683996</v>
       </c>
       <c r="J6">
-        <v>0.285838018781372</v>
+        <v>0.1249496103787422</v>
       </c>
       <c r="K6">
-        <v>0.2378178281874881</v>
+        <v>0.7992463175164204</v>
       </c>
       <c r="L6">
-        <v>0.1559825120001577</v>
+        <v>0.1548627563984581</v>
       </c>
       <c r="M6">
-        <v>0.1548280687272303</v>
+        <v>0.1465557347835826</v>
       </c>
       <c r="N6">
-        <v>1.990277608557331</v>
+        <v>1.042743587206015</v>
       </c>
       <c r="O6">
-        <v>2.818897972646496</v>
+        <v>1.229380298160891</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5741022498798998</v>
+        <v>0.5451272961268785</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2555449609388774</v>
+        <v>0.104131707039322</v>
       </c>
       <c r="E7">
-        <v>0.2374303367009292</v>
+        <v>0.08989245433303061</v>
       </c>
       <c r="F7">
-        <v>1.272315342647218</v>
+        <v>0.5507896560232908</v>
       </c>
       <c r="G7">
-        <v>0.6416819251381938</v>
+        <v>0.3132370423589634</v>
       </c>
       <c r="H7">
-        <v>0.7706105492671469</v>
+        <v>0.296957356687841</v>
       </c>
       <c r="I7">
-        <v>1.06349574970243</v>
+        <v>0.4280391664550738</v>
       </c>
       <c r="J7">
-        <v>0.2854281056061412</v>
+        <v>0.1242794072326516</v>
       </c>
       <c r="K7">
-        <v>0.2494645698510567</v>
+        <v>0.8359094876416862</v>
       </c>
       <c r="L7">
-        <v>0.1577998680417281</v>
+        <v>0.161874590266109</v>
       </c>
       <c r="M7">
-        <v>0.1565163114709414</v>
+        <v>0.1530687160086899</v>
       </c>
       <c r="N7">
-        <v>1.985387908236547</v>
+        <v>1.032358605569463</v>
       </c>
       <c r="O7">
-        <v>2.814044535415078</v>
+        <v>1.233276650265026</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6007268463296498</v>
+        <v>0.6466132345237554</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2553170427206126</v>
+        <v>0.1090084804762981</v>
       </c>
       <c r="E8">
-        <v>0.2357081066002795</v>
+        <v>0.08786224234353135</v>
       </c>
       <c r="F8">
-        <v>1.265135471102738</v>
+        <v>0.5631243746571073</v>
       </c>
       <c r="G8">
-        <v>0.6383837534916239</v>
+        <v>0.3242548512619265</v>
       </c>
       <c r="H8">
-        <v>0.7649073913595785</v>
+        <v>0.2959506923885726</v>
       </c>
       <c r="I8">
-        <v>1.051477575659369</v>
+        <v>0.4113766225690849</v>
       </c>
       <c r="J8">
-        <v>0.2837211700143669</v>
+        <v>0.1214601245107589</v>
       </c>
       <c r="K8">
-        <v>0.3006550898979583</v>
+        <v>0.9973169259803001</v>
       </c>
       <c r="L8">
-        <v>0.1659339531848616</v>
+        <v>0.1929332148920508</v>
       </c>
       <c r="M8">
-        <v>0.1640807938957778</v>
+        <v>0.1819137140279139</v>
       </c>
       <c r="N8">
-        <v>1.96498348674103</v>
+        <v>0.9885849981209773</v>
       </c>
       <c r="O8">
-        <v>2.795411171656653</v>
+        <v>1.254922346269325</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.654420650144516</v>
+        <v>0.8472355752047349</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2554813526128896</v>
+        <v>0.119323124021868</v>
       </c>
       <c r="E9">
-        <v>0.2327545023342763</v>
+        <v>0.08443480210514487</v>
       </c>
       <c r="F9">
-        <v>1.25530812009827</v>
+        <v>0.5942559796461566</v>
       </c>
       <c r="G9">
-        <v>0.6345832450091322</v>
+        <v>0.3508645580592002</v>
       </c>
       <c r="H9">
-        <v>0.7558216841764462</v>
+        <v>0.2971802270522801</v>
       </c>
       <c r="I9">
-        <v>1.030856481233538</v>
+        <v>0.3834254565681086</v>
       </c>
       <c r="J9">
-        <v>0.2807384688730874</v>
+        <v>0.1164313234194054</v>
       </c>
       <c r="K9">
-        <v>0.4002654890927602</v>
+        <v>1.31286672973809</v>
       </c>
       <c r="L9">
-        <v>0.1822871418941645</v>
+        <v>0.2543761741967074</v>
       </c>
       <c r="M9">
-        <v>0.1793171768439308</v>
+        <v>0.2389486513239092</v>
       </c>
       <c r="N9">
-        <v>1.929177257555818</v>
+        <v>0.9103989051202142</v>
       </c>
       <c r="O9">
-        <v>2.768854156407002</v>
+        <v>1.314619910957859</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.694747016599905</v>
+        <v>0.9959347257993727</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2559709364044309</v>
+        <v>0.1273931380941065</v>
       </c>
       <c r="E10">
-        <v>0.2308409975219181</v>
+        <v>0.08226361974611862</v>
       </c>
       <c r="F10">
-        <v>1.25066960347327</v>
+        <v>0.6218245838845675</v>
       </c>
       <c r="G10">
-        <v>0.6334142488796033</v>
+        <v>0.3738757263575252</v>
       </c>
       <c r="H10">
-        <v>0.7504196661068221</v>
+        <v>0.3002142917508053</v>
       </c>
       <c r="I10">
-        <v>1.01749633676728</v>
+        <v>0.3659654765421578</v>
       </c>
       <c r="J10">
-        <v>0.2787676972063862</v>
+        <v>0.1130442336084352</v>
       </c>
       <c r="K10">
-        <v>0.4729494626616031</v>
+        <v>1.544536268630424</v>
       </c>
       <c r="L10">
-        <v>0.1945404681354859</v>
+        <v>0.2999684501828597</v>
       </c>
       <c r="M10">
-        <v>0.1907496893693761</v>
+        <v>0.2812379586947955</v>
       </c>
       <c r="N10">
-        <v>1.905426453972382</v>
+        <v>0.857887492244874</v>
       </c>
       <c r="O10">
-        <v>2.755410859380618</v>
+        <v>1.370239320916028</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7132776867632913</v>
+        <v>1.063940468172461</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.256272971754278</v>
+        <v>0.1311790437766689</v>
       </c>
       <c r="E11">
-        <v>0.2300258150798005</v>
+        <v>0.08135336302205776</v>
       </c>
       <c r="F11">
-        <v>1.249117791836298</v>
+        <v>0.6354937512776644</v>
       </c>
       <c r="G11">
-        <v>0.6332343753923055</v>
+        <v>0.385191289352548</v>
       </c>
       <c r="H11">
-        <v>0.7482374023841203</v>
+        <v>0.3020987021558028</v>
       </c>
       <c r="I11">
-        <v>1.011805882715972</v>
+        <v>0.3587354418424553</v>
       </c>
       <c r="J11">
-        <v>0.277918696959655</v>
+        <v>0.1115708058413283</v>
       </c>
       <c r="K11">
-        <v>0.5059012208011495</v>
+        <v>1.649995092454105</v>
       </c>
       <c r="L11">
-        <v>0.2001653159352941</v>
+        <v>0.3208363831503078</v>
       </c>
       <c r="M11">
-        <v>0.1960009731525503</v>
+        <v>0.3005836933368116</v>
       </c>
       <c r="N11">
-        <v>1.895174811332719</v>
+        <v>0.8351311289897971</v>
       </c>
       <c r="O11">
-        <v>2.750609176025705</v>
+        <v>1.398385323240888</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7203209695369992</v>
+        <v>1.089750867657841</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2563986816788599</v>
+        <v>0.1326298426107329</v>
       </c>
       <c r="E12">
-        <v>0.2297250469940897</v>
+        <v>0.08101999367920687</v>
       </c>
       <c r="F12">
-        <v>1.248610243664245</v>
+        <v>0.6408415376428138</v>
       </c>
       <c r="G12">
-        <v>0.6332168080939056</v>
+        <v>0.3896064765881135</v>
       </c>
       <c r="H12">
-        <v>0.7474505010691814</v>
+        <v>0.3028884326145089</v>
       </c>
       <c r="I12">
-        <v>1.009706634069705</v>
+        <v>0.356104061192255</v>
       </c>
       <c r="J12">
-        <v>0.2776040088886651</v>
+        <v>0.1110226093331512</v>
       </c>
       <c r="K12">
-        <v>0.5183623872838439</v>
+        <v>1.689948450360589</v>
       </c>
       <c r="L12">
-        <v>0.2023024564392273</v>
+        <v>0.3287593816355923</v>
       </c>
       <c r="M12">
-        <v>0.1979966245914255</v>
+        <v>0.3079269492188459</v>
       </c>
       <c r="N12">
-        <v>1.89137214645303</v>
+        <v>0.8266820792186031</v>
       </c>
       <c r="O12">
-        <v>2.748979491576677</v>
+        <v>1.409477943081583</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7188029208533919</v>
+        <v>1.084189451467921</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2563711047631188</v>
+        <v>0.1323166133302252</v>
       </c>
       <c r="E13">
-        <v>0.2297894707730359</v>
+        <v>0.0810912839105784</v>
       </c>
       <c r="F13">
-        <v>1.24871599428036</v>
+        <v>0.6396820111847674</v>
       </c>
       <c r="G13">
-        <v>0.6332183443568198</v>
+        <v>0.388649657317174</v>
       </c>
       <c r="H13">
-        <v>0.7476182201406658</v>
+        <v>0.3027149032538432</v>
       </c>
       <c r="I13">
-        <v>1.010156272953559</v>
+        <v>0.3566659746550371</v>
       </c>
       <c r="J13">
-        <v>0.2776714800797242</v>
+        <v>0.111140238093828</v>
       </c>
       <c r="K13">
-        <v>0.5156794181309579</v>
+        <v>1.681342825981517</v>
       </c>
       <c r="L13">
-        <v>0.2018418703897993</v>
+        <v>0.3270520588932726</v>
       </c>
       <c r="M13">
-        <v>0.1975665120696988</v>
+        <v>0.3063446402569099</v>
       </c>
       <c r="N13">
-        <v>1.892187587701805</v>
+        <v>0.8284941561923134</v>
       </c>
       <c r="O13">
-        <v>2.749322089726036</v>
+        <v>1.407069213301099</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7138566219806251</v>
+        <v>1.066062704691433</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2562830872053112</v>
+        <v>0.1312980541607871</v>
       </c>
       <c r="E14">
-        <v>0.2300009120486148</v>
+        <v>0.08132570842826503</v>
       </c>
       <c r="F14">
-        <v>1.249074431523468</v>
+        <v>0.6359302229853512</v>
       </c>
       <c r="G14">
-        <v>0.6332319174149745</v>
+        <v>0.3855518700698326</v>
       </c>
       <c r="H14">
-        <v>0.7481718729262496</v>
+        <v>0.3021621260977412</v>
       </c>
       <c r="I14">
-        <v>1.011632062290698</v>
+        <v>0.3585167989850468</v>
       </c>
       <c r="J14">
-        <v>0.2778926710301528</v>
+        <v>0.1115255093951477</v>
       </c>
       <c r="K14">
-        <v>0.5069267525391297</v>
+        <v>1.653281661938962</v>
       </c>
       <c r="L14">
-        <v>0.2003409977651813</v>
+        <v>0.3214877825953977</v>
       </c>
       <c r="M14">
-        <v>0.1961650151839507</v>
+        <v>0.3011874664752625</v>
       </c>
       <c r="N14">
-        <v>1.894860372710426</v>
+        <v>0.8344326146618926</v>
       </c>
       <c r="O14">
-        <v>2.750471322655642</v>
+        <v>1.399289064894049</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7108302541071509</v>
+        <v>1.054967302130223</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2562306480569205</v>
+        <v>0.1306764115867622</v>
       </c>
       <c r="E15">
-        <v>0.230131457096336</v>
+        <v>0.08147078089727966</v>
       </c>
       <c r="F15">
-        <v>1.249304409027815</v>
+        <v>0.633654774049198</v>
       </c>
       <c r="G15">
-        <v>0.6332468122941179</v>
+        <v>0.3836716009481478</v>
       </c>
       <c r="H15">
-        <v>0.7485161393229163</v>
+        <v>0.3018335620781158</v>
       </c>
       <c r="I15">
-        <v>1.012543264991344</v>
+        <v>0.3596644709271288</v>
       </c>
       <c r="J15">
-        <v>0.2780290430586048</v>
+        <v>0.1117627721832903</v>
       </c>
       <c r="K15">
-        <v>0.5015632621341979</v>
+        <v>1.636096035420422</v>
       </c>
       <c r="L15">
-        <v>0.1994225939416907</v>
+        <v>0.3180822805174586</v>
       </c>
       <c r="M15">
-        <v>0.1953074780505304</v>
+        <v>0.2980308789830062</v>
       </c>
       <c r="N15">
-        <v>1.896507870142397</v>
+        <v>0.8380921795946321</v>
       </c>
       <c r="O15">
-        <v>2.751199814367737</v>
+        <v>1.394580838599751</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.69353968300004</v>
+        <v>0.9914981814613668</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2559527877928574</v>
+        <v>0.1271480853241158</v>
       </c>
       <c r="E16">
-        <v>0.2308953818175468</v>
+        <v>0.08232468134565529</v>
       </c>
       <c r="F16">
-        <v>1.250782235678372</v>
+        <v>0.6209547595128058</v>
       </c>
       <c r="G16">
-        <v>0.633433080466574</v>
+        <v>0.3731539869976785</v>
       </c>
       <c r="H16">
-        <v>0.750567810987647</v>
+        <v>0.3001015935570734</v>
       </c>
       <c r="I16">
-        <v>1.017876005815399</v>
+        <v>0.366452653663444</v>
       </c>
       <c r="J16">
-        <v>0.2788241355375538</v>
+        <v>0.1131418872706123</v>
       </c>
       <c r="K16">
-        <v>0.4707936576575946</v>
+        <v>1.537646402982091</v>
       </c>
       <c r="L16">
-        <v>0.1941738782021218</v>
+        <v>0.2986074538140286</v>
       </c>
       <c r="M16">
-        <v>0.1904075089415187</v>
+        <v>0.279976004693097</v>
       </c>
       <c r="N16">
-        <v>1.906107538942674</v>
+        <v>0.8593979124131224</v>
       </c>
       <c r="O16">
-        <v>2.755751070401658</v>
+        <v>1.36845928281835</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6829796715826433</v>
+        <v>0.9526587969382092</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2558025953273031</v>
+        <v>0.1250134297365548</v>
       </c>
       <c r="E17">
-        <v>0.2313781653968485</v>
+        <v>0.08286848583010897</v>
       </c>
       <c r="F17">
-        <v>1.251831686629878</v>
+        <v>0.6134591365381183</v>
       </c>
       <c r="G17">
-        <v>0.6336374417559369</v>
+        <v>0.3669246661614523</v>
       </c>
       <c r="H17">
-        <v>0.7518968510036501</v>
+        <v>0.2991707519815918</v>
       </c>
       <c r="I17">
-        <v>1.021246577726487</v>
+        <v>0.3708022873878676</v>
       </c>
       <c r="J17">
-        <v>0.2793240523375298</v>
+        <v>0.1140052351832717</v>
       </c>
       <c r="K17">
-        <v>0.4518881318992385</v>
+        <v>1.477274598338937</v>
       </c>
       <c r="L17">
-        <v>0.190966841720055</v>
+        <v>0.2866946588525821</v>
       </c>
       <c r="M17">
-        <v>0.1874143705135474</v>
+        <v>0.2689289299317146</v>
       </c>
       <c r="N17">
-        <v>1.912138138125368</v>
+        <v>0.8727619540991611</v>
       </c>
       <c r="O17">
-        <v>2.758879381852893</v>
+        <v>1.353180656924366</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6769233773500218</v>
+        <v>0.9303530744611521</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2557236789010418</v>
+        <v>0.123796398651379</v>
       </c>
       <c r="E18">
-        <v>0.2316610545186881</v>
+        <v>0.08318854348142946</v>
       </c>
       <c r="F18">
-        <v>1.252487861707671</v>
+        <v>0.6092534427285301</v>
       </c>
       <c r="G18">
-        <v>0.6337881117358535</v>
+        <v>0.3634209862758979</v>
       </c>
       <c r="H18">
-        <v>0.7526871826658521</v>
+        <v>0.298682584290205</v>
       </c>
       <c r="I18">
-        <v>1.023221685277736</v>
+        <v>0.3733709037949211</v>
       </c>
       <c r="J18">
-        <v>0.279616064804725</v>
+        <v>0.11450814747732</v>
       </c>
       <c r="K18">
-        <v>0.441003625921411</v>
+        <v>1.442556512188105</v>
       </c>
       <c r="L18">
-        <v>0.1891270256848401</v>
+        <v>0.2798546093028023</v>
       </c>
       <c r="M18">
-        <v>0.1856975670369003</v>
+        <v>0.2625850006233783</v>
       </c>
       <c r="N18">
-        <v>1.915658807673537</v>
+        <v>0.8805547327893386</v>
       </c>
       <c r="O18">
-        <v>2.760802377584099</v>
+        <v>1.344658932190185</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6748758526661334</v>
+        <v>0.9228063426347148</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.255698244338987</v>
+        <v>0.1233861627342208</v>
       </c>
       <c r="E19">
-        <v>0.2317577306174252</v>
+        <v>0.08329815340148006</v>
       </c>
       <c r="F19">
-        <v>1.252719064088758</v>
+        <v>0.6078473254139496</v>
       </c>
       <c r="G19">
-        <v>0.6338448172883062</v>
+        <v>0.3622480670502313</v>
       </c>
       <c r="H19">
-        <v>0.7529592270111607</v>
+        <v>0.2985253028447232</v>
       </c>
       <c r="I19">
-        <v>1.023896684077176</v>
+        <v>0.3742519509948856</v>
       </c>
       <c r="J19">
-        <v>0.2797157042332268</v>
+        <v>0.1146795113151544</v>
       </c>
       <c r="K19">
-        <v>0.4373165309685021</v>
+        <v>1.430802386828674</v>
       </c>
       <c r="L19">
-        <v>0.1885049226977458</v>
+        <v>0.2775406552232624</v>
       </c>
       <c r="M19">
-        <v>0.1851171113667505</v>
+        <v>0.2604387263093386</v>
       </c>
       <c r="N19">
-        <v>1.916859783998873</v>
+        <v>0.8832112963350625</v>
       </c>
       <c r="O19">
-        <v>2.761474721270559</v>
+        <v>1.341818583403182</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6841019915220556</v>
+        <v>0.9567897887214087</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2558178109356746</v>
+        <v>0.1252395485980102</v>
       </c>
       <c r="E20">
-        <v>0.2313262337710063</v>
+        <v>0.08280984254540247</v>
       </c>
       <c r="F20">
-        <v>1.251714532535715</v>
+        <v>0.6142460640471796</v>
       </c>
       <c r="G20">
-        <v>0.6336122590636677</v>
+        <v>0.3675795259033663</v>
       </c>
       <c r="H20">
-        <v>0.7517526922176785</v>
+        <v>0.2992649280304391</v>
       </c>
       <c r="I20">
-        <v>1.020884003295709</v>
+        <v>0.3703323172107744</v>
       </c>
       <c r="J20">
-        <v>0.2792703725091243</v>
+        <v>0.1139126739299945</v>
       </c>
       <c r="K20">
-        <v>0.4539017545683066</v>
+        <v>1.483700583239454</v>
       </c>
       <c r="L20">
-        <v>0.1913077420341693</v>
+        <v>0.2879615503580197</v>
       </c>
       <c r="M20">
-        <v>0.1877325026928318</v>
+        <v>0.2701038557659174</v>
       </c>
       <c r="N20">
-        <v>1.911490786320051</v>
+        <v>0.8713283047245284</v>
       </c>
       <c r="O20">
-        <v>2.758533570202161</v>
+        <v>1.354779369715374</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7153087659629591</v>
+        <v>1.071385342472297</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2563086330110949</v>
+        <v>0.1315967586773823</v>
       </c>
       <c r="E21">
-        <v>0.2299385917727381</v>
+        <v>0.08125654333904375</v>
       </c>
       <c r="F21">
-        <v>1.248966977732209</v>
+        <v>0.6370274807095626</v>
       </c>
       <c r="G21">
-        <v>0.6332265593094348</v>
+        <v>0.3864581621457859</v>
       </c>
       <c r="H21">
-        <v>0.748008181072592</v>
+        <v>0.3023223935411465</v>
       </c>
       <c r="I21">
-        <v>1.011197078683669</v>
+        <v>0.3579702443799881</v>
       </c>
       <c r="J21">
-        <v>0.2778275172464344</v>
+        <v>0.1114120804551373</v>
       </c>
       <c r="K21">
-        <v>0.5094980886876499</v>
+        <v>1.661523339091588</v>
       </c>
       <c r="L21">
-        <v>0.2007816481713149</v>
+        <v>0.3231215620434966</v>
       </c>
       <c r="M21">
-        <v>0.1965764773290957</v>
+        <v>0.3027017642254393</v>
       </c>
       <c r="N21">
-        <v>1.894073156356814</v>
+        <v>0.8326837320115708</v>
       </c>
       <c r="O21">
-        <v>2.750128648735284</v>
+        <v>1.401562286443522</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7358561543655924</v>
+        <v>1.146621908543949</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2566954539955404</v>
+        <v>0.1358518999648197</v>
       </c>
       <c r="E22">
-        <v>0.2290778618409952</v>
+        <v>0.08030747858890575</v>
       </c>
       <c r="F22">
-        <v>1.247638024784507</v>
+        <v>0.6529212020852313</v>
       </c>
       <c r="G22">
-        <v>0.6332690811791508</v>
+        <v>0.399559725827288</v>
       </c>
       <c r="H22">
-        <v>0.7457909729662902</v>
+        <v>0.3047662967582312</v>
       </c>
       <c r="I22">
-        <v>1.005190177923041</v>
+        <v>0.3505135427101429</v>
       </c>
       <c r="J22">
-        <v>0.2769242108966692</v>
+        <v>0.109834713568377</v>
       </c>
       <c r="K22">
-        <v>0.5457343587284527</v>
+        <v>1.777852183544098</v>
       </c>
       <c r="L22">
-        <v>0.2070148918353425</v>
+        <v>0.3462229192689392</v>
       </c>
       <c r="M22">
-        <v>0.2023978566541516</v>
+        <v>0.3241090377439804</v>
       </c>
       <c r="N22">
-        <v>1.883152557773943</v>
+        <v>0.8084110053466631</v>
       </c>
       <c r="O22">
-        <v>2.745734760936671</v>
+        <v>1.434682073578045</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7248759295142122</v>
+        <v>1.106433360498301</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2564829809623461</v>
+        <v>0.1335714475520575</v>
       </c>
       <c r="E23">
-        <v>0.229533033025211</v>
+        <v>0.08080789825047141</v>
       </c>
       <c r="F23">
-        <v>1.248304668666655</v>
+        <v>0.6443432646001455</v>
       </c>
       <c r="G23">
-        <v>0.6332194496865782</v>
+        <v>0.3924944569188398</v>
       </c>
       <c r="H23">
-        <v>0.7469533192008839</v>
+        <v>0.303419902740373</v>
       </c>
       <c r="I23">
-        <v>1.008366544313944</v>
+        <v>0.3544349794265784</v>
       </c>
       <c r="J23">
-        <v>0.2774026988919029</v>
+        <v>0.1106713522059231</v>
       </c>
       <c r="K23">
-        <v>0.5264037044632914</v>
+        <v>1.715752251853161</v>
       </c>
       <c r="L23">
-        <v>0.2036843497794649</v>
+        <v>0.333881273020836</v>
       </c>
       <c r="M23">
-        <v>0.1992871509169092</v>
+        <v>0.3126735214180911</v>
       </c>
       <c r="N23">
-        <v>1.888938760478528</v>
+        <v>0.8212738781524287</v>
       </c>
       <c r="O23">
-        <v>2.747979384491003</v>
+        <v>1.416763864731621</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6835945445390621</v>
+        <v>0.9549220944165882</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2558109088070282</v>
+        <v>0.1251372885049733</v>
       </c>
       <c r="E24">
-        <v>0.2313496954539707</v>
+        <v>0.0828363320858676</v>
       </c>
       <c r="F24">
-        <v>1.251767333322313</v>
+        <v>0.6138899720074491</v>
       </c>
       <c r="G24">
-        <v>0.633623540802347</v>
+        <v>0.3672832226089042</v>
       </c>
       <c r="H24">
-        <v>0.7518177846347101</v>
+        <v>0.2992222049623763</v>
       </c>
       <c r="I24">
-        <v>1.021047806940445</v>
+        <v>0.3705445793670172</v>
       </c>
       <c r="J24">
-        <v>0.2792946268182375</v>
+        <v>0.1139545004384761</v>
       </c>
       <c r="K24">
-        <v>0.4529914438803928</v>
+        <v>1.480795425763716</v>
       </c>
       <c r="L24">
-        <v>0.1911536086802101</v>
+        <v>0.2873887615554764</v>
       </c>
       <c r="M24">
-        <v>0.187588662688313</v>
+        <v>0.2695726495708222</v>
       </c>
       <c r="N24">
-        <v>1.911783287113664</v>
+        <v>0.8719761166073532</v>
       </c>
       <c r="O24">
-        <v>2.758689523858834</v>
+        <v>1.354055776987991</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6397390308322599</v>
+        <v>0.7927575935832465</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2553718535773086</v>
+        <v>0.1164489060569096</v>
       </c>
       <c r="E25">
-        <v>0.233508356880062</v>
+        <v>0.08530178444675141</v>
       </c>
       <c r="F25">
-        <v>1.257512541746628</v>
+        <v>0.585044268703264</v>
       </c>
       <c r="G25">
-        <v>0.6353261247272002</v>
+        <v>0.3430891083143024</v>
       </c>
       <c r="H25">
-        <v>0.7580555912033233</v>
+        <v>0.2964868475343039</v>
       </c>
       <c r="I25">
-        <v>1.036120221582255</v>
+        <v>0.390461559649399</v>
       </c>
       <c r="J25">
-        <v>0.2815065072157825</v>
+        <v>0.1177379518747612</v>
       </c>
       <c r="K25">
-        <v>0.3734039876639486</v>
+        <v>1.227563565989186</v>
       </c>
       <c r="L25">
-        <v>0.1778207865523598</v>
+        <v>0.2376844839342453</v>
       </c>
       <c r="M25">
-        <v>0.1751529699689414</v>
+        <v>0.2234589636034769</v>
       </c>
       <c r="N25">
-        <v>1.938414318041097</v>
+        <v>0.9307042666529703</v>
       </c>
       <c r="O25">
-        <v>2.774971620630737</v>
+        <v>1.296498844817791</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6742084052281427</v>
+        <v>0.5832444770456675</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.11037948318274</v>
+        <v>0.0237846035724445</v>
       </c>
       <c r="E2">
-        <v>0.08734930025501697</v>
+        <v>0.04930529229576086</v>
       </c>
       <c r="F2">
-        <v>0.5669199366290698</v>
+        <v>1.259864744686112</v>
       </c>
       <c r="G2">
-        <v>0.3275642388004414</v>
+        <v>1.040996988194365</v>
       </c>
       <c r="H2">
-        <v>0.295888461497249</v>
+        <v>0.02443064956485974</v>
       </c>
       <c r="I2">
-        <v>0.4071746382766737</v>
+        <v>0.0420731976804829</v>
       </c>
       <c r="J2">
-        <v>0.1207299623426845</v>
+        <v>0.7211097352204519</v>
       </c>
       <c r="K2">
-        <v>1.040969748259272</v>
+        <v>0.7610226799249062</v>
       </c>
       <c r="L2">
-        <v>0.2013805852557482</v>
+        <v>0.09765082639890998</v>
       </c>
       <c r="M2">
-        <v>0.1897575795756339</v>
+        <v>1.321622358130867</v>
       </c>
       <c r="N2">
-        <v>0.977233099649407</v>
+        <v>0.2664560180916027</v>
       </c>
       <c r="O2">
-        <v>1.261910709785568</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.1963475516158191</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5942897291126883</v>
+        <v>0.5095708073256731</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1064593696841172</v>
+        <v>0.02196627012923003</v>
       </c>
       <c r="E3">
-        <v>0.08887871774367095</v>
+        <v>0.04637422673833935</v>
       </c>
       <c r="F3">
-        <v>0.5564265398889887</v>
+        <v>1.209444803916938</v>
       </c>
       <c r="G3">
-        <v>0.3183351178103209</v>
+        <v>0.9913428686572843</v>
       </c>
       <c r="H3">
-        <v>0.2963073353200372</v>
+        <v>0.02909799898108834</v>
       </c>
       <c r="I3">
-        <v>0.4197146001772722</v>
+        <v>0.04713768032010224</v>
       </c>
       <c r="J3">
-        <v>0.1228854426554467</v>
+        <v>0.7032638889199774</v>
       </c>
       <c r="K3">
-        <v>0.9142818891962463</v>
+        <v>0.7550246843319606</v>
       </c>
       <c r="L3">
-        <v>0.1769188172236795</v>
+        <v>0.0916255476214598</v>
       </c>
       <c r="M3">
-        <v>0.1670416328383766</v>
+        <v>1.149746349866689</v>
       </c>
       <c r="N3">
-        <v>1.010729897621868</v>
+        <v>0.2339477535069534</v>
       </c>
       <c r="O3">
-        <v>1.242919000581438</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1719171837812397</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5453956241857156</v>
+        <v>0.4640519120440416</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.104144216625329</v>
+        <v>0.02086117625413486</v>
       </c>
       <c r="E4">
-        <v>0.08988675188443551</v>
+        <v>0.04457139670581167</v>
       </c>
       <c r="F4">
-        <v>0.550818549671952</v>
+        <v>1.179050640185039</v>
       </c>
       <c r="G4">
-        <v>0.313263550849733</v>
+        <v>0.9614438900172217</v>
       </c>
       <c r="H4">
-        <v>0.2969529081235294</v>
+        <v>0.03227554615538608</v>
       </c>
       <c r="I4">
-        <v>0.427992325762343</v>
+        <v>0.05054052099779582</v>
       </c>
       <c r="J4">
-        <v>0.1242716405102255</v>
+        <v>0.6926925365365122</v>
       </c>
       <c r="K4">
-        <v>0.8363382660618583</v>
+        <v>0.7513019572709467</v>
       </c>
       <c r="L4">
-        <v>0.1619566959341583</v>
+        <v>0.08791584602212943</v>
       </c>
       <c r="M4">
-        <v>0.1531449787899533</v>
+        <v>1.044830764511403</v>
       </c>
       <c r="N4">
-        <v>1.032238199709013</v>
+        <v>0.2142635368787182</v>
       </c>
       <c r="O4">
-        <v>1.233324621816848</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1569476482164411</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5255109968630336</v>
+        <v>0.4448034625918069</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1032233865394829</v>
+        <v>0.02041619807470774</v>
       </c>
       <c r="E5">
-        <v>0.09031473280677016</v>
+        <v>0.04382582525235079</v>
       </c>
       <c r="F5">
-        <v>0.5487364847490426</v>
+        <v>1.165502604644786</v>
       </c>
       <c r="G5">
-        <v>0.3113405412210071</v>
+        <v>0.9481352009057531</v>
       </c>
       <c r="H5">
-        <v>0.2973110624807376</v>
+        <v>0.03365449462447256</v>
       </c>
       <c r="I5">
-        <v>0.431507996894867</v>
+        <v>0.05211175692456527</v>
       </c>
       <c r="J5">
-        <v>0.1248522519416877</v>
+        <v>0.6878256501983628</v>
       </c>
       <c r="K5">
-        <v>0.8045307845411571</v>
+        <v>0.7487481256636528</v>
       </c>
       <c r="L5">
-        <v>0.1558723322236517</v>
+        <v>0.0864164815304953</v>
       </c>
       <c r="M5">
-        <v>0.1474934998290109</v>
+        <v>1.003272963856347</v>
       </c>
       <c r="N5">
-        <v>1.041235634730494</v>
+        <v>0.2067901279819608</v>
       </c>
       <c r="O5">
-        <v>1.229916442376165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1508946540995026</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5222114736343428</v>
+        <v>0.4408356204614989</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.103071835714573</v>
+        <v>0.02034635735741652</v>
       </c>
       <c r="E6">
-        <v>0.09038683337201636</v>
+        <v>0.04369126481414876</v>
       </c>
       <c r="F6">
-        <v>0.548402842534685</v>
+        <v>1.161677675429644</v>
       </c>
       <c r="G6">
-        <v>0.3110297359156036</v>
+        <v>0.9443909505990007</v>
       </c>
       <c r="H6">
-        <v>0.297376202641729</v>
+        <v>0.03389802259997499</v>
       </c>
       <c r="I6">
-        <v>0.4321002895683996</v>
+        <v>0.05252171795482319</v>
       </c>
       <c r="J6">
-        <v>0.1249496103787422</v>
+        <v>0.6862268579899222</v>
       </c>
       <c r="K6">
-        <v>0.7992463175164204</v>
+        <v>0.7470712098170758</v>
       </c>
       <c r="L6">
-        <v>0.1548627563984581</v>
+        <v>0.08618887092732308</v>
       </c>
       <c r="M6">
-        <v>0.1465557347835826</v>
+        <v>0.9976797511561415</v>
       </c>
       <c r="N6">
-        <v>1.042743587206015</v>
+        <v>0.2061458722691611</v>
       </c>
       <c r="O6">
-        <v>1.229380298160891</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1499401061008356</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5451272961268785</v>
+        <v>0.4616896205069168</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.104131707039322</v>
+        <v>0.02086594559059129</v>
       </c>
       <c r="E7">
-        <v>0.08989245433303061</v>
+        <v>0.04453266656532895</v>
       </c>
       <c r="F7">
-        <v>0.5507896560232908</v>
+        <v>1.174547547633772</v>
       </c>
       <c r="G7">
-        <v>0.3132370423589634</v>
+        <v>0.9570538786788205</v>
       </c>
       <c r="H7">
-        <v>0.296957356687841</v>
+        <v>0.03232003459379507</v>
       </c>
       <c r="I7">
-        <v>0.4280391664550738</v>
+        <v>0.05093777820726331</v>
       </c>
       <c r="J7">
-        <v>0.1242794072326516</v>
+        <v>0.6904559141594575</v>
       </c>
       <c r="K7">
-        <v>0.8359094876416862</v>
+        <v>0.7478516148936478</v>
       </c>
       <c r="L7">
-        <v>0.161874590266109</v>
+        <v>0.08795566881067884</v>
       </c>
       <c r="M7">
-        <v>0.1530687160086899</v>
+        <v>1.047826744631209</v>
       </c>
       <c r="N7">
-        <v>1.032358605569463</v>
+        <v>0.2157837213335512</v>
       </c>
       <c r="O7">
-        <v>1.233276650265026</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1570031889783827</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6466132345237554</v>
+        <v>0.5550892273362535</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1090084804762981</v>
+        <v>0.02316921619753209</v>
       </c>
       <c r="E8">
-        <v>0.08786224234353135</v>
+        <v>0.04825840315564878</v>
       </c>
       <c r="F8">
-        <v>0.5631243746571073</v>
+        <v>1.236664573399096</v>
       </c>
       <c r="G8">
-        <v>0.3242548512619265</v>
+        <v>1.018194915727179</v>
       </c>
       <c r="H8">
-        <v>0.2959506923885726</v>
+        <v>0.02600284798663843</v>
       </c>
       <c r="I8">
-        <v>0.4113766225690849</v>
+        <v>0.04420974907125785</v>
       </c>
       <c r="J8">
-        <v>0.1214601245107589</v>
+        <v>0.7120202693472351</v>
       </c>
       <c r="K8">
-        <v>0.9973169259803001</v>
+        <v>0.7544765535392948</v>
       </c>
       <c r="L8">
-        <v>0.1929332148920508</v>
+        <v>0.09565920910946168</v>
       </c>
       <c r="M8">
-        <v>0.1819137140279139</v>
+        <v>1.266960273795291</v>
       </c>
       <c r="N8">
-        <v>0.9885849981209773</v>
+        <v>0.2573450749113562</v>
       </c>
       <c r="O8">
-        <v>1.254922346269325</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.1880983736876551</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8472355752047349</v>
+        <v>0.7398647797968749</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.119323124021868</v>
+        <v>0.02779193956617121</v>
       </c>
       <c r="E9">
-        <v>0.08443480210514487</v>
+        <v>0.05564925727254111</v>
       </c>
       <c r="F9">
-        <v>0.5942559796461566</v>
+        <v>1.371067641113925</v>
       </c>
       <c r="G9">
-        <v>0.3508645580592002</v>
+        <v>1.150788279587061</v>
       </c>
       <c r="H9">
-        <v>0.2971802270522801</v>
+        <v>0.0161730298125119</v>
       </c>
       <c r="I9">
-        <v>0.3834254565681086</v>
+        <v>0.03285136784459564</v>
       </c>
       <c r="J9">
-        <v>0.1164313234194054</v>
+        <v>0.7614498163755314</v>
       </c>
       <c r="K9">
-        <v>1.31286672973809</v>
+        <v>0.7732183590008432</v>
       </c>
       <c r="L9">
-        <v>0.2543761741967074</v>
+        <v>0.1106745080613454</v>
       </c>
       <c r="M9">
-        <v>0.2389486513239092</v>
+        <v>1.69610778420261</v>
       </c>
       <c r="N9">
-        <v>0.9103989051202142</v>
+        <v>0.3383452036082275</v>
       </c>
       <c r="O9">
-        <v>1.314619910957859</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2491514236183683</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9959347257993727</v>
+        <v>0.87079918937809</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1273931380941065</v>
+        <v>0.03100608801918625</v>
       </c>
       <c r="E10">
-        <v>0.08226361974611862</v>
+        <v>0.06113593780055493</v>
       </c>
       <c r="F10">
-        <v>0.6218245838845675</v>
+        <v>1.448236049808926</v>
       </c>
       <c r="G10">
-        <v>0.3738757263575252</v>
+        <v>1.228922763639716</v>
       </c>
       <c r="H10">
-        <v>0.3002142917508053</v>
+        <v>0.01113746358291312</v>
       </c>
       <c r="I10">
-        <v>0.3659654765421578</v>
+        <v>0.02642128557868251</v>
       </c>
       <c r="J10">
-        <v>0.1130442336084352</v>
+        <v>0.7883564189664014</v>
       </c>
       <c r="K10">
-        <v>1.544536268630424</v>
+        <v>0.7726519363495115</v>
       </c>
       <c r="L10">
-        <v>0.2999684501828597</v>
+        <v>0.1229374794659961</v>
       </c>
       <c r="M10">
-        <v>0.2812379586947955</v>
+        <v>2.025231163099193</v>
       </c>
       <c r="N10">
-        <v>0.857887492244874</v>
+        <v>0.3924269257313995</v>
       </c>
       <c r="O10">
-        <v>1.370239320916028</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.2912719699519783</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.063940468172461</v>
+        <v>0.9044869268592777</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1311790437766689</v>
+        <v>0.02994666548744895</v>
       </c>
       <c r="E11">
-        <v>0.08135336302205776</v>
+        <v>0.06611165881393966</v>
       </c>
       <c r="F11">
-        <v>0.6354937512776644</v>
+        <v>1.283766104199785</v>
       </c>
       <c r="G11">
-        <v>0.385191289352548</v>
+        <v>1.081350619343056</v>
       </c>
       <c r="H11">
-        <v>0.3020987021558028</v>
+        <v>0.02932882971814266</v>
       </c>
       <c r="I11">
-        <v>0.3587354418424553</v>
+        <v>0.0255270893446129</v>
       </c>
       <c r="J11">
-        <v>0.1115708058413283</v>
+        <v>0.7078541112024936</v>
       </c>
       <c r="K11">
-        <v>1.649995092454105</v>
+        <v>0.666988056288325</v>
       </c>
       <c r="L11">
-        <v>0.3208363831503078</v>
+        <v>0.1450495095933491</v>
       </c>
       <c r="M11">
-        <v>0.3005836933368116</v>
+        <v>2.245877824283838</v>
       </c>
       <c r="N11">
-        <v>0.8351311289897971</v>
+        <v>0.3517143960082194</v>
       </c>
       <c r="O11">
-        <v>1.398385323240888</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2837256593536424</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.089750867657841</v>
+        <v>0.9082810676802637</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1326298426107329</v>
+        <v>0.02857210064312454</v>
       </c>
       <c r="E12">
-        <v>0.08101999367920687</v>
+        <v>0.07284667421065194</v>
       </c>
       <c r="F12">
-        <v>0.6408415376428138</v>
+        <v>1.142708417808947</v>
       </c>
       <c r="G12">
-        <v>0.3896064765881135</v>
+        <v>0.9534954685913277</v>
       </c>
       <c r="H12">
-        <v>0.3028884326145089</v>
+        <v>0.06820765218864011</v>
       </c>
       <c r="I12">
-        <v>0.356104061192255</v>
+        <v>0.02536034511090701</v>
       </c>
       <c r="J12">
-        <v>0.1110226093331512</v>
+        <v>0.6406197653546286</v>
       </c>
       <c r="K12">
-        <v>1.689948450360589</v>
+        <v>0.5928758564249748</v>
       </c>
       <c r="L12">
-        <v>0.3287593816355923</v>
+        <v>0.1705221980660241</v>
       </c>
       <c r="M12">
-        <v>0.3079269492188459</v>
+        <v>2.359604759750169</v>
       </c>
       <c r="N12">
-        <v>0.8266820792186031</v>
+        <v>0.3056878280757189</v>
       </c>
       <c r="O12">
-        <v>1.409477943081583</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2682567678251928</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.084189451467921</v>
+        <v>0.8858926421433466</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1323166133302252</v>
+        <v>0.02687562781049557</v>
       </c>
       <c r="E13">
-        <v>0.0810912839105784</v>
+        <v>0.08111198763143257</v>
       </c>
       <c r="F13">
-        <v>0.6396820111847674</v>
+        <v>1.004782478804657</v>
       </c>
       <c r="G13">
-        <v>0.388649657317174</v>
+        <v>0.8267677729393483</v>
       </c>
       <c r="H13">
-        <v>0.3027149032538432</v>
+        <v>0.124697484970568</v>
       </c>
       <c r="I13">
-        <v>0.3566659746550371</v>
+        <v>0.02623879340604507</v>
       </c>
       <c r="J13">
-        <v>0.111140238093828</v>
+        <v>0.5762239843565737</v>
       </c>
       <c r="K13">
-        <v>1.681342825981517</v>
+        <v>0.5332495021710528</v>
       </c>
       <c r="L13">
-        <v>0.3270520588932726</v>
+        <v>0.1996829062662187</v>
       </c>
       <c r="M13">
-        <v>0.3063446402569099</v>
+        <v>2.401984858218157</v>
       </c>
       <c r="N13">
-        <v>0.8284941561923134</v>
+        <v>0.2557857884737729</v>
       </c>
       <c r="O13">
-        <v>1.407069213301099</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2461318930930609</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.066062704691433</v>
+        <v>0.8577942257343807</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1312980541607871</v>
+        <v>0.02558406297098514</v>
       </c>
       <c r="E14">
-        <v>0.08132570842826503</v>
+        <v>0.08802575276079594</v>
       </c>
       <c r="F14">
-        <v>0.6359302229853512</v>
+        <v>0.9103886890769743</v>
       </c>
       <c r="G14">
-        <v>0.3855518700698326</v>
+        <v>0.7391781504363308</v>
       </c>
       <c r="H14">
-        <v>0.3021621260977412</v>
+        <v>0.1747963802255441</v>
       </c>
       <c r="I14">
-        <v>0.3585167989850468</v>
+        <v>0.02744703272296256</v>
       </c>
       <c r="J14">
-        <v>0.1115255093951477</v>
+        <v>0.5326546796885481</v>
       </c>
       <c r="K14">
-        <v>1.653281661938962</v>
+        <v>0.4988963033767568</v>
       </c>
       <c r="L14">
-        <v>0.3214877825953977</v>
+        <v>0.2228949158959992</v>
       </c>
       <c r="M14">
-        <v>0.3011874664752625</v>
+        <v>2.400526575098837</v>
       </c>
       <c r="N14">
-        <v>0.8344326146618926</v>
+        <v>0.2201866298806578</v>
       </c>
       <c r="O14">
-        <v>1.399289064894049</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2278415994021614</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.054967302130223</v>
+        <v>0.8446109550832546</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1306764115867622</v>
+        <v>0.02517816207579315</v>
       </c>
       <c r="E15">
-        <v>0.08147078089727966</v>
+        <v>0.08960313766931449</v>
       </c>
       <c r="F15">
-        <v>0.633654774049198</v>
+        <v>0.8860559325840285</v>
       </c>
       <c r="G15">
-        <v>0.3836716009481478</v>
+        <v>0.7161739728899761</v>
       </c>
       <c r="H15">
-        <v>0.3018335620781158</v>
+        <v>0.1876811772456932</v>
       </c>
       <c r="I15">
-        <v>0.3596644709271288</v>
+        <v>0.02814260091294685</v>
       </c>
       <c r="J15">
-        <v>0.1117627721832903</v>
+        <v>0.5216942057304834</v>
       </c>
       <c r="K15">
-        <v>1.636096035420422</v>
+        <v>0.4917313775345651</v>
       </c>
       <c r="L15">
-        <v>0.3180822805174586</v>
+        <v>0.2282708539339637</v>
       </c>
       <c r="M15">
-        <v>0.2980308789830062</v>
+        <v>2.386043967119207</v>
       </c>
       <c r="N15">
-        <v>0.8380921795946321</v>
+        <v>0.210943880531886</v>
       </c>
       <c r="O15">
-        <v>1.394580838599751</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2220573724985044</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9914981814613668</v>
+        <v>0.7920050751656618</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1271480853241158</v>
+        <v>0.02414188257038941</v>
       </c>
       <c r="E16">
-        <v>0.08232468134565529</v>
+        <v>0.08522752575196257</v>
       </c>
       <c r="F16">
-        <v>0.6209547595128058</v>
+        <v>0.8799134428308051</v>
       </c>
       <c r="G16">
-        <v>0.3731539869976785</v>
+        <v>0.7070976480215023</v>
       </c>
       <c r="H16">
-        <v>0.3001015935570734</v>
+        <v>0.1770446414551969</v>
       </c>
       <c r="I16">
-        <v>0.366452653663444</v>
+        <v>0.03088743612381339</v>
       </c>
       <c r="J16">
-        <v>0.1131418872706123</v>
+        <v>0.5222723889156953</v>
       </c>
       <c r="K16">
-        <v>1.537646402982091</v>
+        <v>0.5025211930712885</v>
       </c>
       <c r="L16">
-        <v>0.2986074538140286</v>
+        <v>0.2161258674726128</v>
       </c>
       <c r="M16">
-        <v>0.279976004693097</v>
+        <v>2.235136440533182</v>
       </c>
       <c r="N16">
-        <v>0.8593979124131224</v>
+        <v>0.1999901838910745</v>
       </c>
       <c r="O16">
-        <v>1.36845928281835</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2091126716699456</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9526587969382092</v>
+        <v>0.7665075444191132</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1250134297365548</v>
+        <v>0.02401546707888436</v>
       </c>
       <c r="E17">
-        <v>0.08286848583010897</v>
+        <v>0.07794096301626929</v>
       </c>
       <c r="F17">
-        <v>0.6134591365381183</v>
+        <v>0.9243337605446058</v>
       </c>
       <c r="G17">
-        <v>0.3669246661614523</v>
+        <v>0.7457744124480143</v>
       </c>
       <c r="H17">
-        <v>0.2991707519815918</v>
+        <v>0.140517096287283</v>
       </c>
       <c r="I17">
-        <v>0.3708022873878676</v>
+        <v>0.03239813717890083</v>
       </c>
       <c r="J17">
-        <v>0.1140052351832717</v>
+        <v>0.5455015443532858</v>
       </c>
       <c r="K17">
-        <v>1.477274598338937</v>
+        <v>0.5280472092372257</v>
       </c>
       <c r="L17">
-        <v>0.2866946588525821</v>
+        <v>0.1938494869680127</v>
       </c>
       <c r="M17">
-        <v>0.2689289299317146</v>
+        <v>2.120815254829438</v>
       </c>
       <c r="N17">
-        <v>0.8727619540991611</v>
+        <v>0.2101544395456045</v>
       </c>
       <c r="O17">
-        <v>1.353180656924366</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2088021627904375</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9303530744611521</v>
+        <v>0.763029687930981</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.123796398651379</v>
+        <v>0.02475556510716181</v>
       </c>
       <c r="E18">
-        <v>0.08318854348142946</v>
+        <v>0.06891640879476668</v>
       </c>
       <c r="F18">
-        <v>0.6092534427285301</v>
+        <v>1.024283446860842</v>
       </c>
       <c r="G18">
-        <v>0.3634209862758979</v>
+        <v>0.836418362446409</v>
       </c>
       <c r="H18">
-        <v>0.298682584290205</v>
+        <v>0.08803908585447573</v>
       </c>
       <c r="I18">
-        <v>0.3733709037949211</v>
+        <v>0.03251307390174585</v>
       </c>
       <c r="J18">
-        <v>0.11450814747732</v>
+        <v>0.5940269715765965</v>
       </c>
       <c r="K18">
-        <v>1.442556512188105</v>
+        <v>0.5758821344388956</v>
       </c>
       <c r="L18">
-        <v>0.2798546093028023</v>
+        <v>0.1642828629646971</v>
       </c>
       <c r="M18">
-        <v>0.2625850006233783</v>
+        <v>2.022313163542577</v>
       </c>
       <c r="N18">
-        <v>0.8805547327893386</v>
+        <v>0.2399304964773279</v>
       </c>
       <c r="O18">
-        <v>1.344658932190185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.2193246567932263</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9228063426347148</v>
+        <v>0.7733666221051863</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1233861627342208</v>
+        <v>0.02633678490576941</v>
       </c>
       <c r="E19">
-        <v>0.08329815340148006</v>
+        <v>0.06189595299069239</v>
       </c>
       <c r="F19">
-        <v>0.6078473254139496</v>
+        <v>1.162359489731728</v>
       </c>
       <c r="G19">
-        <v>0.3622480670502313</v>
+        <v>0.9624923117089708</v>
       </c>
       <c r="H19">
-        <v>0.2985253028447232</v>
+        <v>0.04205310463339629</v>
       </c>
       <c r="I19">
-        <v>0.3742519509948856</v>
+        <v>0.03209426878161281</v>
       </c>
       <c r="J19">
-        <v>0.1146795113151544</v>
+        <v>0.6591664753225217</v>
       </c>
       <c r="K19">
-        <v>1.430802386828674</v>
+        <v>0.6419223542699086</v>
       </c>
       <c r="L19">
-        <v>0.2775406552232624</v>
+        <v>0.1383783369786791</v>
       </c>
       <c r="M19">
-        <v>0.2604387263093386</v>
+        <v>1.952321611235305</v>
       </c>
       <c r="N19">
-        <v>0.8832112963350625</v>
+        <v>0.288285633614592</v>
       </c>
       <c r="O19">
-        <v>1.341818583403182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2383606838408525</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9567897887214087</v>
+        <v>0.8296587938773428</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1252395485980102</v>
+        <v>0.03017191773437489</v>
       </c>
       <c r="E20">
-        <v>0.08280984254540247</v>
+        <v>0.05961817553194004</v>
       </c>
       <c r="F20">
-        <v>0.6142460640471796</v>
+        <v>1.413550190664921</v>
       </c>
       <c r="G20">
-        <v>0.3675795259033663</v>
+        <v>1.194346094195723</v>
       </c>
       <c r="H20">
-        <v>0.2992649280304391</v>
+        <v>0.01237627542783626</v>
       </c>
       <c r="I20">
-        <v>0.3703323172107744</v>
+        <v>0.02905766634037654</v>
       </c>
       <c r="J20">
-        <v>0.1139126739299945</v>
+        <v>0.7740906523955005</v>
       </c>
       <c r="K20">
-        <v>1.483700583239454</v>
+        <v>0.7620704031210366</v>
       </c>
       <c r="L20">
-        <v>0.2879615503580197</v>
+        <v>0.1200119572407718</v>
       </c>
       <c r="M20">
-        <v>0.2701038557659174</v>
+        <v>1.950092856736319</v>
       </c>
       <c r="N20">
-        <v>0.8713283047245284</v>
+        <v>0.3829150948818665</v>
       </c>
       <c r="O20">
-        <v>1.354779369715374</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2804916201021541</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.071385342472297</v>
+        <v>0.9350462777581754</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1315967586773823</v>
+        <v>0.03318145763254066</v>
       </c>
       <c r="E21">
-        <v>0.08125654333904375</v>
+        <v>0.06397244941817015</v>
       </c>
       <c r="F21">
-        <v>0.6370274807095626</v>
+        <v>1.512673357749861</v>
       </c>
       <c r="G21">
-        <v>0.3864581621457859</v>
+        <v>1.291301926231682</v>
       </c>
       <c r="H21">
-        <v>0.3023223935411465</v>
+        <v>0.008467682775319979</v>
       </c>
       <c r="I21">
-        <v>0.3579702443799881</v>
+        <v>0.02417802884130982</v>
       </c>
       <c r="J21">
-        <v>0.1114120804551373</v>
+        <v>0.813579661157803</v>
       </c>
       <c r="K21">
-        <v>1.661523339091588</v>
+        <v>0.7831778562228919</v>
       </c>
       <c r="L21">
-        <v>0.3231215620434966</v>
+        <v>0.1278757995051034</v>
       </c>
       <c r="M21">
-        <v>0.3027017642254393</v>
+        <v>2.191343089977266</v>
       </c>
       <c r="N21">
-        <v>0.8326837320115708</v>
+        <v>0.4364881107619567</v>
       </c>
       <c r="O21">
-        <v>1.401562286443522</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3176640642581603</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.146621908543949</v>
+        <v>1.0052800636293</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1358518999648197</v>
+        <v>0.03501380047883984</v>
       </c>
       <c r="E22">
-        <v>0.08030747858890575</v>
+        <v>0.06688188147045016</v>
       </c>
       <c r="F22">
-        <v>0.6529212020852313</v>
+        <v>1.572103085891285</v>
       </c>
       <c r="G22">
-        <v>0.399559725827288</v>
+        <v>1.350273223255073</v>
       </c>
       <c r="H22">
-        <v>0.3047662967582312</v>
+        <v>0.006485182837774606</v>
       </c>
       <c r="I22">
-        <v>0.3505135427101429</v>
+        <v>0.02099192558664864</v>
       </c>
       <c r="J22">
-        <v>0.109834713568377</v>
+        <v>0.8372248848008326</v>
       </c>
       <c r="K22">
-        <v>1.777852183544098</v>
+        <v>0.7948783264093962</v>
       </c>
       <c r="L22">
-        <v>0.3462229192689392</v>
+        <v>0.1335327100907495</v>
       </c>
       <c r="M22">
-        <v>0.3241090377439804</v>
+        <v>2.349257682910405</v>
       </c>
       <c r="N22">
-        <v>0.8084110053466631</v>
+        <v>0.4656613221000612</v>
       </c>
       <c r="O22">
-        <v>1.434682073578045</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3402935710718893</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.106433360498301</v>
+        <v>0.9703745714887191</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1335714475520575</v>
+        <v>0.03401807749231978</v>
       </c>
       <c r="E23">
-        <v>0.08080789825047141</v>
+        <v>0.06535004656238219</v>
       </c>
       <c r="F23">
-        <v>0.6443432646001455</v>
+        <v>1.545298037917419</v>
       </c>
       <c r="G23">
-        <v>0.3924944569188398</v>
+        <v>1.323584978033352</v>
       </c>
       <c r="H23">
-        <v>0.303419902740373</v>
+        <v>0.007495667826801944</v>
       </c>
       <c r="I23">
-        <v>0.3544349794265784</v>
+        <v>0.02227156302300415</v>
       </c>
       <c r="J23">
-        <v>0.1106713522059231</v>
+        <v>0.8270398219699757</v>
       </c>
       <c r="K23">
-        <v>1.715752251853161</v>
+        <v>0.7925090259871013</v>
       </c>
       <c r="L23">
-        <v>0.333881273020836</v>
+        <v>0.1304095430973149</v>
       </c>
       <c r="M23">
-        <v>0.3126735214180911</v>
+        <v>2.260525487688113</v>
       </c>
       <c r="N23">
-        <v>0.8212738781524287</v>
+        <v>0.4480798391120544</v>
       </c>
       <c r="O23">
-        <v>1.416763864731621</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3280439616271948</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9549220944165882</v>
+        <v>0.8338311036209518</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1251372885049733</v>
+        <v>0.03035487047074881</v>
       </c>
       <c r="E24">
-        <v>0.0828363320858676</v>
+        <v>0.05961490843972284</v>
       </c>
       <c r="F24">
-        <v>0.6138899720074491</v>
+        <v>1.437861961482014</v>
       </c>
       <c r="G24">
-        <v>0.3672832226089042</v>
+        <v>1.216986106240014</v>
       </c>
       <c r="H24">
-        <v>0.2992222049623763</v>
+        <v>0.01210251694291112</v>
       </c>
       <c r="I24">
-        <v>0.3705445793670172</v>
+        <v>0.02837540844259134</v>
       </c>
       <c r="J24">
-        <v>0.1139545004384761</v>
+        <v>0.7857407517629582</v>
       </c>
       <c r="K24">
-        <v>1.480795425763716</v>
+        <v>0.7775318845268444</v>
       </c>
       <c r="L24">
-        <v>0.2873887615554764</v>
+        <v>0.1189027759676797</v>
       </c>
       <c r="M24">
-        <v>0.2695726495708222</v>
+        <v>1.933966020130129</v>
       </c>
       <c r="N24">
-        <v>0.8719761166073532</v>
+        <v>0.3854353950514877</v>
       </c>
       <c r="O24">
-        <v>1.354055776987991</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.2820975472831577</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7927575935832465</v>
+        <v>0.6862235081372603</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1164489060569096</v>
+        <v>0.02654266078226186</v>
       </c>
       <c r="E25">
-        <v>0.08530178444675141</v>
+        <v>0.05359176699646628</v>
       </c>
       <c r="F25">
-        <v>0.585044268703264</v>
+        <v>1.3263911009997</v>
       </c>
       <c r="G25">
-        <v>0.3430891083143024</v>
+        <v>1.106742184245675</v>
       </c>
       <c r="H25">
-        <v>0.2964868475343039</v>
+        <v>0.01856745168778495</v>
       </c>
       <c r="I25">
-        <v>0.390461559649399</v>
+        <v>0.03626011680097108</v>
       </c>
       <c r="J25">
-        <v>0.1177379518747612</v>
+        <v>0.7438302698868142</v>
       </c>
       <c r="K25">
-        <v>1.227563565989186</v>
+        <v>0.7621333556768946</v>
       </c>
       <c r="L25">
-        <v>0.2376844839342453</v>
+        <v>0.1067243615713931</v>
       </c>
       <c r="M25">
-        <v>0.2234589636034769</v>
+        <v>1.58578424456681</v>
       </c>
       <c r="N25">
-        <v>0.9307042666529703</v>
+        <v>0.3191185851725464</v>
       </c>
       <c r="O25">
-        <v>1.296498844817791</v>
+        <v>0.2328375829688945</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5832444770456675</v>
+        <v>0.5292263939010127</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0237846035724445</v>
+        <v>0.02317800373916157</v>
       </c>
       <c r="E2">
-        <v>0.04930529229576086</v>
+        <v>0.04419183104484947</v>
       </c>
       <c r="F2">
-        <v>1.259864744686112</v>
+        <v>1.130957573961268</v>
       </c>
       <c r="G2">
-        <v>1.040996988194365</v>
+        <v>0.9134705240317516</v>
       </c>
       <c r="H2">
-        <v>0.02443064956485974</v>
+        <v>0.01943343543709874</v>
       </c>
       <c r="I2">
-        <v>0.0420731976804829</v>
+        <v>0.02967333334213595</v>
       </c>
       <c r="J2">
-        <v>0.7211097352204519</v>
+        <v>0.6668949799345967</v>
       </c>
       <c r="K2">
-        <v>0.7610226799249062</v>
+        <v>0.6170858246855353</v>
       </c>
       <c r="L2">
-        <v>0.09765082639890998</v>
+        <v>0.2342649741504772</v>
       </c>
       <c r="M2">
-        <v>1.321622358130867</v>
+        <v>0.2281177913475609</v>
       </c>
       <c r="N2">
-        <v>0.2664560180916027</v>
+        <v>0.08967701617488544</v>
       </c>
       <c r="O2">
-        <v>0.1963475516158191</v>
+        <v>1.405041239610171</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3155428838397398</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2001684886831896</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5095708073256731</v>
+        <v>0.4638484007969339</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02196627012923003</v>
+        <v>0.02145179323213853</v>
       </c>
       <c r="E3">
-        <v>0.04637422673833935</v>
+        <v>0.04147962040567199</v>
       </c>
       <c r="F3">
-        <v>1.209444803916938</v>
+        <v>1.094251759331136</v>
       </c>
       <c r="G3">
-        <v>0.9913428686572843</v>
+        <v>0.8810093867775777</v>
       </c>
       <c r="H3">
-        <v>0.02909799898108834</v>
+        <v>0.02330187511079429</v>
       </c>
       <c r="I3">
-        <v>0.04713768032010224</v>
+        <v>0.03330253424423191</v>
       </c>
       <c r="J3">
-        <v>0.7032638889199774</v>
+        <v>0.6496855452792545</v>
       </c>
       <c r="K3">
-        <v>0.7550246843319606</v>
+        <v>0.619712189690155</v>
       </c>
       <c r="L3">
-        <v>0.0916255476214598</v>
+        <v>0.238771983118891</v>
       </c>
       <c r="M3">
-        <v>1.149746349866689</v>
+        <v>0.2275489564943616</v>
       </c>
       <c r="N3">
-        <v>0.2339477535069534</v>
+        <v>0.08334371057809697</v>
       </c>
       <c r="O3">
-        <v>0.1719171837812397</v>
+        <v>1.217547892073185</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2765708143178927</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1750096765153515</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4640519120440416</v>
+        <v>0.4233210778166239</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02086117625413486</v>
+        <v>0.02040257291597136</v>
       </c>
       <c r="E4">
-        <v>0.04457139670581167</v>
+        <v>0.03981905090556026</v>
       </c>
       <c r="F4">
-        <v>1.179050640185039</v>
+        <v>1.072122841383944</v>
       </c>
       <c r="G4">
-        <v>0.9614438900172217</v>
+        <v>0.8617537839583207</v>
       </c>
       <c r="H4">
-        <v>0.03227554615538608</v>
+        <v>0.0259430493473608</v>
       </c>
       <c r="I4">
-        <v>0.05054052099779582</v>
+        <v>0.03575938145666768</v>
       </c>
       <c r="J4">
-        <v>0.6926925365365122</v>
+        <v>0.6391536683188832</v>
       </c>
       <c r="K4">
-        <v>0.7513019572709467</v>
+        <v>0.6212495778111276</v>
       </c>
       <c r="L4">
-        <v>0.08791584602212943</v>
+        <v>0.241506980785072</v>
       </c>
       <c r="M4">
-        <v>1.044830764511403</v>
+        <v>0.2276889790084535</v>
       </c>
       <c r="N4">
-        <v>0.2142635368787182</v>
+        <v>0.07947619860534161</v>
       </c>
       <c r="O4">
-        <v>0.1569476482164411</v>
+        <v>1.10314946756111</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2530256692730433</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1595889274150579</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4448034625918069</v>
+        <v>0.4061675148679171</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02041619807470774</v>
+        <v>0.01998020298465164</v>
       </c>
       <c r="E5">
-        <v>0.04382582525235079</v>
+        <v>0.03914079441961982</v>
       </c>
       <c r="F5">
-        <v>1.165502604644786</v>
+        <v>1.062106815004881</v>
       </c>
       <c r="G5">
-        <v>0.9481352009057531</v>
+        <v>0.8530103674537344</v>
       </c>
       <c r="H5">
-        <v>0.03365449462447256</v>
+        <v>0.02709066935934112</v>
       </c>
       <c r="I5">
-        <v>0.05211175692456527</v>
+        <v>0.03693658584067716</v>
       </c>
       <c r="J5">
-        <v>0.6878256501983628</v>
+        <v>0.6343068402500904</v>
       </c>
       <c r="K5">
-        <v>0.7487481256636528</v>
+        <v>0.6210694870655509</v>
       </c>
       <c r="L5">
-        <v>0.0864164815304953</v>
+        <v>0.2422477125128744</v>
       </c>
       <c r="M5">
-        <v>1.003272963856347</v>
+        <v>0.2276471420887169</v>
       </c>
       <c r="N5">
-        <v>0.2067901279819608</v>
+        <v>0.07793866753512191</v>
       </c>
       <c r="O5">
-        <v>0.1508946540995026</v>
+        <v>1.057674594832008</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2439814929786479</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1533470815562836</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4408356204614989</v>
+        <v>0.4026514668139214</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02034635735741652</v>
+        <v>0.01991402104546047</v>
       </c>
       <c r="E6">
-        <v>0.04369126481414876</v>
+        <v>0.03902644619575524</v>
       </c>
       <c r="F6">
-        <v>1.161677675429644</v>
+        <v>1.059112956103014</v>
       </c>
       <c r="G6">
-        <v>0.9443909505990007</v>
+        <v>0.8502794195952248</v>
       </c>
       <c r="H6">
-        <v>0.03389802259997499</v>
+        <v>0.02729319165004296</v>
       </c>
       <c r="I6">
-        <v>0.05252171795482319</v>
+        <v>0.03729067592587931</v>
       </c>
       <c r="J6">
-        <v>0.6862268579899222</v>
+        <v>0.6328158239840462</v>
       </c>
       <c r="K6">
-        <v>0.7470712098170758</v>
+        <v>0.6200787083709933</v>
       </c>
       <c r="L6">
-        <v>0.08618887092732308</v>
+        <v>0.2419255250249535</v>
       </c>
       <c r="M6">
-        <v>0.9976797511561415</v>
+        <v>0.2273760517142662</v>
       </c>
       <c r="N6">
-        <v>0.2061458722691611</v>
+        <v>0.07772751219392759</v>
       </c>
       <c r="O6">
-        <v>0.1499401061008356</v>
+        <v>1.051333311061796</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.243048322705576</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1523560136356075</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4616896205069168</v>
+        <v>0.4218735289647384</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02086594559059129</v>
+        <v>0.02051068097199327</v>
       </c>
       <c r="E7">
-        <v>0.04453266656532895</v>
+        <v>0.03978613263311592</v>
       </c>
       <c r="F7">
-        <v>1.174547547633772</v>
+        <v>1.066042617500067</v>
       </c>
       <c r="G7">
-        <v>0.9570538786788205</v>
+        <v>0.8608262729091791</v>
       </c>
       <c r="H7">
-        <v>0.03232003459379507</v>
+        <v>0.02599446942339578</v>
       </c>
       <c r="I7">
-        <v>0.05093777820726331</v>
+        <v>0.03619159911011405</v>
       </c>
       <c r="J7">
-        <v>0.6904559141594575</v>
+        <v>0.6303080039319724</v>
       </c>
       <c r="K7">
-        <v>0.7478516148936478</v>
+        <v>0.6177566805934589</v>
       </c>
       <c r="L7">
-        <v>0.08795566881067884</v>
+        <v>0.2399367455528747</v>
       </c>
       <c r="M7">
-        <v>1.047826744631209</v>
+        <v>0.2266626783360817</v>
       </c>
       <c r="N7">
-        <v>0.2157837213335512</v>
+        <v>0.07952688161179111</v>
       </c>
       <c r="O7">
-        <v>0.1570031889783827</v>
+        <v>1.104603803156834</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2541158636021947</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1596433280445311</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5550892273362535</v>
+        <v>0.5063409504954848</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02316921619753209</v>
+        <v>0.02294275579977878</v>
       </c>
       <c r="E8">
-        <v>0.04825840315564878</v>
+        <v>0.04318583799866049</v>
       </c>
       <c r="F8">
-        <v>1.236664573399096</v>
+        <v>1.105853604804061</v>
       </c>
       <c r="G8">
-        <v>1.018194915727179</v>
+        <v>0.9065914384987508</v>
       </c>
       <c r="H8">
-        <v>0.02600284798663843</v>
+        <v>0.02077575658498232</v>
       </c>
       <c r="I8">
-        <v>0.04420974907125785</v>
+        <v>0.03140239636599329</v>
       </c>
       <c r="J8">
-        <v>0.7120202693472351</v>
+        <v>0.6358778455653038</v>
       </c>
       <c r="K8">
-        <v>0.7544765535392948</v>
+        <v>0.6117920092650238</v>
       </c>
       <c r="L8">
-        <v>0.09565920910946168</v>
+        <v>0.2332083207146667</v>
       </c>
       <c r="M8">
-        <v>1.266960273795291</v>
+        <v>0.2257965345290387</v>
       </c>
       <c r="N8">
-        <v>0.2573450749113562</v>
+        <v>0.0874927548778448</v>
       </c>
       <c r="O8">
-        <v>0.1880983736876551</v>
+        <v>1.340513842070635</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3029715892272264</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1917004261883548</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7398647797968749</v>
+        <v>0.6700654574141254</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02779193956617121</v>
+        <v>0.02742800657457067</v>
       </c>
       <c r="E9">
-        <v>0.05564925727254111</v>
+        <v>0.05001834611646583</v>
       </c>
       <c r="F9">
-        <v>1.371067641113925</v>
+        <v>1.202311818820547</v>
       </c>
       <c r="G9">
-        <v>1.150788279587061</v>
+        <v>0.998633598205231</v>
       </c>
       <c r="H9">
-        <v>0.0161730298125119</v>
+        <v>0.01267076353737184</v>
       </c>
       <c r="I9">
-        <v>0.03285136784459564</v>
+        <v>0.02321763419890566</v>
       </c>
       <c r="J9">
-        <v>0.7614498163755314</v>
+        <v>0.675076724795133</v>
       </c>
       <c r="K9">
-        <v>0.7732183590008432</v>
+        <v>0.6072339318016731</v>
       </c>
       <c r="L9">
-        <v>0.1106745080613454</v>
+        <v>0.223085465502816</v>
       </c>
       <c r="M9">
-        <v>1.69610778420261</v>
+        <v>0.230418287380509</v>
       </c>
       <c r="N9">
-        <v>0.3383452036082275</v>
+        <v>0.1033293162627267</v>
       </c>
       <c r="O9">
-        <v>0.2491514236183683</v>
+        <v>1.80820869223399</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4004682271964697</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2545676853097945</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.87079918937809</v>
+        <v>0.7903490363553942</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03100608801918625</v>
+        <v>0.03114359639939579</v>
       </c>
       <c r="E10">
-        <v>0.06113593780055493</v>
+        <v>0.05525989132867037</v>
       </c>
       <c r="F10">
-        <v>1.448236049808926</v>
+        <v>1.242799863553529</v>
       </c>
       <c r="G10">
-        <v>1.228922763639716</v>
+        <v>1.068660174167405</v>
       </c>
       <c r="H10">
-        <v>0.01113746358291312</v>
+        <v>0.008643440074741271</v>
       </c>
       <c r="I10">
-        <v>0.02642128557868251</v>
+        <v>0.01878291421541878</v>
       </c>
       <c r="J10">
-        <v>0.7883564189664014</v>
+        <v>0.6571559231117021</v>
       </c>
       <c r="K10">
-        <v>0.7726519363495115</v>
+        <v>0.5897547959634757</v>
       </c>
       <c r="L10">
-        <v>0.1229374794659961</v>
+        <v>0.2107192702033203</v>
       </c>
       <c r="M10">
-        <v>2.025231163099193</v>
+        <v>0.2306429059446771</v>
       </c>
       <c r="N10">
-        <v>0.3924269257313995</v>
+        <v>0.1167366726476828</v>
       </c>
       <c r="O10">
-        <v>0.2912719699519783</v>
+        <v>2.155913858046631</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.4631573472937163</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2979116572989753</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9044869268592777</v>
+        <v>0.8401874768888433</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02994666548744895</v>
+        <v>0.03100966413377648</v>
       </c>
       <c r="E11">
-        <v>0.06611165881393966</v>
+        <v>0.06144547911284359</v>
       </c>
       <c r="F11">
-        <v>1.283766104199785</v>
+        <v>1.08315828831428</v>
       </c>
       <c r="G11">
-        <v>1.081350619343056</v>
+        <v>0.9810016544219877</v>
       </c>
       <c r="H11">
-        <v>0.02932882971814266</v>
+        <v>0.02702070309993587</v>
       </c>
       <c r="I11">
-        <v>0.0255270893446129</v>
+        <v>0.01850909574764792</v>
       </c>
       <c r="J11">
-        <v>0.7078541112024936</v>
+        <v>0.5263297928479744</v>
       </c>
       <c r="K11">
-        <v>0.666988056288325</v>
+        <v>0.5089088844314595</v>
       </c>
       <c r="L11">
-        <v>0.1450495095933491</v>
+        <v>0.1808989695084939</v>
       </c>
       <c r="M11">
-        <v>2.245877824283838</v>
+        <v>0.2009422882332537</v>
       </c>
       <c r="N11">
-        <v>0.3517143960082194</v>
+        <v>0.1435123134043437</v>
       </c>
       <c r="O11">
-        <v>0.2837256593536424</v>
+        <v>2.348951212048604</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.406511604987557</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2897786740033368</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9082810676802637</v>
+        <v>0.8575780744873498</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02857210064312454</v>
+        <v>0.02975397998571694</v>
       </c>
       <c r="E12">
-        <v>0.07284667421065194</v>
+        <v>0.06857950102715549</v>
       </c>
       <c r="F12">
-        <v>1.142708417808947</v>
+        <v>0.9605071835841983</v>
       </c>
       <c r="G12">
-        <v>0.9534954685913277</v>
+        <v>0.8899217343186763</v>
       </c>
       <c r="H12">
-        <v>0.06820765218864011</v>
+        <v>0.06590757666817382</v>
       </c>
       <c r="I12">
-        <v>0.02536034511090701</v>
+        <v>0.01841776674414941</v>
       </c>
       <c r="J12">
-        <v>0.6406197653546286</v>
+        <v>0.4540039952526769</v>
       </c>
       <c r="K12">
-        <v>0.5928758564249748</v>
+        <v>0.4585755501350697</v>
       </c>
       <c r="L12">
-        <v>0.1705221980660241</v>
+        <v>0.1639469698581308</v>
       </c>
       <c r="M12">
-        <v>2.359604759750169</v>
+        <v>0.1806754529745724</v>
       </c>
       <c r="N12">
-        <v>0.3056878280757189</v>
+        <v>0.1712263686524764</v>
       </c>
       <c r="O12">
-        <v>0.2682567678251928</v>
+        <v>2.438858630476062</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.3477454971786216</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2735533322840311</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8858926421433466</v>
+        <v>0.8462710704077949</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02687562781049557</v>
+        <v>0.02748864909364812</v>
       </c>
       <c r="E13">
-        <v>0.08111198763143257</v>
+        <v>0.07711410919287687</v>
       </c>
       <c r="F13">
-        <v>1.004782478804657</v>
+        <v>0.8558169048461224</v>
       </c>
       <c r="G13">
-        <v>0.8267677729393483</v>
+        <v>0.780524140743438</v>
       </c>
       <c r="H13">
-        <v>0.124697484970568</v>
+        <v>0.1222456004728372</v>
       </c>
       <c r="I13">
-        <v>0.02623879340604507</v>
+        <v>0.01900728109009631</v>
       </c>
       <c r="J13">
-        <v>0.5762239843565737</v>
+        <v>0.4206616370665728</v>
       </c>
       <c r="K13">
-        <v>0.5332495021710528</v>
+        <v>0.4241576725931004</v>
       </c>
       <c r="L13">
-        <v>0.1996829062662187</v>
+        <v>0.1532206929632345</v>
       </c>
       <c r="M13">
-        <v>2.401984858218157</v>
+        <v>0.1655633630939821</v>
       </c>
       <c r="N13">
-        <v>0.2557857884737729</v>
+        <v>0.2012651989273522</v>
       </c>
       <c r="O13">
-        <v>0.2461318930930609</v>
+        <v>2.46261007161209</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.2873173829183031</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2504531921120403</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8577942257343807</v>
+        <v>0.824887674215887</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02558406297098514</v>
+        <v>0.02562655215235132</v>
       </c>
       <c r="E14">
-        <v>0.08802575276079594</v>
+        <v>0.08423179000993386</v>
       </c>
       <c r="F14">
-        <v>0.9103886890769743</v>
+        <v>0.7894581467924411</v>
       </c>
       <c r="G14">
-        <v>0.7391781504363308</v>
+        <v>0.697800105719665</v>
       </c>
       <c r="H14">
-        <v>0.1747963802255441</v>
+        <v>0.1721640635055479</v>
       </c>
       <c r="I14">
-        <v>0.02744703272296256</v>
+        <v>0.019857632823153</v>
       </c>
       <c r="J14">
-        <v>0.5326546796885481</v>
+        <v>0.4107806013983293</v>
       </c>
       <c r="K14">
-        <v>0.4988963033767568</v>
+        <v>0.4066847065083721</v>
       </c>
       <c r="L14">
-        <v>0.2228949158959992</v>
+        <v>0.1480123368552331</v>
       </c>
       <c r="M14">
-        <v>2.400526575098837</v>
+        <v>0.1574083237951793</v>
       </c>
       <c r="N14">
-        <v>0.2201866298806578</v>
+        <v>0.2243193074116618</v>
       </c>
       <c r="O14">
-        <v>0.2278415994021614</v>
+        <v>2.450269952519477</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.2453321720318513</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2313924552310738</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8446109550832546</v>
+        <v>0.8129710788232671</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02517816207579315</v>
+        <v>0.02502062646090941</v>
       </c>
       <c r="E15">
-        <v>0.08960313766931449</v>
+        <v>0.08595197579074565</v>
       </c>
       <c r="F15">
-        <v>0.8860559325840285</v>
+        <v>0.7744795264241802</v>
       </c>
       <c r="G15">
-        <v>0.7161739728899761</v>
+        <v>0.6735939744228006</v>
       </c>
       <c r="H15">
-        <v>0.1876811772456932</v>
+        <v>0.184958632610531</v>
       </c>
       <c r="I15">
-        <v>0.02814260091294685</v>
+        <v>0.02039901520567255</v>
       </c>
       <c r="J15">
-        <v>0.5216942057304834</v>
+        <v>0.4134155924653342</v>
       </c>
       <c r="K15">
-        <v>0.4917313775345651</v>
+        <v>0.4039766914890865</v>
       </c>
       <c r="L15">
-        <v>0.2282708539339637</v>
+        <v>0.147242989399281</v>
       </c>
       <c r="M15">
-        <v>2.386043967119207</v>
+        <v>0.1559816632582667</v>
       </c>
       <c r="N15">
-        <v>0.210943880531886</v>
+        <v>0.2295474528855976</v>
       </c>
       <c r="O15">
-        <v>0.2220573724985044</v>
+        <v>2.434080310609716</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.2347225357678866</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2253716861849639</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7920050751656618</v>
+        <v>0.7568474175799906</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02414188257038941</v>
+        <v>0.02343127959564484</v>
       </c>
       <c r="E16">
-        <v>0.08522752575196257</v>
+        <v>0.08253017898207915</v>
       </c>
       <c r="F16">
-        <v>0.8799134428308051</v>
+        <v>0.790218362975935</v>
       </c>
       <c r="G16">
-        <v>0.7070976480215023</v>
+        <v>0.6449921030513508</v>
       </c>
       <c r="H16">
-        <v>0.1770446414551969</v>
+        <v>0.1738474123478255</v>
       </c>
       <c r="I16">
-        <v>0.03088743612381339</v>
+        <v>0.02232487873618894</v>
       </c>
       <c r="J16">
-        <v>0.5222723889156953</v>
+        <v>0.4623432644309275</v>
       </c>
       <c r="K16">
-        <v>0.5025211930712885</v>
+        <v>0.4187295750868127</v>
       </c>
       <c r="L16">
-        <v>0.2161258674726128</v>
+        <v>0.1521688245383919</v>
       </c>
       <c r="M16">
-        <v>2.235136440533182</v>
+        <v>0.1612598113013952</v>
       </c>
       <c r="N16">
-        <v>0.1999901838910745</v>
+        <v>0.2172866385003687</v>
       </c>
       <c r="O16">
-        <v>0.2091126716699456</v>
+        <v>2.291888229214379</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.2249162569259937</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2120101255036388</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7665075444191132</v>
+        <v>0.7261680198427314</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02401546707888436</v>
+        <v>0.02315393322187376</v>
       </c>
       <c r="E17">
-        <v>0.07794096301626929</v>
+        <v>0.07559337244084929</v>
       </c>
       <c r="F17">
-        <v>0.9243337605446058</v>
+        <v>0.8358653108898224</v>
       </c>
       <c r="G17">
-        <v>0.7457744124480143</v>
+        <v>0.6685020088594484</v>
       </c>
       <c r="H17">
-        <v>0.140517096287283</v>
+        <v>0.1370523002018729</v>
       </c>
       <c r="I17">
-        <v>0.03239813717890083</v>
+        <v>0.02340155855510861</v>
       </c>
       <c r="J17">
-        <v>0.5455015443532858</v>
+        <v>0.5029943493905478</v>
       </c>
       <c r="K17">
-        <v>0.5280472092372257</v>
+        <v>0.4393347484077115</v>
       </c>
       <c r="L17">
-        <v>0.1938494869680127</v>
+        <v>0.1593075021839105</v>
       </c>
       <c r="M17">
-        <v>2.120815254829438</v>
+        <v>0.1691517746376867</v>
       </c>
       <c r="N17">
-        <v>0.2101544395456045</v>
+        <v>0.1949611255157393</v>
       </c>
       <c r="O17">
-        <v>0.2088021627904375</v>
+        <v>2.187635119844686</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.2389676787349231</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2117961840256335</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.763029687930981</v>
+        <v>0.7138967500338254</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02475556510716181</v>
+        <v>0.02387760660487714</v>
       </c>
       <c r="E18">
-        <v>0.06891640879476668</v>
+        <v>0.06640374312444841</v>
       </c>
       <c r="F18">
-        <v>1.024283446860842</v>
+        <v>0.9218291805296133</v>
       </c>
       <c r="G18">
-        <v>0.836418362446409</v>
+        <v>0.7386453905901504</v>
       </c>
       <c r="H18">
-        <v>0.08803908585447573</v>
+        <v>0.08450030498327976</v>
       </c>
       <c r="I18">
-        <v>0.03251307390174585</v>
+        <v>0.02335223645283868</v>
       </c>
       <c r="J18">
-        <v>0.5940269715765965</v>
+        <v>0.55217602101024</v>
       </c>
       <c r="K18">
-        <v>0.5758821344388956</v>
+        <v>0.4728705111586216</v>
       </c>
       <c r="L18">
-        <v>0.1642828629646971</v>
+        <v>0.1713048881214068</v>
       </c>
       <c r="M18">
-        <v>2.022313163542577</v>
+        <v>0.1820555444641112</v>
       </c>
       <c r="N18">
-        <v>0.2399304964773279</v>
+        <v>0.1649413943963296</v>
       </c>
       <c r="O18">
-        <v>0.2193246567932263</v>
+        <v>2.104467902297557</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.276603641657573</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2228698062640468</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7733666221051863</v>
+        <v>0.7131747123201535</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02633678490576941</v>
+        <v>0.02551526847543606</v>
       </c>
       <c r="E19">
-        <v>0.06189595299069239</v>
+        <v>0.05857416764241208</v>
       </c>
       <c r="F19">
-        <v>1.162359489731728</v>
+        <v>1.035137134617457</v>
       </c>
       <c r="G19">
-        <v>0.9624923117089708</v>
+        <v>0.8385642215721845</v>
       </c>
       <c r="H19">
-        <v>0.04205310463339629</v>
+        <v>0.03864210435571636</v>
       </c>
       <c r="I19">
-        <v>0.03209426878161281</v>
+        <v>0.02311603222897318</v>
       </c>
       <c r="J19">
-        <v>0.6591664753225217</v>
+        <v>0.6077592313514373</v>
       </c>
       <c r="K19">
-        <v>0.6419223542699086</v>
+        <v>0.5166838943347116</v>
       </c>
       <c r="L19">
-        <v>0.1383783369786791</v>
+        <v>0.1871444829084012</v>
       </c>
       <c r="M19">
-        <v>1.952321611235305</v>
+        <v>0.1989176202203957</v>
       </c>
       <c r="N19">
-        <v>0.288285633614592</v>
+        <v>0.1373367044079927</v>
       </c>
       <c r="O19">
-        <v>0.2383606838408525</v>
+        <v>2.05292418202103</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.3363887218442443</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2427811224451446</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8296587938773428</v>
+        <v>0.7509114596779227</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03017191773437489</v>
+        <v>0.02978531357678804</v>
       </c>
       <c r="E20">
-        <v>0.05961817553194004</v>
+        <v>0.05398979061493403</v>
       </c>
       <c r="F20">
-        <v>1.413550190664921</v>
+        <v>1.228403091462155</v>
       </c>
       <c r="G20">
-        <v>1.194346094195723</v>
+        <v>1.028592730632568</v>
       </c>
       <c r="H20">
-        <v>0.01237627542783626</v>
+        <v>0.00959929312899499</v>
       </c>
       <c r="I20">
-        <v>0.02905766634037654</v>
+        <v>0.02101548782255325</v>
       </c>
       <c r="J20">
-        <v>0.7740906523955005</v>
+        <v>0.6794119854615559</v>
       </c>
       <c r="K20">
-        <v>0.7620704031210366</v>
+        <v>0.5895688198789202</v>
       </c>
       <c r="L20">
-        <v>0.1200119572407718</v>
+        <v>0.2121943263635302</v>
       </c>
       <c r="M20">
-        <v>1.950092856736319</v>
+        <v>0.2286209502824725</v>
       </c>
       <c r="N20">
-        <v>0.3829150948818665</v>
+        <v>0.1139599120777497</v>
       </c>
       <c r="O20">
-        <v>0.2804916201021541</v>
+        <v>2.079631765444674</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.4523343968902935</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2867141596494065</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9350462777581754</v>
+        <v>0.8569642806006357</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03318145763254066</v>
+        <v>0.03546746788920174</v>
       </c>
       <c r="E21">
-        <v>0.06397244941817015</v>
+        <v>0.05736852275239013</v>
       </c>
       <c r="F21">
-        <v>1.512673357749861</v>
+        <v>1.248949154651456</v>
       </c>
       <c r="G21">
-        <v>1.291301926231682</v>
+        <v>1.167187853506363</v>
       </c>
       <c r="H21">
-        <v>0.008467682775319979</v>
+        <v>0.006539523006418635</v>
       </c>
       <c r="I21">
-        <v>0.02417802884130982</v>
+        <v>0.01771885217846325</v>
       </c>
       <c r="J21">
-        <v>0.813579661157803</v>
+        <v>0.5658898127975363</v>
       </c>
       <c r="K21">
-        <v>0.7831778562228919</v>
+        <v>0.5754529602660412</v>
       </c>
       <c r="L21">
-        <v>0.1278757995051034</v>
+        <v>0.2029586078590562</v>
       </c>
       <c r="M21">
-        <v>2.191343089977266</v>
+        <v>0.2287877860970333</v>
       </c>
       <c r="N21">
-        <v>0.4364881107619567</v>
+        <v>0.1207185680787788</v>
       </c>
       <c r="O21">
-        <v>0.3176640642581603</v>
+        <v>2.314394862441333</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.5090454513348703</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.325308552982051</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.0052800636293</v>
+        <v>0.9292269828387987</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03501380047883984</v>
+        <v>0.0394452491510755</v>
       </c>
       <c r="E22">
-        <v>0.06688188147045016</v>
+        <v>0.05976756386565008</v>
       </c>
       <c r="F22">
-        <v>1.572103085891285</v>
+        <v>1.254602511308107</v>
       </c>
       <c r="G22">
-        <v>1.350273223255073</v>
+        <v>1.262379847522908</v>
       </c>
       <c r="H22">
-        <v>0.006485182837774606</v>
+        <v>0.005008694887597254</v>
       </c>
       <c r="I22">
-        <v>0.02099192558664864</v>
+        <v>0.01539487826788921</v>
       </c>
       <c r="J22">
-        <v>0.8372248848008326</v>
+        <v>0.4923075638180592</v>
       </c>
       <c r="K22">
-        <v>0.7948783264093962</v>
+        <v>0.5640582989471774</v>
       </c>
       <c r="L22">
-        <v>0.1335327100907495</v>
+        <v>0.1964328939239515</v>
       </c>
       <c r="M22">
-        <v>2.349257682910405</v>
+        <v>0.2282082558334437</v>
       </c>
       <c r="N22">
-        <v>0.4656613221000612</v>
+        <v>0.1258524932768239</v>
       </c>
       <c r="O22">
-        <v>0.3402935710718893</v>
+        <v>2.464727517632213</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.5387439867417925</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3488215214818524</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9703745714887191</v>
+        <v>0.8911824883193731</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03401807749231978</v>
+        <v>0.03694013600528123</v>
       </c>
       <c r="E23">
-        <v>0.06535004656238219</v>
+        <v>0.05851851831291155</v>
       </c>
       <c r="F23">
-        <v>1.545298037917419</v>
+        <v>1.261357783829155</v>
       </c>
       <c r="G23">
-        <v>1.323584978033352</v>
+        <v>1.207330223796816</v>
       </c>
       <c r="H23">
-        <v>0.007495667826801944</v>
+        <v>0.005776970823493655</v>
       </c>
       <c r="I23">
-        <v>0.02227156302300415</v>
+        <v>0.01615680520914253</v>
       </c>
       <c r="J23">
-        <v>0.8270398219699757</v>
+        <v>0.5460775463394896</v>
       </c>
       <c r="K23">
-        <v>0.7925090259871013</v>
+        <v>0.5747537680639319</v>
       </c>
       <c r="L23">
-        <v>0.1304095430973149</v>
+        <v>0.2014066563637833</v>
       </c>
       <c r="M23">
-        <v>2.260525487688113</v>
+        <v>0.2304370456202243</v>
       </c>
       <c r="N23">
-        <v>0.4480798391120544</v>
+        <v>0.1230390140371007</v>
       </c>
       <c r="O23">
-        <v>0.3280439616271948</v>
+        <v>2.383866371196149</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.5219200305938472</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3360799737046563</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8338311036209518</v>
+        <v>0.7533279293017756</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03035487047074881</v>
+        <v>0.02996518002099435</v>
       </c>
       <c r="E24">
-        <v>0.05961490843972284</v>
+        <v>0.05374432550150976</v>
       </c>
       <c r="F24">
-        <v>1.437861961482014</v>
+        <v>1.248475447079244</v>
       </c>
       <c r="G24">
-        <v>1.216986106240014</v>
+        <v>1.046263426612825</v>
       </c>
       <c r="H24">
-        <v>0.01210251694291112</v>
+        <v>0.009349216529063925</v>
       </c>
       <c r="I24">
-        <v>0.02837540844259134</v>
+        <v>0.02026366121831735</v>
       </c>
       <c r="J24">
-        <v>0.7857407517629582</v>
+        <v>0.6899175509453244</v>
       </c>
       <c r="K24">
-        <v>0.7775318845268444</v>
+        <v>0.6002324129183911</v>
       </c>
       <c r="L24">
-        <v>0.1189027759676797</v>
+        <v>0.2160673601602383</v>
       </c>
       <c r="M24">
-        <v>1.933966020130129</v>
+        <v>0.2327048493112756</v>
       </c>
       <c r="N24">
-        <v>0.3854353950514877</v>
+        <v>0.1122035805396422</v>
       </c>
       <c r="O24">
-        <v>0.2820975472831577</v>
+        <v>2.065749168579202</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.4564277749140189</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2884397318605565</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6862235081372603</v>
+        <v>0.6219185531657558</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02654266078226186</v>
+        <v>0.02606459428015739</v>
       </c>
       <c r="E25">
-        <v>0.05359176699646628</v>
+        <v>0.04818769175958648</v>
       </c>
       <c r="F25">
-        <v>1.3263911009997</v>
+        <v>1.172628216912983</v>
       </c>
       <c r="G25">
-        <v>1.106742184245675</v>
+        <v>0.9628610475237878</v>
       </c>
       <c r="H25">
-        <v>0.01856745168778495</v>
+        <v>0.01462127443215439</v>
       </c>
       <c r="I25">
-        <v>0.03626011680097108</v>
+        <v>0.0258748399542208</v>
       </c>
       <c r="J25">
-        <v>0.7438302698868142</v>
+        <v>0.6708247988507452</v>
       </c>
       <c r="K25">
-        <v>0.7621333556768946</v>
+        <v>0.6053158435521837</v>
       </c>
       <c r="L25">
-        <v>0.1067243615713931</v>
+        <v>0.2246095939491468</v>
       </c>
       <c r="M25">
-        <v>1.58578424456681</v>
+        <v>0.2275938384097529</v>
       </c>
       <c r="N25">
-        <v>0.3191185851725464</v>
+        <v>0.09934240438145281</v>
       </c>
       <c r="O25">
-        <v>0.2328375829688945</v>
+        <v>1.68872295903131</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3770562797065793</v>
       </c>
       <c r="Q25">
+        <v>0.2377229929974192</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
